--- a/Metadata.xlsx
+++ b/Metadata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0MFT~2020\計畫\謝志豪計畫\第一年期中報告\draft\Microbiome_transfer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A653FCC9-1CF6-4E46-A146-39CF47E3918D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D52F45-5134-41F0-BF8E-F2B35646A23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="128">
   <si>
     <t>Day</t>
   </si>
@@ -365,10 +365,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SampleID in BioProject PRJNA1047765 (NCBI)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Temp (°C)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -393,10 +389,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Gas production (L/day)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>In reactor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -409,19 +401,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Chemical oxygen demand, COD (mg/L)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Suspended solids, SS (mg/L)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Electrical conductivity, EC (mS/cm)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sucrose (mg/L)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In influent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suspended solids, 
+SS (mg/L)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SampleID in 
+BioProject PRJNA1047765 (NCBI)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas production 
+(L/day)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chemical oxygen 
+demand, COD (mg/L)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,7 +438,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -460,18 +468,12 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -491,17 +493,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -516,6 +511,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -798,27 +796,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.42578125" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="16" width="20.7109375" customWidth="1"/>
+    <col min="17" max="17" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="30.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="30.7109375" bestFit="1" customWidth="1"/>
@@ -829,126 +814,149 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="M1" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4" t="s">
+      <c r="N1" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q1" s="8"/>
+    </row>
+    <row r="2" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="3" t="s">
+      <c r="H2" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="I2" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="H2" s="10" t="s">
+      <c r="O2" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="P2" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>119</v>
-      </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="2">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="3">
         <v>33.26</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="2">
         <v>6.61</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="2">
         <v>-444</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="4">
         <v>11600</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="2">
         <v>4.1500000000000004</v>
       </c>
-      <c r="H3" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I3" s="6">
+      <c r="H3" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I3" s="3">
         <v>13.22477205</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="3">
         <v>20.19944125</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="3">
         <v>3.49657252</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="4">
         <v>85</v>
       </c>
-      <c r="M3" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N3" s="7">
+      <c r="M3" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N3" s="4">
         <v>34392.898090000002</v>
       </c>
-      <c r="O3" s="7">
+      <c r="O3" s="4">
         <v>60357.399749999997</v>
       </c>
-      <c r="P3" s="6">
+      <c r="P3" s="3">
         <v>25.74460723754456</v>
       </c>
       <c r="Q3" s="1"/>
@@ -956,52 +964,52 @@
       <c r="S3" s="1"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="2">
         <v>4</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="3">
         <v>33.94</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="2">
         <v>6.59</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="2">
         <v>-444</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="4">
         <v>6700</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="2">
         <v>3.92</v>
       </c>
-      <c r="H4" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I4" s="6">
+      <c r="H4" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I4" s="3">
         <v>11.12934445</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="3">
         <v>21.70244387</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="3">
         <v>3.7314860620000001</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="4">
         <v>95</v>
       </c>
-      <c r="M4" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N4" s="7">
+      <c r="M4" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N4" s="4">
         <v>37247.009019999998</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="4">
         <v>60190.436260000002</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4" s="3">
         <v>26.362536585328556</v>
       </c>
       <c r="Q4" s="1"/>
@@ -1009,52 +1017,52 @@
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="2">
         <v>5</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="3">
         <v>33.229999999999997</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="2">
         <v>6.58</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="2">
         <v>-446</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="4">
         <v>6498.9039709999997</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="2">
         <v>3.83</v>
       </c>
-      <c r="H5" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I5" s="6">
+      <c r="H5" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I5" s="3">
         <v>13.651253580000001</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="3">
         <v>29.854590479999999</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="3">
         <v>3.3119969839999999</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="4">
         <v>83</v>
       </c>
-      <c r="M5" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N5" s="7">
+      <c r="M5" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N5" s="4">
         <v>38045.351519999997</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="4">
         <v>59871.806499999999</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P5" s="3">
         <v>29.129302325502309</v>
       </c>
       <c r="Q5" s="1"/>
@@ -1062,52 +1070,52 @@
       <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="2">
         <v>6</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="3">
         <v>33.229999999999997</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="2">
         <v>6.58</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="2">
         <v>-447</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="4">
         <v>4799.5972140000003</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="2">
         <v>3.77</v>
       </c>
-      <c r="H6" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I6" s="6">
+      <c r="H6" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I6" s="3">
         <v>14.51793325</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="3">
         <v>28.883065770000002</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="3">
         <v>5.1475019440000001</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="4">
         <v>54</v>
       </c>
-      <c r="M6" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N6" s="7">
+      <c r="M6" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N6" s="4">
         <v>38149.61793</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6" s="4">
         <v>60100.63536</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P6" s="3">
         <v>29.324069478874176</v>
       </c>
       <c r="Q6" s="1"/>
@@ -1115,52 +1123,52 @@
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="2">
         <v>7</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="3">
         <v>33.03</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="2">
         <v>6.58</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="2">
         <v>-447</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="4">
         <v>5099.5711039999997</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="2">
         <v>3.75</v>
       </c>
-      <c r="H7" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I7" s="6">
+      <c r="H7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I7" s="3">
         <v>14.83414999</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="3">
         <v>19.757167330000001</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="3">
         <v>3.358055448</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="4">
         <v>94</v>
       </c>
-      <c r="M7" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N7" s="7">
+      <c r="M7" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N7" s="4">
         <v>37956.017489999998</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7" s="4">
         <v>60287.14099</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7" s="3">
         <v>30.239869446918192</v>
       </c>
       <c r="Q7" s="1"/>
@@ -1168,52 +1176,52 @@
       <c r="S7" s="1"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="2">
         <v>8</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="3">
         <v>33.229999999999997</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="2">
         <v>6.53</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="2">
         <v>-443</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="4">
         <v>4799.1843669999998</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="2">
         <v>3.73</v>
       </c>
-      <c r="H8" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I8" s="6">
+      <c r="H8" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I8" s="3">
         <v>14.91161305</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="3">
         <v>21.915956600000001</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="3">
         <v>2.793130278</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="4">
         <v>85</v>
       </c>
-      <c r="M8" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N8" s="7">
+      <c r="M8" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N8" s="4">
         <v>37039.912669999998</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="4">
         <v>60869.166579999997</v>
       </c>
-      <c r="P8" s="6">
+      <c r="P8" s="3">
         <v>29.154910344856724</v>
       </c>
       <c r="Q8" s="1"/>
@@ -1221,52 +1229,52 @@
       <c r="S8" s="1"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="2">
         <v>9</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="3">
         <v>33.229999999999997</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="2">
         <v>6.6</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="2">
         <v>-448</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="4">
         <v>3601.2299280000002</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="2">
         <v>3.78</v>
       </c>
-      <c r="H9" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I9" s="6">
+      <c r="H9" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I9" s="3">
         <v>13.52907854</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="3">
         <v>17.525446509999998</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="3">
         <v>2.351756596</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="4">
         <v>110</v>
       </c>
-      <c r="M9" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N9" s="7">
+      <c r="M9" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N9" s="4">
         <v>36912.346920000004</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9" s="4">
         <v>60743.817999999999</v>
       </c>
-      <c r="P9" s="6">
+      <c r="P9" s="3">
         <v>33.776184513802313</v>
       </c>
       <c r="Q9" s="1"/>
@@ -1274,52 +1282,52 @@
       <c r="S9" s="1"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="2">
         <v>10</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="3">
         <v>32.4</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="2">
         <v>6.71</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="2">
         <v>-443</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="4">
         <v>3999.6637810000002</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="2">
         <v>3.79</v>
       </c>
-      <c r="H10" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I10" s="6">
+      <c r="H10" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I10" s="3">
         <v>16.194830750000001</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="3">
         <v>27.12069408</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="3">
         <v>2.6796839760000002</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="4">
         <v>92</v>
       </c>
-      <c r="M10" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N10" s="7">
+      <c r="M10" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N10" s="4">
         <v>38259.828159999997</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O10" s="4">
         <v>60058.651610000001</v>
       </c>
-      <c r="P10" s="6">
+      <c r="P10" s="3">
         <v>30.776653846343297</v>
       </c>
       <c r="Q10" s="1"/>
@@ -1327,52 +1335,52 @@
       <c r="S10" s="1"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="2">
         <v>11</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="3">
         <v>32</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="2">
         <v>6.7</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="2">
         <v>-445</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="4">
         <v>4001.3502109999999</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="2">
         <v>3.74</v>
       </c>
-      <c r="H11" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I11" s="6">
+      <c r="H11" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I11" s="3">
         <v>20.21473039</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="3">
         <v>29.405712019999999</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="3">
         <v>3.4418780940000002</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="4">
         <v>87</v>
       </c>
-      <c r="M11" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N11" s="7">
+      <c r="M11" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N11" s="4">
         <v>37877.92583</v>
       </c>
-      <c r="O11" s="7">
+      <c r="O11" s="4">
         <v>60451.694739999999</v>
       </c>
-      <c r="P11" s="6">
+      <c r="P11" s="3">
         <v>28.857859247339292</v>
       </c>
       <c r="Q11" s="1"/>
@@ -1380,52 +1388,52 @@
       <c r="S11" s="1"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="2">
         <v>12</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="3">
         <v>32.9</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="2">
         <v>6.71</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="2">
         <v>-451</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="4">
         <v>3700.311526</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="2">
         <v>3.7</v>
       </c>
-      <c r="H12" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I12" s="6">
+      <c r="H12" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I12" s="3">
         <v>19.602901379999999</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="3">
         <v>33.250767150000001</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="3">
         <v>0</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="4">
         <v>107</v>
       </c>
-      <c r="M12" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N12" s="7">
+      <c r="M12" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N12" s="4">
         <v>39000.795769999997</v>
       </c>
-      <c r="O12" s="7">
+      <c r="O12" s="4">
         <v>59367.281329999998</v>
       </c>
-      <c r="P12" s="6">
+      <c r="P12" s="3">
         <v>30.518392638113284</v>
       </c>
       <c r="Q12" s="1"/>
@@ -1433,52 +1441,52 @@
       <c r="S12" s="1"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="2">
         <v>13</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="3">
         <v>32.6</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="2">
         <v>6.7</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="2">
         <v>-451</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="4">
         <v>3500</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="2">
         <v>3.64</v>
       </c>
-      <c r="H13" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I13" s="6">
+      <c r="H13" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I13" s="3">
         <v>15.62747738</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="3">
         <v>21.029463230000001</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="3">
         <v>2.7228210759999998</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="4">
         <v>68</v>
       </c>
-      <c r="M13" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N13" s="7">
+      <c r="M13" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N13" s="4">
         <v>39049.024460000001</v>
       </c>
-      <c r="O13" s="7">
+      <c r="O13" s="4">
         <v>59269.543169999997</v>
       </c>
-      <c r="P13" s="6">
+      <c r="P13" s="3">
         <v>30.188718601110338</v>
       </c>
       <c r="Q13" s="1"/>
@@ -1486,52 +1494,52 @@
       <c r="S13" s="1"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="2">
         <v>14</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="3">
         <v>32.39</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="2">
         <v>6.68</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="2">
         <v>-450</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="4">
         <v>3100.5247570000001</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="2">
         <v>3.61</v>
       </c>
-      <c r="H14" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I14" s="6">
+      <c r="H14" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I14" s="3">
         <v>49.64317956</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="3">
         <v>48.667013990000001</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="3">
         <v>11.923691160000001</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="4">
         <v>211</v>
       </c>
-      <c r="M14" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N14" s="7">
+      <c r="M14" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N14" s="4">
         <v>38893.26453</v>
       </c>
-      <c r="O14" s="7">
+      <c r="O14" s="4">
         <v>59312.835789999997</v>
       </c>
-      <c r="P14" s="6">
+      <c r="P14" s="3">
         <v>29.499442167937538</v>
       </c>
       <c r="Q14" s="1"/>
@@ -1539,52 +1547,52 @@
       <c r="S14" s="1"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="A15" s="2">
         <v>15</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="3">
         <v>32.840000000000003</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="2">
         <v>6.53</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="2">
         <v>-452</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="4">
         <v>2399.5890060000002</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="2">
         <v>3.51</v>
       </c>
-      <c r="H15" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I15" s="6">
+      <c r="H15" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I15" s="3">
         <v>65.037360460000002</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="3">
         <v>52.758007249999999</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="3">
         <v>19.52336335</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="4">
         <v>266</v>
       </c>
-      <c r="M15" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N15" s="7">
+      <c r="M15" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N15" s="4">
         <v>40180.666469999996</v>
       </c>
-      <c r="O15" s="7">
+      <c r="O15" s="4">
         <v>57223.010970000003</v>
       </c>
-      <c r="P15" s="6">
+      <c r="P15" s="3">
         <v>27.715639934491342</v>
       </c>
       <c r="Q15" s="1"/>
@@ -1592,52 +1600,52 @@
       <c r="S15" s="1"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="A16" s="2">
         <v>16</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="3">
         <v>33.22</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="2">
         <v>6.53</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="2">
         <v>-456</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="4">
         <v>2600</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="2">
         <v>3.6</v>
       </c>
-      <c r="H16" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I16" s="6">
+      <c r="H16" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I16" s="3">
         <v>31.946403589999999</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="3">
         <v>26.83364396</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="3">
         <v>17.86828251</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="4">
         <v>328</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="4">
         <v>216.06081850000001</v>
       </c>
-      <c r="N16" s="7">
+      <c r="N16" s="4">
         <v>40008.031239999997</v>
       </c>
-      <c r="O16" s="7">
+      <c r="O16" s="4">
         <v>57538.292719999998</v>
       </c>
-      <c r="P16" s="6">
+      <c r="P16" s="3">
         <v>25.997617834231054</v>
       </c>
       <c r="Q16" s="1"/>
@@ -1645,52 +1653,52 @@
       <c r="S16" s="1"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="A17" s="2">
         <v>17</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="3">
         <v>33.46</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="2">
         <v>6.54</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="2">
         <v>-451</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="4">
         <v>3300.8288680000001</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="2">
         <v>3.61</v>
       </c>
-      <c r="H17" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I17" s="6">
+      <c r="H17" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I17" s="3">
         <v>118.6321732</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="3">
         <v>75.269563059999996</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="3">
         <v>79.533809090000005</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="4">
         <v>359</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="4">
         <v>477.37354959999999</v>
       </c>
-      <c r="N17" s="7">
+      <c r="N17" s="4">
         <v>39812.1</v>
       </c>
-      <c r="O17" s="7">
+      <c r="O17" s="4">
         <v>57259.601710000003</v>
       </c>
-      <c r="P17" s="6">
+      <c r="P17" s="3">
         <v>24.82430841868613</v>
       </c>
       <c r="Q17" s="1"/>
@@ -1698,52 +1706,52 @@
       <c r="S17" s="1"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="A18" s="2">
         <v>18</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="3">
         <v>33.31</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="2">
         <v>6.52</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="2">
         <v>-459</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="4">
         <v>4399.6279379999996</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="2">
         <v>3.61</v>
       </c>
-      <c r="H18" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I18" s="6">
+      <c r="H18" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I18" s="3">
         <v>93.333652060000006</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="3">
         <v>55.572267449999998</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="3">
         <v>64.312981579999999</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="4">
         <v>360</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="4">
         <v>856.92063270000006</v>
       </c>
-      <c r="N18" s="7">
+      <c r="N18" s="4">
         <v>39642.70983</v>
       </c>
-      <c r="O18" s="7">
+      <c r="O18" s="4">
         <v>56906.551850000003</v>
       </c>
-      <c r="P18" s="6">
+      <c r="P18" s="3">
         <v>25.1263674746078</v>
       </c>
       <c r="Q18" s="1"/>
@@ -1751,52 +1759,52 @@
       <c r="S18" s="1"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="A19" s="2">
         <v>19</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="3">
         <v>33.159999999999997</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="2">
         <v>6.52</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="2">
         <v>-463</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="4">
         <v>3900</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="2">
         <v>3.64</v>
       </c>
-      <c r="H19" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I19" s="6">
+      <c r="H19" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I19" s="3">
         <v>115.1608119</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="3">
         <v>60.610150650000001</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="3">
         <v>85.906192340000004</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="4">
         <v>469</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="4">
         <v>1363.366358</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N19" s="4">
         <v>40402.482389999997</v>
       </c>
-      <c r="O19" s="7">
+      <c r="O19" s="4">
         <v>55261.637260000003</v>
       </c>
-      <c r="P19" s="6">
+      <c r="P19" s="3">
         <v>22.883981790583846</v>
       </c>
       <c r="Q19" s="1"/>
@@ -1804,52 +1812,52 @@
       <c r="S19" s="1"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="A20" s="2">
         <v>20</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="3">
         <v>33.590000000000003</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="2">
         <v>6.61</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="2">
         <v>-453</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="4">
         <v>4501.5227139999997</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="2">
         <v>3.69</v>
       </c>
-      <c r="H20" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I20" s="6">
+      <c r="H20" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I20" s="3">
         <v>31.946403589999999</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="3">
         <v>26.83364396</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="3">
         <v>17.86828251</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L20" s="4">
         <v>159</v>
       </c>
-      <c r="M20" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N20" s="7">
+      <c r="M20" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N20" s="4">
         <v>37602.203329999997</v>
       </c>
-      <c r="O20" s="7">
+      <c r="O20" s="4">
         <v>60747.53587</v>
       </c>
-      <c r="P20" s="6">
+      <c r="P20" s="3">
         <v>28.703801324299008</v>
       </c>
       <c r="Q20" s="1"/>
@@ -1857,52 +1865,52 @@
       <c r="S20" s="1"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="A21" s="2">
         <v>21</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="3">
         <v>33.409999999999997</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="2">
         <v>6.59</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="2">
         <v>-451</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="4">
         <v>5898.49413</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="2">
         <v>3.71</v>
       </c>
-      <c r="H21" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I21" s="6">
+      <c r="H21" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I21" s="3">
         <v>23.051286229999999</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="3">
         <v>30.488635049999999</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="3">
         <v>4.3879558459999997</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="4">
         <v>114</v>
       </c>
-      <c r="M21" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N21" s="7">
+      <c r="M21" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N21" s="4">
         <v>38299.402520000003</v>
       </c>
-      <c r="O21" s="7">
+      <c r="O21" s="4">
         <v>59756.652560000002</v>
       </c>
-      <c r="P21" s="6">
+      <c r="P21" s="3">
         <v>26.930400001557743</v>
       </c>
       <c r="Q21" s="1"/>
@@ -1910,52 +1918,52 @@
       <c r="S21" s="1"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+      <c r="A22" s="2">
         <v>22</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="3">
         <v>33.159999999999997</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="2">
         <v>6.58</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="2">
         <v>-450</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="4">
         <v>3698.422309</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="2">
         <v>3.58</v>
       </c>
-      <c r="H22" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I22" s="6">
+      <c r="H22" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I22" s="3">
         <v>31.599343439999998</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22" s="3">
         <v>38.496241169999998</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="3">
         <v>4.6867550060000003</v>
       </c>
-      <c r="L22" s="7">
+      <c r="L22" s="4">
         <v>128</v>
       </c>
-      <c r="M22" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N22" s="7">
+      <c r="M22" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N22" s="4">
         <v>38413.446450000003</v>
       </c>
-      <c r="O22" s="7">
+      <c r="O22" s="4">
         <v>59031.366309999998</v>
       </c>
-      <c r="P22" s="6">
+      <c r="P22" s="3">
         <v>27.200718367378983</v>
       </c>
       <c r="Q22" s="1"/>
@@ -1963,52 +1971,52 @@
       <c r="S22" s="1"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+      <c r="A23" s="2">
         <v>23</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="3">
         <v>33.33</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="2">
         <v>6.55</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="2">
         <v>-451</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="4">
         <v>2499.3718589999999</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="2">
         <v>3.57</v>
       </c>
-      <c r="H23" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I23" s="6">
+      <c r="H23" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I23" s="3">
         <v>76.569631920000006</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="3">
         <v>51.759398789999999</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="3">
         <v>12.878558630000001</v>
       </c>
-      <c r="L23" s="7">
+      <c r="L23" s="4">
         <v>233</v>
       </c>
-      <c r="M23" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N23" s="7">
+      <c r="M23" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N23" s="4">
         <v>40046.675430000003</v>
       </c>
-      <c r="O23" s="7">
+      <c r="O23" s="4">
         <v>57583.400220000003</v>
       </c>
-      <c r="P23" s="6">
+      <c r="P23" s="3">
         <v>24.904477611962129</v>
       </c>
       <c r="Q23" s="1"/>
@@ -2016,52 +2024,52 @@
       <c r="S23" s="1"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+      <c r="A24" s="2">
         <v>24</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="3">
         <v>33.24</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="2">
         <v>6.53</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="2">
         <v>-451</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="4">
         <v>1300</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="2">
         <v>3.62</v>
       </c>
-      <c r="H24" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I24" s="6">
+      <c r="H24" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I24" s="3">
         <v>127.8678089</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24" s="3">
         <v>63.536193140000002</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="3">
         <v>46.323170820000001</v>
       </c>
-      <c r="L24" s="7">
+      <c r="L24" s="4">
         <v>366</v>
       </c>
-      <c r="M24" s="7">
+      <c r="M24" s="4">
         <v>246.80037369999999</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N24" s="4">
         <v>40817.823120000001</v>
       </c>
-      <c r="O24" s="7">
+      <c r="O24" s="4">
         <v>55872.844230000002</v>
       </c>
-      <c r="P24" s="6">
+      <c r="P24" s="3">
         <v>22.730976452052815</v>
       </c>
       <c r="Q24" s="1"/>
@@ -2069,52 +2077,52 @@
       <c r="S24" s="1"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+      <c r="A25" s="2">
         <v>25</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="3">
         <v>33.32</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="2">
         <v>6.54</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="2">
         <v>-453</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="4">
         <v>1100</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="2">
         <v>3.61</v>
       </c>
-      <c r="H25" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I25" s="6">
+      <c r="H25" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I25" s="3">
         <v>137.21284</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25" s="3">
         <v>71.418074039999993</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K25" s="3">
         <v>70.665812200000005</v>
       </c>
-      <c r="L25" s="7">
+      <c r="L25" s="4">
         <v>384</v>
       </c>
-      <c r="M25" s="7">
+      <c r="M25" s="4">
         <v>361.67996590000001</v>
       </c>
-      <c r="N25" s="7">
+      <c r="N25" s="4">
         <v>40627.521939999999</v>
       </c>
-      <c r="O25" s="7">
+      <c r="O25" s="4">
         <v>56362.09994</v>
       </c>
-      <c r="P25" s="6">
+      <c r="P25" s="3">
         <v>22.463409835957922</v>
       </c>
       <c r="Q25" s="1"/>
@@ -2122,52 +2130,52 @@
       <c r="S25" s="1"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+      <c r="A26" s="2">
         <v>26</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="3">
         <v>33.35</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="2">
         <v>6.53</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="2">
         <v>-451</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="4">
         <v>799.86556880000001</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="2">
         <v>3.66</v>
       </c>
-      <c r="H26" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I26" s="6">
+      <c r="H26" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I26" s="3">
         <v>138.03499339999999</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26" s="3">
         <v>70.939022890000004</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="3">
         <v>64.921556370000005</v>
       </c>
-      <c r="L26" s="7">
+      <c r="L26" s="4">
         <v>392</v>
       </c>
-      <c r="M26" s="7">
+      <c r="M26" s="4">
         <v>348.69739099999998</v>
       </c>
-      <c r="N26" s="7">
+      <c r="N26" s="4">
         <v>41458.156219999997</v>
       </c>
-      <c r="O26" s="7">
+      <c r="O26" s="4">
         <v>55548.263630000001</v>
       </c>
-      <c r="P26" s="6">
+      <c r="P26" s="3">
         <v>22.768674937938876</v>
       </c>
       <c r="Q26" s="1"/>
@@ -2175,52 +2183,52 @@
       <c r="S26" s="1"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+      <c r="A27" s="2">
         <v>27</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="3">
         <v>33.36</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="2">
         <v>6.53</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="2">
         <v>-454</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="4">
         <v>1100</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="2">
         <v>3.66</v>
       </c>
-      <c r="H27" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I27" s="6">
+      <c r="H27" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I27" s="3">
         <v>145.493461</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="3">
         <v>78.605368749999997</v>
       </c>
-      <c r="K27" s="6">
+      <c r="K27" s="3">
         <v>65.284164270000005</v>
       </c>
-      <c r="L27" s="7">
+      <c r="L27" s="4">
         <v>425</v>
       </c>
-      <c r="M27" s="7">
+      <c r="M27" s="4">
         <v>328.35088450000001</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N27" s="4">
         <v>41545.712919999998</v>
       </c>
-      <c r="O27" s="7">
+      <c r="O27" s="4">
         <v>55591.493459999998</v>
       </c>
-      <c r="P27" s="6">
+      <c r="P27" s="3">
         <v>22.962649434541234</v>
       </c>
       <c r="Q27" s="1"/>
@@ -2228,52 +2236,52 @@
       <c r="S27" s="1"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+      <c r="A28" s="2">
         <v>28</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="3">
         <v>33.14</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="2">
         <v>6.52</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="2">
         <v>-454</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="4">
         <v>599.89898989999995</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="2">
         <v>3.72</v>
       </c>
-      <c r="H28" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I28" s="6">
+      <c r="H28" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I28" s="3">
         <v>146.92247169999999</v>
       </c>
-      <c r="J28" s="6">
+      <c r="J28" s="3">
         <v>85.113078259999995</v>
       </c>
-      <c r="K28" s="6">
+      <c r="K28" s="3">
         <v>61.116479759999997</v>
       </c>
-      <c r="L28" s="7">
+      <c r="L28" s="4">
         <v>425</v>
       </c>
-      <c r="M28" s="7">
+      <c r="M28" s="4">
         <v>409.90828160000001</v>
       </c>
-      <c r="N28" s="7">
+      <c r="N28" s="4">
         <v>41436.200250000002</v>
       </c>
-      <c r="O28" s="7">
+      <c r="O28" s="4">
         <v>55403.889510000001</v>
       </c>
-      <c r="P28" s="6">
+      <c r="P28" s="3">
         <v>21.739899104897471</v>
       </c>
       <c r="Q28" s="1"/>
@@ -2281,52 +2289,52 @@
       <c r="S28" s="1"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+      <c r="A29" s="2">
         <v>29</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="3">
         <v>33.25</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="2">
         <v>6.53</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="2">
         <v>-456</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="4">
         <v>799.86287279999999</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="2">
         <v>3.74</v>
       </c>
-      <c r="H29" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I29" s="6">
+      <c r="H29" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I29" s="3">
         <v>152.92896909999999</v>
       </c>
-      <c r="J29" s="6">
+      <c r="J29" s="3">
         <v>111.65912179999999</v>
       </c>
-      <c r="K29" s="6">
+      <c r="K29" s="3">
         <v>62.83483974</v>
       </c>
-      <c r="L29" s="7">
+      <c r="L29" s="4">
         <v>489</v>
       </c>
-      <c r="M29" s="7">
+      <c r="M29" s="4">
         <v>333.26742430000002</v>
       </c>
-      <c r="N29" s="7">
+      <c r="N29" s="4">
         <v>42110.444239999997</v>
       </c>
-      <c r="O29" s="7">
+      <c r="O29" s="4">
         <v>55080.182130000001</v>
       </c>
-      <c r="P29" s="6">
+      <c r="P29" s="3">
         <v>23.276434714638235</v>
       </c>
       <c r="Q29" s="1"/>
@@ -2334,52 +2342,52 @@
       <c r="S29" s="1"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+      <c r="A30" s="2">
         <v>30</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="3">
         <v>33.369999999999997</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="2">
         <v>6.58</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="2">
         <v>-453</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="4">
         <v>2700.2267379999998</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="2">
         <v>3.75</v>
       </c>
-      <c r="H30" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I30" s="6">
+      <c r="H30" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I30" s="3">
         <v>64.824216770000007</v>
       </c>
-      <c r="J30" s="6">
+      <c r="J30" s="3">
         <v>61.90833567</v>
       </c>
-      <c r="K30" s="6">
+      <c r="K30" s="3">
         <v>15.728904440000001</v>
       </c>
-      <c r="L30" s="7">
+      <c r="L30" s="4">
         <v>225</v>
       </c>
-      <c r="M30" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N30" s="7">
+      <c r="M30" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N30" s="4">
         <v>39066.037060000002</v>
       </c>
-      <c r="O30" s="7">
+      <c r="O30" s="4">
         <v>59122.793089999999</v>
       </c>
-      <c r="P30" s="6">
+      <c r="P30" s="3">
         <v>31.633714285713982</v>
       </c>
       <c r="Q30" s="1"/>
@@ -2387,52 +2395,52 @@
       <c r="S30" s="1"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
+      <c r="A31" s="2">
         <v>31</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="3">
         <v>32.950000000000003</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="2">
         <v>6.58</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="2">
         <v>-450</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="4">
         <v>1699.711693</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="2">
         <v>3.76</v>
       </c>
-      <c r="H31" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I31" s="6">
+      <c r="H31" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I31" s="3">
         <v>79.571445659999995</v>
       </c>
-      <c r="J31" s="6">
+      <c r="J31" s="3">
         <v>63.044624079999998</v>
       </c>
-      <c r="K31" s="6">
+      <c r="K31" s="3">
         <v>16.166886949999999</v>
       </c>
-      <c r="L31" s="7">
+      <c r="L31" s="4">
         <v>235</v>
       </c>
-      <c r="M31" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N31" s="7">
+      <c r="M31" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N31" s="4">
         <v>39843.736900000004</v>
       </c>
-      <c r="O31" s="7">
+      <c r="O31" s="4">
         <v>57899.843889999996</v>
       </c>
-      <c r="P31" s="6">
+      <c r="P31" s="3">
         <v>26.344335483920254</v>
       </c>
       <c r="Q31" s="1"/>
@@ -2440,52 +2448,52 @@
       <c r="S31" s="1"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
+      <c r="A32" s="2">
         <v>32</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="3">
         <v>33.26</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="2">
         <v>6.55</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="2">
         <v>-452</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="4">
         <v>1800.1520909999999</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="2">
         <v>3.73</v>
       </c>
-      <c r="H32" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I32" s="6">
+      <c r="H32" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I32" s="3">
         <v>122.53638890000001</v>
       </c>
-      <c r="J32" s="6">
+      <c r="J32" s="3">
         <v>80.528212030000006</v>
       </c>
-      <c r="K32" s="6">
+      <c r="K32" s="3">
         <v>34.97379127</v>
       </c>
-      <c r="L32" s="7">
+      <c r="L32" s="4">
         <v>358</v>
       </c>
-      <c r="M32" s="7">
+      <c r="M32" s="4">
         <v>253.8362673</v>
       </c>
-      <c r="N32" s="7">
+      <c r="N32" s="4">
         <v>40621.436730000001</v>
       </c>
-      <c r="O32" s="7">
+      <c r="O32" s="4">
         <v>56676.894679999998</v>
       </c>
-      <c r="P32" s="6">
+      <c r="P32" s="3">
         <v>24.750093819840604</v>
       </c>
       <c r="Q32" s="1"/>
@@ -2493,52 +2501,52 @@
       <c r="S32" s="1"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
+      <c r="A33" s="2">
         <v>33</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="3">
         <v>33.58</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="2">
         <v>6.54</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="2">
         <v>-449</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="4">
         <v>2700</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="2">
         <v>3.6</v>
       </c>
-      <c r="H33" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I33" s="6">
+      <c r="H33" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I33" s="3">
         <v>71.046829110000004</v>
       </c>
-      <c r="J33" s="6">
+      <c r="J33" s="3">
         <v>50.101402759999999</v>
       </c>
-      <c r="K33" s="6">
+      <c r="K33" s="3">
         <v>18.408623810000002</v>
       </c>
-      <c r="L33" s="7">
+      <c r="L33" s="4">
         <v>211</v>
       </c>
-      <c r="M33" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N33" s="7">
+      <c r="M33" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N33" s="4">
         <v>38702.396180000003</v>
       </c>
-      <c r="O33" s="7">
+      <c r="O33" s="4">
         <v>59832.570319999999</v>
       </c>
-      <c r="P33" s="6">
+      <c r="P33" s="3">
         <v>29.295290322697518</v>
       </c>
       <c r="Q33" s="1"/>
@@ -2546,52 +2554,52 @@
       <c r="S33" s="1"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
+      <c r="A34" s="2">
         <v>34</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="3">
         <v>33.450000000000003</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="2">
         <v>6.58</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="2">
         <v>-446</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="4">
         <v>1799.8473019999999</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="2">
         <v>3.56</v>
       </c>
-      <c r="H34" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I34" s="6">
+      <c r="H34" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I34" s="3">
         <v>61.393878780000001</v>
       </c>
-      <c r="J34" s="6">
+      <c r="J34" s="3">
         <v>42.673255599999997</v>
       </c>
-      <c r="K34" s="6">
+      <c r="K34" s="3">
         <v>10.63671927</v>
       </c>
-      <c r="L34" s="7">
+      <c r="L34" s="4">
         <v>188</v>
       </c>
-      <c r="M34" s="7">
+      <c r="M34" s="4">
         <v>4.1872581660000003</v>
       </c>
-      <c r="N34" s="7">
+      <c r="N34" s="4">
         <v>39335.516640000002</v>
       </c>
-      <c r="O34" s="7">
+      <c r="O34" s="4">
         <v>58578.173999999999</v>
       </c>
-      <c r="P34" s="6">
+      <c r="P34" s="3">
         <v>26.658013899422194</v>
       </c>
       <c r="Q34" s="1"/>
@@ -2599,52 +2607,52 @@
       <c r="S34" s="1"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
+      <c r="A35" s="2">
         <v>35</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="3">
         <v>33.42</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="2">
         <v>6.54</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="2">
         <v>-449</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="4">
         <v>1300</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="2">
         <v>3.63</v>
       </c>
-      <c r="H35" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I35" s="6">
+      <c r="H35" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I35" s="3">
         <v>70.807163799999998</v>
       </c>
-      <c r="J35" s="6">
+      <c r="J35" s="3">
         <v>42.943265320000002</v>
       </c>
-      <c r="K35" s="6">
+      <c r="K35" s="3">
         <v>12.23048563</v>
       </c>
-      <c r="L35" s="7">
+      <c r="L35" s="4">
         <v>228</v>
       </c>
-      <c r="M35" s="7">
+      <c r="M35" s="4">
         <v>20.49409034</v>
       </c>
-      <c r="N35" s="7">
+      <c r="N35" s="4">
         <v>40335.842190000003</v>
       </c>
-      <c r="O35" s="7">
+      <c r="O35" s="4">
         <v>57299.114439999998</v>
       </c>
-      <c r="P35" s="6">
+      <c r="P35" s="3">
         <v>24.888902532541639</v>
       </c>
       <c r="Q35" s="1"/>
@@ -2652,52 +2660,52 @@
       <c r="S35" s="1"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
+      <c r="A36" s="2">
         <v>36</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="3">
         <v>33.369999999999997</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="2">
         <v>6.52</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="2">
         <v>-449</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" s="4">
         <v>1700</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="2">
         <v>3.57</v>
       </c>
-      <c r="H36" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I36" s="6">
+      <c r="H36" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I36" s="3">
         <v>97.133199390000001</v>
       </c>
-      <c r="J36" s="6">
+      <c r="J36" s="3">
         <v>65.59665665</v>
       </c>
-      <c r="K36" s="6">
+      <c r="K36" s="3">
         <v>17.598662820000001</v>
       </c>
-      <c r="L36" s="7">
+      <c r="L36" s="4">
         <v>253</v>
       </c>
-      <c r="M36" s="7">
+      <c r="M36" s="4">
         <v>1.045650333</v>
       </c>
-      <c r="N36" s="7">
+      <c r="N36" s="4">
         <v>39819.585200000001</v>
       </c>
-      <c r="O36" s="7">
+      <c r="O36" s="4">
         <v>57118.406159999999</v>
       </c>
-      <c r="P36" s="6">
+      <c r="P36" s="3">
         <v>24.65586062714257</v>
       </c>
       <c r="Q36" s="1"/>
@@ -2705,52 +2713,52 @@
       <c r="S36" s="1"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
+      <c r="A37" s="2">
         <v>37</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="3">
         <v>33.35</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="2">
         <v>6.55</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="2">
         <v>-449</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="4">
         <v>1500</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37" s="2">
         <v>3.59</v>
       </c>
-      <c r="H37" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I37" s="6">
+      <c r="H37" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I37" s="3">
         <v>108.9445219</v>
       </c>
-      <c r="J37" s="6">
+      <c r="J37" s="3">
         <v>72.360100180000003</v>
       </c>
-      <c r="K37" s="6">
+      <c r="K37" s="3">
         <v>22.25125105</v>
       </c>
-      <c r="L37" s="7">
+      <c r="L37" s="4">
         <v>297</v>
       </c>
-      <c r="M37" s="7">
+      <c r="M37" s="4">
         <v>72.016174530000001</v>
       </c>
-      <c r="N37" s="7">
+      <c r="N37" s="4">
         <v>40750.139060000001</v>
       </c>
-      <c r="O37" s="7">
+      <c r="O37" s="4">
         <v>56582.298410000003</v>
       </c>
-      <c r="P37" s="6">
+      <c r="P37" s="3">
         <v>22.030255866771355</v>
       </c>
       <c r="Q37" s="1"/>
@@ -2758,52 +2766,52 @@
       <c r="S37" s="1"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
+      <c r="A38" s="2">
         <v>38</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="3">
         <v>33.5</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="2">
         <v>6.55</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="2">
         <v>-449</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="4">
         <v>1100</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="2">
         <v>3.62</v>
       </c>
-      <c r="H38" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I38" s="6">
+      <c r="H38" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I38" s="3">
         <v>144.70574690000001</v>
       </c>
-      <c r="J38" s="6">
+      <c r="J38" s="3">
         <v>104.905423</v>
       </c>
-      <c r="K38" s="6">
+      <c r="K38" s="3">
         <v>36.029941229999999</v>
       </c>
-      <c r="L38" s="7">
+      <c r="L38" s="4">
         <v>371</v>
       </c>
-      <c r="M38" s="7">
+      <c r="M38" s="4">
         <v>90.644094409999994</v>
       </c>
-      <c r="N38" s="7">
+      <c r="N38" s="4">
         <v>41454.289680000002</v>
       </c>
-      <c r="O38" s="7">
+      <c r="O38" s="4">
         <v>56032.606370000001</v>
       </c>
-      <c r="P38" s="6">
+      <c r="P38" s="3">
         <v>23.141167464089335</v>
       </c>
       <c r="Q38" s="1"/>
@@ -2811,52 +2819,52 @@
       <c r="S38" s="1"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
+      <c r="A39" s="2">
         <v>39</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="3">
         <v>33.43</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="2">
         <v>6.57</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="2">
         <v>-448</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="4">
         <v>1000</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G39" s="2">
         <v>3.68</v>
       </c>
-      <c r="H39" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I39" s="6">
+      <c r="H39" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I39" s="3">
         <v>132.74966130000001</v>
       </c>
-      <c r="J39" s="6">
+      <c r="J39" s="3">
         <v>112.95135929999999</v>
       </c>
-      <c r="K39" s="6">
+      <c r="K39" s="3">
         <v>24.352924730000002</v>
       </c>
-      <c r="L39" s="7">
+      <c r="L39" s="4">
         <v>381</v>
       </c>
-      <c r="M39" s="7">
+      <c r="M39" s="4">
         <v>75.229031800000001</v>
       </c>
-      <c r="N39" s="7">
+      <c r="N39" s="4">
         <v>41237.107810000001</v>
       </c>
-      <c r="O39" s="7">
+      <c r="O39" s="4">
         <v>56418.942430000003</v>
       </c>
-      <c r="P39" s="6">
+      <c r="P39" s="3">
         <v>24.728150943450313</v>
       </c>
       <c r="Q39" s="1"/>
@@ -2864,52 +2872,52 @@
       <c r="S39" s="1"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
+      <c r="A40" s="2">
         <v>40</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="3">
         <v>33.4</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="2">
         <v>6.58</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="2">
         <v>-446</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40" s="4">
         <v>1100</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G40" s="2">
         <v>3.66</v>
       </c>
-      <c r="H40" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I40" s="6">
+      <c r="H40" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I40" s="3">
         <v>119.0775203</v>
       </c>
-      <c r="J40" s="6">
+      <c r="J40" s="3">
         <v>111.7136477</v>
       </c>
-      <c r="K40" s="6">
+      <c r="K40" s="3">
         <v>20.585962519999999</v>
       </c>
-      <c r="L40" s="7">
+      <c r="L40" s="4">
         <v>366</v>
       </c>
-      <c r="M40" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N40" s="7">
+      <c r="M40" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N40" s="4">
         <v>41019.254229999999</v>
       </c>
-      <c r="O40" s="7">
+      <c r="O40" s="4">
         <v>56697.188410000002</v>
       </c>
-      <c r="P40" s="6">
+      <c r="P40" s="3">
         <v>21.939587057042317</v>
       </c>
       <c r="Q40" s="1"/>
@@ -2917,52 +2925,52 @@
       <c r="S40" s="1"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
+      <c r="A41" s="2">
         <v>41</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="3">
         <v>33.35</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="2">
         <v>6.58</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="2">
         <v>-449</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41" s="4">
         <v>1599.8659070000001</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G41" s="2">
         <v>3.7</v>
       </c>
-      <c r="H41" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I41" s="6">
+      <c r="H41" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I41" s="3">
         <v>120.52641800000001</v>
       </c>
-      <c r="J41" s="6">
+      <c r="J41" s="3">
         <v>137.5894582</v>
       </c>
-      <c r="K41" s="6">
+      <c r="K41" s="3">
         <v>16.179682870000001</v>
       </c>
-      <c r="L41" s="7">
+      <c r="L41" s="4">
         <v>394</v>
       </c>
-      <c r="M41" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N41" s="7">
+      <c r="M41" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N41" s="4">
         <v>41412.006889999997</v>
       </c>
-      <c r="O41" s="7">
+      <c r="O41" s="4">
         <v>56152.285940000002</v>
       </c>
-      <c r="P41" s="6">
+      <c r="P41" s="3">
         <v>25.008375293216179</v>
       </c>
       <c r="Q41" s="1"/>
@@ -2970,52 +2978,52 @@
       <c r="S41" s="1"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
+      <c r="A42" s="2">
         <v>42</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="3">
         <v>33.29</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="2">
         <v>6.56</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="2">
         <v>-447</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F42" s="4">
         <v>1599.729227</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G42" s="2">
         <v>3.63</v>
       </c>
-      <c r="H42" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I42" s="6">
+      <c r="H42" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I42" s="3">
         <v>112.502319</v>
       </c>
-      <c r="J42" s="6">
+      <c r="J42" s="3">
         <v>132.3658116</v>
       </c>
-      <c r="K42" s="6">
+      <c r="K42" s="3">
         <v>12.13643821</v>
       </c>
-      <c r="L42" s="7">
+      <c r="L42" s="4">
         <v>370</v>
       </c>
-      <c r="M42" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N42" s="7">
+      <c r="M42" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N42" s="4">
         <v>41066.735979999998</v>
       </c>
-      <c r="O42" s="7">
+      <c r="O42" s="4">
         <v>56517.877439999997</v>
       </c>
-      <c r="P42" s="6">
+      <c r="P42" s="3">
         <v>24.005320754769453</v>
       </c>
       <c r="Q42" s="1"/>
@@ -3023,52 +3031,52 @@
       <c r="S42" s="1"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
+      <c r="A43" s="2">
         <v>43</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="3">
         <v>32.979999999999997</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="2">
         <v>6.56</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="2">
         <v>-446</v>
       </c>
-      <c r="F43" s="7">
-        <v>2000</v>
-      </c>
-      <c r="G43" s="5">
+      <c r="F43" s="4">
+        <v>2000</v>
+      </c>
+      <c r="G43" s="2">
         <v>3.56</v>
       </c>
-      <c r="H43" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I43" s="6">
+      <c r="H43" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I43" s="3">
         <v>92.731471119999995</v>
       </c>
-      <c r="J43" s="6">
+      <c r="J43" s="3">
         <v>136.4837521</v>
       </c>
-      <c r="K43" s="6">
+      <c r="K43" s="3">
         <v>7.9136065520000001</v>
       </c>
-      <c r="L43" s="7">
+      <c r="L43" s="4">
         <v>321</v>
       </c>
-      <c r="M43" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N43" s="7">
+      <c r="M43" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N43" s="4">
         <v>40496.465779999999</v>
       </c>
-      <c r="O43" s="7">
+      <c r="O43" s="4">
         <v>56875.846259999998</v>
       </c>
-      <c r="P43" s="6">
+      <c r="P43" s="3">
         <v>23.590378101007179</v>
       </c>
       <c r="Q43" s="1"/>
@@ -3076,52 +3084,52 @@
       <c r="S43" s="1"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="5">
+      <c r="A44" s="2">
         <v>44</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="3">
         <v>33.200000000000003</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="2">
         <v>6.55</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="2">
         <v>-445</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F44" s="4">
         <v>1399.762571</v>
       </c>
-      <c r="G44" s="5">
+      <c r="G44" s="2">
         <v>3.53</v>
       </c>
-      <c r="H44" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I44" s="6">
+      <c r="H44" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I44" s="3">
         <v>100.1252807</v>
       </c>
-      <c r="J44" s="6">
+      <c r="J44" s="3">
         <v>148.58064479999999</v>
       </c>
-      <c r="K44" s="6">
+      <c r="K44" s="3">
         <v>6.8905397539999997</v>
       </c>
-      <c r="L44" s="7">
+      <c r="L44" s="4">
         <v>352</v>
       </c>
-      <c r="M44" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N44" s="7">
+      <c r="M44" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N44" s="4">
         <v>41382.44225</v>
       </c>
-      <c r="O44" s="7">
+      <c r="O44" s="4">
         <v>56315.587650000001</v>
       </c>
-      <c r="P44" s="6">
+      <c r="P44" s="3">
         <v>22.387887369133203</v>
       </c>
       <c r="Q44" s="1"/>
@@ -3129,52 +3137,52 @@
       <c r="S44" s="1"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="5">
+      <c r="A45" s="2">
         <v>45</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="3">
         <v>33.380000000000003</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="2">
         <v>6.57</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E45" s="2">
         <v>-445</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45" s="4">
         <v>2000.5067570000001</v>
       </c>
-      <c r="G45" s="5">
+      <c r="G45" s="2">
         <v>3.54</v>
       </c>
-      <c r="H45" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I45" s="6">
+      <c r="H45" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I45" s="3">
         <v>82.722479399999997</v>
       </c>
-      <c r="J45" s="6">
+      <c r="J45" s="3">
         <v>143.35384099999999</v>
       </c>
-      <c r="K45" s="6">
+      <c r="K45" s="3">
         <v>4.7589178219999999</v>
       </c>
-      <c r="L45" s="7">
+      <c r="L45" s="4">
         <v>335</v>
       </c>
-      <c r="M45" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N45" s="7">
+      <c r="M45" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N45" s="4">
         <v>40918.515059999998</v>
       </c>
-      <c r="O45" s="7">
+      <c r="O45" s="4">
         <v>56663.483999999997</v>
       </c>
-      <c r="P45" s="6">
+      <c r="P45" s="3">
         <v>22.687786833860013</v>
       </c>
       <c r="Q45" s="1"/>
@@ -3182,52 +3190,52 @@
       <c r="S45" s="1"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="5">
+      <c r="A46" s="2">
         <v>46</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="3">
         <v>33.43</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="2">
         <v>6.58</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="2">
         <v>-448</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F46" s="4">
         <v>1900</v>
       </c>
-      <c r="G46" s="5">
+      <c r="G46" s="2">
         <v>3.54</v>
       </c>
-      <c r="H46" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I46" s="6">
+      <c r="H46" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I46" s="3">
         <v>72.585994819999996</v>
       </c>
-      <c r="J46" s="6">
+      <c r="J46" s="3">
         <v>155.99129930000001</v>
       </c>
-      <c r="K46" s="6">
+      <c r="K46" s="3">
         <v>4.090830918</v>
       </c>
-      <c r="L46" s="7">
+      <c r="L46" s="4">
         <v>339</v>
       </c>
-      <c r="M46" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N46" s="7">
+      <c r="M46" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N46" s="4">
         <v>40984.358249999997</v>
       </c>
-      <c r="O46" s="7">
+      <c r="O46" s="4">
         <v>56564.623549999997</v>
       </c>
-      <c r="P46" s="6">
+      <c r="P46" s="3">
         <v>23.697212121295326</v>
       </c>
       <c r="Q46" s="1"/>
@@ -3235,52 +3243,52 @@
       <c r="S46" s="1"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="5">
+      <c r="A47" s="2">
         <v>47</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="3">
         <v>33.39</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="2">
         <v>6.59</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E47" s="2">
         <v>-445</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F47" s="4">
         <v>2800</v>
       </c>
-      <c r="G47" s="5">
+      <c r="G47" s="2">
         <v>3.57</v>
       </c>
-      <c r="H47" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I47" s="6">
+      <c r="H47" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I47" s="3">
         <v>59.706430019999999</v>
       </c>
-      <c r="J47" s="6">
+      <c r="J47" s="3">
         <v>139.27745630000001</v>
       </c>
-      <c r="K47" s="6">
+      <c r="K47" s="3">
         <v>3.1597956279999999</v>
       </c>
-      <c r="L47" s="7">
+      <c r="L47" s="4">
         <v>342</v>
       </c>
-      <c r="M47" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N47" s="7">
+      <c r="M47" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N47" s="4">
         <v>41288.852229999997</v>
       </c>
-      <c r="O47" s="7">
+      <c r="O47" s="4">
         <v>56386.580020000001</v>
       </c>
-      <c r="P47" s="6">
+      <c r="P47" s="3">
         <v>22.709632653087922</v>
       </c>
       <c r="Q47" s="1"/>
@@ -3288,52 +3296,52 @@
       <c r="S47" s="1"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="5">
+      <c r="A48" s="2">
         <v>48</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="3">
         <v>33.5</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="2">
         <v>6.59</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E48" s="2">
         <v>-444</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F48" s="4">
         <v>1899.680323</v>
       </c>
-      <c r="G48" s="5">
+      <c r="G48" s="2">
         <v>3.57</v>
       </c>
-      <c r="H48" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I48" s="6">
+      <c r="H48" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I48" s="3">
         <v>52.883367139999997</v>
       </c>
-      <c r="J48" s="6">
+      <c r="J48" s="3">
         <v>136.46404079999999</v>
       </c>
-      <c r="K48" s="6">
+      <c r="K48" s="3">
         <v>2.9373021540000002</v>
       </c>
-      <c r="L48" s="7">
+      <c r="L48" s="4">
         <v>329</v>
       </c>
-      <c r="M48" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N48" s="7">
+      <c r="M48" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N48" s="4">
         <v>41379.82516</v>
       </c>
-      <c r="O48" s="7">
+      <c r="O48" s="4">
         <v>56216.266250000001</v>
       </c>
-      <c r="P48" s="6">
+      <c r="P48" s="3">
         <v>23.617112446470209</v>
       </c>
       <c r="Q48" s="1"/>
@@ -3341,52 +3349,52 @@
       <c r="S48" s="1"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="5">
+      <c r="A49" s="2">
         <v>49</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="3">
         <v>33.47</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="2">
         <v>6.61</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E49" s="2">
         <v>-449</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F49" s="4">
         <v>2300.1940930000001</v>
       </c>
-      <c r="G49" s="5">
+      <c r="G49" s="2">
         <v>3.57</v>
       </c>
-      <c r="H49" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I49" s="6">
+      <c r="H49" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I49" s="3">
         <v>39.53980902</v>
       </c>
-      <c r="J49" s="6">
+      <c r="J49" s="3">
         <v>129.7565908</v>
       </c>
-      <c r="K49" s="6">
+      <c r="K49" s="3">
         <v>0</v>
       </c>
-      <c r="L49" s="7">
+      <c r="L49" s="4">
         <v>297</v>
       </c>
-      <c r="M49" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N49" s="7">
+      <c r="M49" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N49" s="4">
         <v>40862.400959999999</v>
       </c>
-      <c r="O49" s="7">
+      <c r="O49" s="4">
         <v>56658.898350000003</v>
       </c>
-      <c r="P49" s="6">
+      <c r="P49" s="3">
         <v>25.253742207180828</v>
       </c>
       <c r="Q49" s="1"/>
@@ -3394,52 +3402,52 @@
       <c r="S49" s="1"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="5">
+      <c r="A50" s="2">
         <v>50</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="3">
         <v>33.53</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="2">
         <v>6.68</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E50" s="2">
         <v>-448</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F50" s="4">
         <v>1800</v>
       </c>
-      <c r="G50" s="5">
+      <c r="G50" s="2">
         <v>3.56</v>
       </c>
-      <c r="H50" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I50" s="6">
+      <c r="H50" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I50" s="3">
         <v>37.380162290000001</v>
       </c>
-      <c r="J50" s="6">
+      <c r="J50" s="3">
         <v>137.80611110000001</v>
       </c>
-      <c r="K50" s="6">
+      <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="7">
+      <c r="L50" s="4">
         <v>287</v>
       </c>
-      <c r="M50" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N50" s="7">
+      <c r="M50" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N50" s="4">
         <v>40798.789100000002</v>
       </c>
-      <c r="O50" s="7">
+      <c r="O50" s="4">
         <v>56912.502269999997</v>
       </c>
-      <c r="P50" s="6">
+      <c r="P50" s="3">
         <v>24.746579535722685</v>
       </c>
       <c r="Q50" s="1"/>
@@ -3447,52 +3455,52 @@
       <c r="S50" s="1"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="5">
+      <c r="A51" s="2">
         <v>51</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="3">
         <v>33.090000000000003</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="2">
         <v>6.68</v>
       </c>
-      <c r="E51" s="5">
+      <c r="E51" s="2">
         <v>-448</v>
       </c>
-      <c r="F51" s="7">
+      <c r="F51" s="4">
         <v>3000.511814</v>
       </c>
-      <c r="G51" s="5">
+      <c r="G51" s="2">
         <v>3.56</v>
       </c>
-      <c r="H51" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I51" s="6">
+      <c r="H51" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I51" s="3">
         <v>15.29404944</v>
       </c>
-      <c r="J51" s="6">
+      <c r="J51" s="3">
         <v>71.515990220000006</v>
       </c>
-      <c r="K51" s="6">
+      <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="7">
+      <c r="L51" s="4">
         <v>140</v>
       </c>
-      <c r="M51" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N51" s="7">
+      <c r="M51" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N51" s="4">
         <v>35480.445489999998</v>
       </c>
-      <c r="O51" s="7">
+      <c r="O51" s="4">
         <v>60798.238109999998</v>
       </c>
-      <c r="P51" s="6">
+      <c r="P51" s="3">
         <v>19.938876404442357</v>
       </c>
       <c r="Q51" s="1"/>
@@ -3500,52 +3508,52 @@
       <c r="S51" s="1"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="5">
+      <c r="A52" s="2">
         <v>52</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="3">
         <v>33.19</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="2">
         <v>6.63</v>
       </c>
-      <c r="E52" s="5">
+      <c r="E52" s="2">
         <v>-447</v>
       </c>
-      <c r="F52" s="7">
+      <c r="F52" s="4">
         <v>3300</v>
       </c>
-      <c r="G52" s="5">
+      <c r="G52" s="2">
         <v>3.53</v>
       </c>
-      <c r="H52" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I52" s="6">
+      <c r="H52" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I52" s="3">
         <v>18.33339187</v>
       </c>
-      <c r="J52" s="6">
+      <c r="J52" s="3">
         <v>65.517828800000004</v>
       </c>
-      <c r="K52" s="6">
+      <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="7">
+      <c r="L52" s="4">
         <v>171</v>
       </c>
-      <c r="M52" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N52" s="7">
+      <c r="M52" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N52" s="4">
         <v>39962.274069999999</v>
       </c>
-      <c r="O52" s="7">
+      <c r="O52" s="4">
         <v>57391.461130000003</v>
       </c>
-      <c r="P52" s="6">
+      <c r="P52" s="3">
         <v>23.730068027285707</v>
       </c>
       <c r="Q52" s="1"/>
@@ -3553,52 +3561,52 @@
       <c r="S52" s="1"/>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="5">
+      <c r="A53" s="2">
         <v>53</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53" s="3">
         <v>33.26</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D53" s="2">
         <v>6.61</v>
       </c>
-      <c r="E53" s="5">
+      <c r="E53" s="2">
         <v>-445</v>
       </c>
-      <c r="F53" s="7">
+      <c r="F53" s="4">
         <v>3100</v>
       </c>
-      <c r="G53" s="5">
+      <c r="G53" s="2">
         <v>3.54</v>
       </c>
-      <c r="H53" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I53" s="6">
+      <c r="H53" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I53" s="3">
         <v>23.058435759999998</v>
       </c>
-      <c r="J53" s="6">
+      <c r="J53" s="3">
         <v>86.59718882</v>
       </c>
-      <c r="K53" s="6">
+      <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="7">
+      <c r="L53" s="4">
         <v>175</v>
       </c>
-      <c r="M53" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N53" s="7">
+      <c r="M53" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N53" s="4">
         <v>40390.657350000001</v>
       </c>
-      <c r="O53" s="7">
+      <c r="O53" s="4">
         <v>57513.135609999998</v>
       </c>
-      <c r="P53" s="6">
+      <c r="P53" s="3">
         <v>24.847874114988631</v>
       </c>
       <c r="Q53" s="1"/>
@@ -3606,52 +3614,52 @@
       <c r="S53" s="1"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="5">
+      <c r="A54" s="2">
         <v>54</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C54" s="3">
         <v>33.06</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D54" s="2">
         <v>6.59</v>
       </c>
-      <c r="E54" s="5">
+      <c r="E54" s="2">
         <v>-447</v>
       </c>
-      <c r="F54" s="7">
+      <c r="F54" s="4">
         <v>3299.4396809999998</v>
       </c>
-      <c r="G54" s="5">
+      <c r="G54" s="2">
         <v>3.52</v>
       </c>
-      <c r="H54" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I54" s="6">
+      <c r="H54" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I54" s="3">
         <v>26.878275250000002</v>
       </c>
-      <c r="J54" s="6">
+      <c r="J54" s="3">
         <v>95.521341539999995</v>
       </c>
-      <c r="K54" s="6">
+      <c r="K54" s="3">
         <v>0</v>
       </c>
-      <c r="L54" s="7">
+      <c r="L54" s="4">
         <v>201</v>
       </c>
-      <c r="M54" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N54" s="7">
+      <c r="M54" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N54" s="4">
         <v>40297.237710000001</v>
       </c>
-      <c r="O54" s="7">
+      <c r="O54" s="4">
         <v>56955.285920000002</v>
       </c>
-      <c r="P54" s="6">
+      <c r="P54" s="3">
         <v>24.090644295334776</v>
       </c>
       <c r="Q54" s="1"/>
@@ -3659,52 +3667,52 @@
       <c r="S54" s="1"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="5">
+      <c r="A55" s="2">
         <v>55</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C55" s="6">
+      <c r="C55" s="3">
         <v>33.340000000000003</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D55" s="2">
         <v>6.61</v>
       </c>
-      <c r="E55" s="5">
+      <c r="E55" s="2">
         <v>-450</v>
       </c>
-      <c r="F55" s="7">
+      <c r="F55" s="4">
         <v>2900.2482450000002</v>
       </c>
-      <c r="G55" s="5">
+      <c r="G55" s="2">
         <v>3.42</v>
       </c>
-      <c r="H55" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I55" s="6">
+      <c r="H55" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I55" s="3">
         <v>31.62115498</v>
       </c>
-      <c r="J55" s="6">
+      <c r="J55" s="3">
         <v>110.06899730000001</v>
       </c>
-      <c r="K55" s="6">
+      <c r="K55" s="3">
         <v>0</v>
       </c>
-      <c r="L55" s="7">
+      <c r="L55" s="4">
         <v>200</v>
       </c>
-      <c r="M55" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N55" s="7">
+      <c r="M55" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N55" s="4">
         <v>39899.774100000002</v>
       </c>
-      <c r="O55" s="7">
+      <c r="O55" s="4">
         <v>57248.266329999999</v>
       </c>
-      <c r="P55" s="6">
+      <c r="P55" s="3">
         <v>23.028080267540538</v>
       </c>
       <c r="Q55" s="1"/>
@@ -3712,52 +3720,52 @@
       <c r="S55" s="1"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="5">
+      <c r="A56" s="2">
         <v>56</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C56" s="6">
+      <c r="C56" s="3">
         <v>33.19</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="2">
         <v>6.7</v>
       </c>
-      <c r="E56" s="5">
+      <c r="E56" s="2">
         <v>-449</v>
       </c>
-      <c r="F56" s="7">
+      <c r="F56" s="4">
         <v>3499.4057720000001</v>
       </c>
-      <c r="G56" s="5">
+      <c r="G56" s="2">
         <v>3.35</v>
       </c>
-      <c r="H56" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I56" s="6">
+      <c r="H56" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I56" s="3">
         <v>34.32206395</v>
       </c>
-      <c r="J56" s="6">
+      <c r="J56" s="3">
         <v>113.77121</v>
       </c>
-      <c r="K56" s="6">
+      <c r="K56" s="3">
         <v>0</v>
       </c>
-      <c r="L56" s="7">
+      <c r="L56" s="4">
         <v>204</v>
       </c>
-      <c r="M56" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N56" s="7">
+      <c r="M56" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N56" s="4">
         <v>37828.82202</v>
       </c>
-      <c r="O56" s="7">
+      <c r="O56" s="4">
         <v>59840.399920000003</v>
       </c>
-      <c r="P56" s="6">
+      <c r="P56" s="3">
         <v>22.74133333340524</v>
       </c>
       <c r="Q56" s="1"/>
@@ -3765,52 +3773,52 @@
       <c r="S56" s="1"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="5">
+      <c r="A57" s="2">
         <v>57</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C57" s="6">
+      <c r="C57" s="3">
         <v>33.5</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D57" s="2">
         <v>6.67</v>
       </c>
-      <c r="E57" s="5">
+      <c r="E57" s="2">
         <v>-448</v>
       </c>
-      <c r="F57" s="7">
+      <c r="F57" s="4">
         <v>2500</v>
       </c>
-      <c r="G57" s="5">
+      <c r="G57" s="2">
         <v>3.35</v>
       </c>
-      <c r="H57" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I57" s="6">
+      <c r="H57" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I57" s="3">
         <v>49.61439575</v>
       </c>
-      <c r="J57" s="6">
+      <c r="J57" s="3">
         <v>112.1897037</v>
       </c>
-      <c r="K57" s="6">
+      <c r="K57" s="3">
         <v>3.1516380179999999</v>
       </c>
-      <c r="L57" s="7">
+      <c r="L57" s="4">
         <v>243</v>
       </c>
-      <c r="M57" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N57" s="7">
+      <c r="M57" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N57" s="4">
         <v>38401.898000000001</v>
       </c>
-      <c r="O57" s="7">
+      <c r="O57" s="4">
         <v>59359.126360000002</v>
       </c>
-      <c r="P57" s="6">
+      <c r="P57" s="3">
         <v>19.69720171674793</v>
       </c>
       <c r="Q57" s="1"/>
@@ -3818,52 +3826,52 @@
       <c r="S57" s="1"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="5">
+      <c r="A58" s="2">
         <v>58</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C58" s="3">
         <v>33.68</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D58" s="2">
         <v>6.59</v>
       </c>
-      <c r="E58" s="5">
+      <c r="E58" s="2">
         <v>-443</v>
       </c>
-      <c r="F58" s="7">
+      <c r="F58" s="4">
         <v>2799.0573979999999</v>
       </c>
-      <c r="G58" s="5">
+      <c r="G58" s="2">
         <v>3.33</v>
       </c>
-      <c r="H58" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I58" s="6">
+      <c r="H58" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I58" s="3">
         <v>29.777573050000001</v>
       </c>
-      <c r="J58" s="6">
+      <c r="J58" s="3">
         <v>107.88565850000001</v>
       </c>
-      <c r="K58" s="6">
+      <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="7">
+      <c r="L58" s="4">
         <v>223</v>
       </c>
-      <c r="M58" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N58" s="7">
+      <c r="M58" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N58" s="4">
         <v>44235.906069999997</v>
       </c>
-      <c r="O58" s="7">
+      <c r="O58" s="4">
         <v>53723.11952</v>
       </c>
-      <c r="P58" s="6">
+      <c r="P58" s="3">
         <v>28.531580419487227</v>
       </c>
       <c r="Q58" s="1"/>
@@ -3871,52 +3879,52 @@
       <c r="S58" s="1"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="5">
+      <c r="A59" s="2">
         <v>59</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C59" s="3">
         <v>33.4</v>
       </c>
-      <c r="D59" s="5">
+      <c r="D59" s="2">
         <v>6.6</v>
       </c>
-      <c r="E59" s="5">
+      <c r="E59" s="2">
         <v>-443</v>
       </c>
-      <c r="F59" s="7">
+      <c r="F59" s="4">
         <v>3699.6863880000001</v>
       </c>
-      <c r="G59" s="5">
+      <c r="G59" s="2">
         <v>3.36</v>
       </c>
-      <c r="H59" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I59" s="6">
+      <c r="H59" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I59" s="3">
         <v>38.326457470000001</v>
       </c>
-      <c r="J59" s="6">
+      <c r="J59" s="3">
         <v>131.5745465</v>
       </c>
-      <c r="K59" s="6">
+      <c r="K59" s="3">
         <v>0</v>
       </c>
-      <c r="L59" s="7">
+      <c r="L59" s="4">
         <v>228</v>
       </c>
-      <c r="M59" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N59" s="7">
+      <c r="M59" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N59" s="4">
         <v>41924.592510000002</v>
       </c>
-      <c r="O59" s="7">
+      <c r="O59" s="4">
         <v>56003.211150000003</v>
       </c>
-      <c r="P59" s="6">
+      <c r="P59" s="3">
         <v>29.186418045164018</v>
       </c>
       <c r="Q59" s="1"/>
@@ -3924,52 +3932,52 @@
       <c r="S59" s="1"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="5">
+      <c r="A60" s="2">
         <v>60</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C60" s="6">
+      <c r="C60" s="3">
         <v>33.14</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D60" s="2">
         <v>6.63</v>
       </c>
-      <c r="E60" s="5">
+      <c r="E60" s="2">
         <v>-446</v>
       </c>
-      <c r="F60" s="7">
+      <c r="F60" s="4">
         <v>4100.3443349999998</v>
       </c>
-      <c r="G60" s="5">
+      <c r="G60" s="2">
         <v>3.43</v>
       </c>
-      <c r="H60" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I60" s="6">
+      <c r="H60" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I60" s="3">
         <v>38.47777928</v>
       </c>
-      <c r="J60" s="6">
+      <c r="J60" s="3">
         <v>119.69840240000001</v>
       </c>
-      <c r="K60" s="6">
+      <c r="K60" s="3">
         <v>0</v>
       </c>
-      <c r="L60" s="7">
+      <c r="L60" s="4">
         <v>222</v>
       </c>
-      <c r="M60" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N60" s="7">
+      <c r="M60" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N60" s="4">
         <v>41098.98214</v>
       </c>
-      <c r="O60" s="7">
+      <c r="O60" s="4">
         <v>56628.477529999996</v>
       </c>
-      <c r="P60" s="6">
+      <c r="P60" s="3">
         <v>25.919117917448006</v>
       </c>
       <c r="Q60" s="1"/>
@@ -3977,52 +3985,52 @@
       <c r="S60" s="1"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="5">
+      <c r="A61" s="2">
         <v>61</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C61" s="3">
         <v>33.06</v>
       </c>
-      <c r="D61" s="5">
+      <c r="D61" s="2">
         <v>6.65</v>
       </c>
-      <c r="E61" s="5">
+      <c r="E61" s="2">
         <v>-446</v>
       </c>
-      <c r="F61" s="7">
+      <c r="F61" s="4">
         <v>3899.6676889999999</v>
       </c>
-      <c r="G61" s="5">
+      <c r="G61" s="2">
         <v>3.49</v>
       </c>
-      <c r="H61" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I61" s="6">
+      <c r="H61" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I61" s="3">
         <v>33.465732950000003</v>
       </c>
-      <c r="J61" s="6">
+      <c r="J61" s="3">
         <v>101.11506439999999</v>
       </c>
-      <c r="K61" s="6">
+      <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="7">
+      <c r="L61" s="4">
         <v>186</v>
       </c>
-      <c r="M61" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N61" s="7">
+      <c r="M61" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N61" s="4">
         <v>40789.297680000003</v>
       </c>
-      <c r="O61" s="7">
+      <c r="O61" s="4">
         <v>57037.559200000003</v>
       </c>
-      <c r="P61" s="6">
+      <c r="P61" s="3">
         <v>25.178000000137619</v>
       </c>
       <c r="Q61" s="1"/>
@@ -4030,52 +4038,52 @@
       <c r="S61" s="1"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="5">
+      <c r="A62" s="2">
         <v>62</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C62" s="6">
+      <c r="C62" s="3">
         <v>32.94</v>
       </c>
-      <c r="D62" s="5">
+      <c r="D62" s="2">
         <v>6.65</v>
       </c>
-      <c r="E62" s="5">
+      <c r="E62" s="2">
         <v>-445</v>
       </c>
-      <c r="F62" s="7">
+      <c r="F62" s="4">
         <v>3800.6434680000002</v>
       </c>
-      <c r="G62" s="5">
+      <c r="G62" s="2">
         <v>3.51</v>
       </c>
-      <c r="H62" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I62" s="6">
+      <c r="H62" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I62" s="3">
         <v>35.697862540000003</v>
       </c>
-      <c r="J62" s="6">
+      <c r="J62" s="3">
         <v>101.2625999</v>
       </c>
-      <c r="K62" s="6">
+      <c r="K62" s="3">
         <v>0</v>
       </c>
-      <c r="L62" s="7">
+      <c r="L62" s="4">
         <v>215</v>
       </c>
-      <c r="M62" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N62" s="7">
+      <c r="M62" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N62" s="4">
         <v>40932.299270000003</v>
       </c>
-      <c r="O62" s="7">
+      <c r="O62" s="4">
         <v>56799.237280000001</v>
       </c>
-      <c r="P62" s="6">
+      <c r="P62" s="3">
         <v>23.987629576565727</v>
       </c>
       <c r="Q62" s="1"/>
@@ -4083,52 +4091,52 @@
       <c r="S62" s="1"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="5">
+      <c r="A63" s="2">
         <v>63</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C63" s="6">
+      <c r="C63" s="3">
         <v>33.25</v>
       </c>
-      <c r="D63" s="5">
+      <c r="D63" s="2">
         <v>6.64</v>
       </c>
-      <c r="E63" s="5">
+      <c r="E63" s="2">
         <v>-446</v>
       </c>
-      <c r="F63" s="7">
+      <c r="F63" s="4">
         <v>4298.9177849999996</v>
       </c>
-      <c r="G63" s="5">
+      <c r="G63" s="2">
         <v>3.54</v>
       </c>
-      <c r="H63" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I63" s="6">
+      <c r="H63" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I63" s="3">
         <v>35.492526779999999</v>
       </c>
-      <c r="J63" s="6">
+      <c r="J63" s="3">
         <v>103.13055900000001</v>
       </c>
-      <c r="K63" s="6">
+      <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="7">
+      <c r="L63" s="4">
         <v>215</v>
       </c>
-      <c r="M63" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N63" s="7">
+      <c r="M63" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N63" s="4">
         <v>40651.646359999999</v>
       </c>
-      <c r="O63" s="7">
+      <c r="O63" s="4">
         <v>57215.46387</v>
       </c>
-      <c r="P63" s="6">
+      <c r="P63" s="3">
         <v>25.261592920380018</v>
       </c>
       <c r="Q63" s="1"/>
@@ -4136,52 +4144,52 @@
       <c r="S63" s="1"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="5">
+      <c r="A64" s="2">
         <v>64</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C64" s="6">
+      <c r="C64" s="3">
         <v>33.31</v>
       </c>
-      <c r="D64" s="5">
+      <c r="D64" s="2">
         <v>6.64</v>
       </c>
-      <c r="E64" s="5">
+      <c r="E64" s="2">
         <v>-446</v>
       </c>
-      <c r="F64" s="7">
+      <c r="F64" s="4">
         <v>3799.3602689999998</v>
       </c>
-      <c r="G64" s="5">
+      <c r="G64" s="2">
         <v>3.55</v>
       </c>
-      <c r="H64" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I64" s="6">
+      <c r="H64" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I64" s="3">
         <v>42.575547139999998</v>
       </c>
-      <c r="J64" s="6">
+      <c r="J64" s="3">
         <v>116.97978860000001</v>
       </c>
-      <c r="K64" s="6">
+      <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="7">
+      <c r="L64" s="4">
         <v>245</v>
       </c>
-      <c r="M64" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N64" s="7">
+      <c r="M64" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N64" s="4">
         <v>41285.410929999998</v>
       </c>
-      <c r="O64" s="7">
+      <c r="O64" s="4">
         <v>56441.168850000002</v>
       </c>
-      <c r="P64" s="6">
+      <c r="P64" s="3">
         <v>24.939663440094229</v>
       </c>
       <c r="Q64" s="1"/>
@@ -4189,52 +4197,52 @@
       <c r="S64" s="1"/>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65" s="5">
+      <c r="A65" s="2">
         <v>65</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C65" s="6">
+      <c r="C65" s="3">
         <v>33.270000000000003</v>
       </c>
-      <c r="D65" s="5">
+      <c r="D65" s="2">
         <v>6.64</v>
       </c>
-      <c r="E65" s="5">
+      <c r="E65" s="2">
         <v>-445</v>
       </c>
-      <c r="F65" s="7">
+      <c r="F65" s="4">
         <v>3900</v>
       </c>
-      <c r="G65" s="5">
+      <c r="G65" s="2">
         <v>3.53</v>
       </c>
-      <c r="H65" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I65" s="6">
+      <c r="H65" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I65" s="3">
         <v>41.987850960000003</v>
       </c>
-      <c r="J65" s="6">
+      <c r="J65" s="3">
         <v>106.48197999999999</v>
       </c>
-      <c r="K65" s="6">
+      <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="7">
+      <c r="L65" s="4">
         <v>228</v>
       </c>
-      <c r="M65" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N65" s="7">
+      <c r="M65" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N65" s="4">
         <v>42156.665679999998</v>
       </c>
-      <c r="O65" s="7">
+      <c r="O65" s="4">
         <v>55745.905850000003</v>
       </c>
-      <c r="P65" s="6">
+      <c r="P65" s="3">
         <v>25.782529266197574</v>
       </c>
       <c r="Q65" s="1"/>
@@ -4242,52 +4250,52 @@
       <c r="S65" s="1"/>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A66" s="5">
+      <c r="A66" s="2">
         <v>66</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C66" s="6">
+      <c r="C66" s="3">
         <v>33.14</v>
       </c>
-      <c r="D66" s="5">
+      <c r="D66" s="2">
         <v>6.64</v>
       </c>
-      <c r="E66" s="5">
+      <c r="E66" s="2">
         <v>-446</v>
       </c>
-      <c r="F66" s="7">
+      <c r="F66" s="4">
         <v>4000.6732310000002</v>
       </c>
-      <c r="G66" s="5">
+      <c r="G66" s="2">
         <v>3.57</v>
       </c>
-      <c r="H66" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I66" s="6">
+      <c r="H66" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I66" s="3">
         <v>54.471895809999999</v>
       </c>
-      <c r="J66" s="6">
+      <c r="J66" s="3">
         <v>126.91356589999999</v>
       </c>
-      <c r="K66" s="6">
+      <c r="K66" s="3">
         <v>0</v>
       </c>
-      <c r="L66" s="7">
+      <c r="L66" s="4">
         <v>276</v>
       </c>
-      <c r="M66" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N66" s="7">
+      <c r="M66" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N66" s="4">
         <v>42537.124089999998</v>
       </c>
-      <c r="O66" s="7">
+      <c r="O66" s="4">
         <v>55557.791160000001</v>
       </c>
-      <c r="P66" s="6">
+      <c r="P66" s="3">
         <v>26.9826386677051</v>
       </c>
       <c r="Q66" s="1"/>
@@ -4295,52 +4303,52 @@
       <c r="S66" s="1"/>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67" s="5">
+      <c r="A67" s="2">
         <v>67</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C67" s="6">
+      <c r="C67" s="3">
         <v>33.01</v>
       </c>
-      <c r="D67" s="5">
+      <c r="D67" s="2">
         <v>6.66</v>
       </c>
-      <c r="E67" s="5">
+      <c r="E67" s="2">
         <v>-446</v>
       </c>
-      <c r="F67" s="7">
+      <c r="F67" s="4">
         <v>3499.4063769999998</v>
       </c>
-      <c r="G67" s="5">
+      <c r="G67" s="2">
         <v>3.6</v>
       </c>
-      <c r="H67" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I67" s="6">
+      <c r="H67" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I67" s="3">
         <v>51.706860560000003</v>
       </c>
-      <c r="J67" s="6">
+      <c r="J67" s="3">
         <v>113.5040417</v>
       </c>
-      <c r="K67" s="6">
+      <c r="K67" s="3">
         <v>2.69469227</v>
       </c>
-      <c r="L67" s="7">
+      <c r="L67" s="4">
         <v>267</v>
       </c>
-      <c r="M67" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N67" s="7">
+      <c r="M67" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N67" s="4">
         <v>42182.115489999996</v>
       </c>
-      <c r="O67" s="7">
+      <c r="O67" s="4">
         <v>56015.151429999998</v>
       </c>
-      <c r="P67" s="6">
+      <c r="P67" s="3">
         <v>27.688797988469922</v>
       </c>
       <c r="Q67" s="1"/>
@@ -4348,52 +4356,52 @@
       <c r="S67" s="1"/>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" s="5">
+      <c r="A68" s="2">
         <v>68</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C68" s="6">
+      <c r="C68" s="3">
         <v>32.94</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D68" s="2">
         <v>6.66</v>
       </c>
-      <c r="E68" s="5">
+      <c r="E68" s="2">
         <v>-443</v>
       </c>
-      <c r="F68" s="7">
+      <c r="F68" s="4">
         <v>5101.7388339999998</v>
       </c>
-      <c r="G68" s="5">
+      <c r="G68" s="2">
         <v>3.62</v>
       </c>
-      <c r="H68" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I68" s="6">
+      <c r="H68" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I68" s="3">
         <v>48.04724813</v>
       </c>
-      <c r="J68" s="6">
+      <c r="J68" s="3">
         <v>100.9731606</v>
       </c>
-      <c r="K68" s="6">
+      <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="7">
+      <c r="L68" s="4">
         <v>244</v>
       </c>
-      <c r="M68" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N68" s="7">
+      <c r="M68" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N68" s="4">
         <v>41353.042370000003</v>
       </c>
-      <c r="O68" s="7">
+      <c r="O68" s="4">
         <v>56682.514309999999</v>
       </c>
-      <c r="P68" s="6">
+      <c r="P68" s="3">
         <v>25.511682819435762</v>
       </c>
       <c r="Q68" s="1"/>
@@ -4401,52 +4409,52 @@
       <c r="S68" s="1"/>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A69" s="5">
+      <c r="A69" s="2">
         <v>69</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C69" s="6">
+      <c r="C69" s="3">
         <v>33.520000000000003</v>
       </c>
-      <c r="D69" s="5">
+      <c r="D69" s="2">
         <v>6.68</v>
       </c>
-      <c r="E69" s="5">
+      <c r="E69" s="2">
         <v>-448</v>
       </c>
-      <c r="F69" s="7">
+      <c r="F69" s="4">
         <v>4700.7976239999998</v>
       </c>
-      <c r="G69" s="5">
+      <c r="G69" s="2">
         <v>3.64</v>
       </c>
-      <c r="H69" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I69" s="6">
+      <c r="H69" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I69" s="3">
         <v>48.766775850000002</v>
       </c>
-      <c r="J69" s="6">
+      <c r="J69" s="3">
         <v>96.947717819999994</v>
       </c>
-      <c r="K69" s="6">
+      <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="7">
+      <c r="L69" s="4">
         <v>220</v>
       </c>
-      <c r="M69" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N69" s="7">
+      <c r="M69" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N69" s="4">
         <v>40175.071219999998</v>
       </c>
-      <c r="O69" s="7">
+      <c r="O69" s="4">
         <v>57259.554049999999</v>
       </c>
-      <c r="P69" s="6">
+      <c r="P69" s="3">
         <v>25.166226244436444</v>
       </c>
       <c r="Q69" s="1"/>
@@ -4454,52 +4462,52 @@
       <c r="S69" s="1"/>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A70" s="5">
+      <c r="A70" s="2">
         <v>70</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C70" s="6">
+      <c r="C70" s="3">
         <v>33.11</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D70" s="2">
         <v>6.68</v>
       </c>
-      <c r="E70" s="5">
+      <c r="E70" s="2">
         <v>-447</v>
       </c>
-      <c r="F70" s="7">
+      <c r="F70" s="4">
         <v>4201.1294369999996</v>
       </c>
-      <c r="G70" s="5">
+      <c r="G70" s="2">
         <v>3.65</v>
       </c>
-      <c r="H70" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I70" s="6">
+      <c r="H70" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I70" s="3">
         <v>49.962696729999998</v>
       </c>
-      <c r="J70" s="6">
+      <c r="J70" s="3">
         <v>100.2680788</v>
       </c>
-      <c r="K70" s="6">
+      <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="7">
+      <c r="L70" s="4">
         <v>244</v>
       </c>
-      <c r="M70" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N70" s="7">
+      <c r="M70" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N70" s="4">
         <v>40976.387179999998</v>
       </c>
-      <c r="O70" s="7">
+      <c r="O70" s="4">
         <v>56872.601770000001</v>
       </c>
-      <c r="P70" s="6">
+      <c r="P70" s="3">
         <v>23.128076455448404</v>
       </c>
       <c r="Q70" s="1"/>
@@ -4507,52 +4515,52 @@
       <c r="S70" s="1"/>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71" s="5">
+      <c r="A71" s="2">
         <v>71</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C71" s="6">
+      <c r="C71" s="3">
         <v>33.4</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D71" s="2">
         <v>6.7</v>
       </c>
-      <c r="E71" s="5">
+      <c r="E71" s="2">
         <v>-447</v>
       </c>
-      <c r="F71" s="7">
+      <c r="F71" s="4">
         <v>3998.5804280000002</v>
       </c>
-      <c r="G71" s="5">
+      <c r="G71" s="2">
         <v>3.7</v>
       </c>
-      <c r="H71" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I71" s="6">
+      <c r="H71" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I71" s="3">
         <v>52.478005000000003</v>
       </c>
-      <c r="J71" s="6">
+      <c r="J71" s="3">
         <v>102.0069335</v>
       </c>
-      <c r="K71" s="6">
+      <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="7">
+      <c r="L71" s="4">
         <v>325</v>
       </c>
-      <c r="M71" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N71" s="7">
+      <c r="M71" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N71" s="4">
         <v>41316.30917</v>
       </c>
-      <c r="O71" s="7">
+      <c r="O71" s="4">
         <v>56611.276279999998</v>
       </c>
-      <c r="P71" s="6">
+      <c r="P71" s="3">
         <v>25.024161365394836</v>
       </c>
       <c r="Q71" s="1"/>
@@ -4560,52 +4568,52 @@
       <c r="S71" s="1"/>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A72" s="5">
+      <c r="A72" s="2">
         <v>72</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C72" s="6">
+      <c r="C72" s="3">
         <v>33.36</v>
       </c>
-      <c r="D72" s="5">
+      <c r="D72" s="2">
         <v>6.72</v>
       </c>
-      <c r="E72" s="5">
+      <c r="E72" s="2">
         <v>-448</v>
       </c>
-      <c r="F72" s="7">
+      <c r="F72" s="4">
         <v>5200</v>
       </c>
-      <c r="G72" s="5">
+      <c r="G72" s="2">
         <v>3.67</v>
       </c>
-      <c r="H72" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I72" s="6">
+      <c r="H72" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I72" s="3">
         <v>27.615976450000002</v>
       </c>
-      <c r="J72" s="6">
+      <c r="J72" s="3">
         <v>76.849371210000001</v>
       </c>
-      <c r="K72" s="6">
+      <c r="K72" s="3">
         <v>0</v>
       </c>
-      <c r="L72" s="7">
+      <c r="L72" s="4">
         <v>142</v>
       </c>
-      <c r="M72" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N72" s="7">
+      <c r="M72" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N72" s="4">
         <v>40145.813260000003</v>
       </c>
-      <c r="O72" s="7">
+      <c r="O72" s="4">
         <v>58176.965810000002</v>
       </c>
-      <c r="P72" s="6">
+      <c r="P72" s="3">
         <v>30.102897360621693</v>
       </c>
       <c r="Q72" s="1"/>
@@ -4613,52 +4621,52 @@
       <c r="S72" s="1"/>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A73" s="5">
+      <c r="A73" s="2">
         <v>73</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C73" s="6">
+      <c r="C73" s="3">
         <v>33.21</v>
       </c>
-      <c r="D73" s="5">
+      <c r="D73" s="2">
         <v>6.74</v>
       </c>
-      <c r="E73" s="5">
+      <c r="E73" s="2">
         <v>-448</v>
       </c>
-      <c r="F73" s="7">
+      <c r="F73" s="4">
         <v>6297.7495980000003</v>
       </c>
-      <c r="G73" s="5">
+      <c r="G73" s="2">
         <v>3.71</v>
       </c>
-      <c r="H73" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I73" s="6">
+      <c r="H73" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I73" s="3">
         <v>21.42921303</v>
       </c>
-      <c r="J73" s="6">
+      <c r="J73" s="3">
         <v>49.645450439999998</v>
       </c>
-      <c r="K73" s="6">
+      <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="7">
+      <c r="L73" s="4">
         <v>121</v>
       </c>
-      <c r="M73" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N73" s="7">
+      <c r="M73" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N73" s="4">
         <v>40104.067889999998</v>
       </c>
-      <c r="O73" s="7">
+      <c r="O73" s="4">
         <v>58072.43894</v>
       </c>
-      <c r="P73" s="6">
+      <c r="P73" s="3">
         <v>27.96303722081138</v>
       </c>
       <c r="Q73" s="1"/>
@@ -4666,52 +4674,52 @@
       <c r="S73" s="1"/>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A74" s="5">
+      <c r="A74" s="2">
         <v>74</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C74" s="6">
+      <c r="C74" s="3">
         <v>32.85</v>
       </c>
-      <c r="D74" s="5">
+      <c r="D74" s="2">
         <v>6.73</v>
       </c>
-      <c r="E74" s="5">
+      <c r="E74" s="2">
         <v>-447</v>
       </c>
-      <c r="F74" s="7">
+      <c r="F74" s="4">
         <v>4798.7021180000002</v>
       </c>
-      <c r="G74" s="5">
+      <c r="G74" s="2">
         <v>3.71</v>
       </c>
-      <c r="H74" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I74" s="6">
+      <c r="H74" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I74" s="3">
         <v>28.78973126</v>
       </c>
-      <c r="J74" s="6">
+      <c r="J74" s="3">
         <v>48.436870450000001</v>
       </c>
-      <c r="K74" s="6">
+      <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="7">
+      <c r="L74" s="4">
         <v>127</v>
       </c>
-      <c r="M74" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N74" s="7">
+      <c r="M74" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N74" s="4">
         <v>40848.121919999998</v>
       </c>
-      <c r="O74" s="7">
+      <c r="O74" s="4">
         <v>57117.338009999999</v>
       </c>
-      <c r="P74" s="6">
+      <c r="P74" s="3">
         <v>26.026231292599352</v>
       </c>
       <c r="Q74" s="1"/>
@@ -4719,52 +4727,52 @@
       <c r="S74" s="1"/>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A75" s="5">
+      <c r="A75" s="2">
         <v>75</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C75" s="6">
+      <c r="C75" s="3">
         <v>33.35</v>
       </c>
-      <c r="D75" s="5">
+      <c r="D75" s="2">
         <v>6.72</v>
       </c>
-      <c r="E75" s="5">
+      <c r="E75" s="2">
         <v>-447</v>
       </c>
-      <c r="F75" s="7">
+      <c r="F75" s="4">
         <v>4600.780256</v>
       </c>
-      <c r="G75" s="5">
+      <c r="G75" s="2">
         <v>3.7</v>
       </c>
-      <c r="H75" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I75" s="6">
+      <c r="H75" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I75" s="3">
         <v>26.092325299999999</v>
       </c>
-      <c r="J75" s="6">
+      <c r="J75" s="3">
         <v>60.210703850000002</v>
       </c>
-      <c r="K75" s="6">
+      <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="7">
+      <c r="L75" s="4">
         <v>120</v>
       </c>
-      <c r="M75" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N75" s="7">
+      <c r="M75" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N75" s="4">
         <v>40359.154150000002</v>
       </c>
-      <c r="O75" s="7">
+      <c r="O75" s="4">
         <v>57488.239560000002</v>
       </c>
-      <c r="P75" s="6">
+      <c r="P75" s="3">
         <v>27.295837118181566</v>
       </c>
       <c r="Q75" s="1"/>
@@ -4772,52 +4780,52 @@
       <c r="S75" s="1"/>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A76" s="5">
+      <c r="A76" s="2">
         <v>76</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C76" s="6">
+      <c r="C76" s="3">
         <v>32.92</v>
       </c>
-      <c r="D76" s="5">
+      <c r="D76" s="2">
         <v>6.71</v>
       </c>
-      <c r="E76" s="5">
+      <c r="E76" s="2">
         <v>-447</v>
       </c>
-      <c r="F76" s="7">
+      <c r="F76" s="4">
         <v>5200.4331169999996</v>
       </c>
-      <c r="G76" s="5">
+      <c r="G76" s="2">
         <v>3.66</v>
       </c>
-      <c r="H76" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I76" s="6">
+      <c r="H76" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I76" s="3">
         <v>29.743910339999999</v>
       </c>
-      <c r="J76" s="6">
+      <c r="J76" s="3">
         <v>56.345809490000001</v>
       </c>
-      <c r="K76" s="6">
+      <c r="K76" s="3">
         <v>0</v>
       </c>
-      <c r="L76" s="7">
+      <c r="L76" s="4">
         <v>142</v>
       </c>
-      <c r="M76" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N76" s="7">
+      <c r="M76" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N76" s="4">
         <v>40902.210120000003</v>
       </c>
-      <c r="O76" s="7">
+      <c r="O76" s="4">
         <v>57215.806980000001</v>
       </c>
-      <c r="P76" s="6">
+      <c r="P76" s="3">
         <v>25.796625994727041</v>
       </c>
       <c r="Q76" s="1"/>
@@ -4825,52 +4833,52 @@
       <c r="S76" s="1"/>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77" s="5">
+      <c r="A77" s="2">
         <v>77</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C77" s="6">
+      <c r="C77" s="3">
         <v>33.43</v>
       </c>
-      <c r="D77" s="5">
+      <c r="D77" s="2">
         <v>6.7</v>
       </c>
-      <c r="E77" s="5">
+      <c r="E77" s="2">
         <v>-448</v>
       </c>
-      <c r="F77" s="7">
+      <c r="F77" s="4">
         <v>6302.253823</v>
       </c>
-      <c r="G77" s="5">
+      <c r="G77" s="2">
         <v>3.62</v>
       </c>
-      <c r="H77" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I77" s="6">
+      <c r="H77" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I77" s="3">
         <v>34.589137190000002</v>
       </c>
-      <c r="J77" s="6">
+      <c r="J77" s="3">
         <v>66.189589220000002</v>
       </c>
-      <c r="K77" s="6">
+      <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="7">
+      <c r="L77" s="4">
         <v>156</v>
       </c>
-      <c r="M77" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N77" s="7">
+      <c r="M77" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N77" s="4">
         <v>41469.715429999997</v>
       </c>
-      <c r="O77" s="7">
+      <c r="O77" s="4">
         <v>56705.57849</v>
       </c>
-      <c r="P77" s="6">
+      <c r="P77" s="3">
         <v>27.311341076897193</v>
       </c>
       <c r="Q77" s="1"/>
@@ -4878,52 +4886,52 @@
       <c r="S77" s="1"/>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A78" s="5">
+      <c r="A78" s="2">
         <v>78</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C78" s="6">
+      <c r="C78" s="3">
         <v>33.26</v>
       </c>
-      <c r="D78" s="5">
+      <c r="D78" s="2">
         <v>6.71</v>
       </c>
-      <c r="E78" s="5">
+      <c r="E78" s="2">
         <v>-448</v>
       </c>
-      <c r="F78" s="7">
+      <c r="F78" s="4">
         <v>5200.4377469999999</v>
       </c>
-      <c r="G78" s="5">
+      <c r="G78" s="2">
         <v>3.65</v>
       </c>
-      <c r="H78" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I78" s="6">
+      <c r="H78" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I78" s="3">
         <v>34.503444160000001</v>
       </c>
-      <c r="J78" s="6">
+      <c r="J78" s="3">
         <v>61.170342099999999</v>
       </c>
-      <c r="K78" s="6">
+      <c r="K78" s="3">
         <v>0</v>
       </c>
-      <c r="L78" s="7">
+      <c r="L78" s="4">
         <v>149</v>
       </c>
-      <c r="M78" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N78" s="7">
+      <c r="M78" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N78" s="4">
         <v>40581.105839999997</v>
       </c>
-      <c r="O78" s="7">
+      <c r="O78" s="4">
         <v>57501.991900000001</v>
       </c>
-      <c r="P78" s="6">
+      <c r="P78" s="3">
         <v>27.209414248087555</v>
       </c>
       <c r="Q78" s="1"/>
@@ -4931,52 +4939,52 @@
       <c r="S78" s="1"/>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A79" s="5">
+      <c r="A79" s="2">
         <v>79</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C79" s="6">
+      <c r="C79" s="3">
         <v>33.21</v>
       </c>
-      <c r="D79" s="5">
+      <c r="D79" s="2">
         <v>6.73</v>
       </c>
-      <c r="E79" s="5">
+      <c r="E79" s="2">
         <v>-449</v>
       </c>
-      <c r="F79" s="7">
+      <c r="F79" s="4">
         <v>4900.831142</v>
       </c>
-      <c r="G79" s="5">
+      <c r="G79" s="2">
         <v>3.59</v>
       </c>
-      <c r="H79" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I79" s="6">
+      <c r="H79" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I79" s="3">
         <v>33.292017170000001</v>
       </c>
-      <c r="J79" s="6">
+      <c r="J79" s="3">
         <v>56.123644310000003</v>
       </c>
-      <c r="K79" s="6">
+      <c r="K79" s="3">
         <v>0</v>
       </c>
-      <c r="L79" s="7">
+      <c r="L79" s="4">
         <v>139</v>
       </c>
-      <c r="M79" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N79" s="7">
+      <c r="M79" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N79" s="4">
         <v>40682.672740000002</v>
       </c>
-      <c r="O79" s="7">
+      <c r="O79" s="4">
         <v>57408.078869999998</v>
       </c>
-      <c r="P79" s="6">
+      <c r="P79" s="3">
         <v>25.778009302465552</v>
       </c>
       <c r="Q79" s="1"/>
@@ -4984,52 +4992,52 @@
       <c r="S79" s="1"/>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A80" s="5">
+      <c r="A80" s="2">
         <v>80</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C80" s="6">
+      <c r="C80" s="3">
         <v>33.07</v>
       </c>
-      <c r="D80" s="5">
+      <c r="D80" s="2">
         <v>6.74</v>
       </c>
-      <c r="E80" s="5">
+      <c r="E80" s="2">
         <v>-449</v>
       </c>
-      <c r="F80" s="7">
+      <c r="F80" s="4">
         <v>5300.4780369999999</v>
       </c>
-      <c r="G80" s="5">
+      <c r="G80" s="2">
         <v>3.64</v>
       </c>
-      <c r="H80" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I80" s="6">
+      <c r="H80" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I80" s="3">
         <v>32.255099399999999</v>
       </c>
-      <c r="J80" s="6">
+      <c r="J80" s="3">
         <v>49.833893209999999</v>
       </c>
-      <c r="K80" s="6">
+      <c r="K80" s="3">
         <v>0</v>
       </c>
-      <c r="L80" s="7">
+      <c r="L80" s="4">
         <v>141</v>
       </c>
-      <c r="M80" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N80" s="7">
+      <c r="M80" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N80" s="4">
         <v>40760.252919999999</v>
       </c>
-      <c r="O80" s="7">
+      <c r="O80" s="4">
         <v>57377.123679999997</v>
       </c>
-      <c r="P80" s="6">
+      <c r="P80" s="3">
         <v>25.532101522903215</v>
       </c>
       <c r="Q80" s="1"/>
@@ -5037,52 +5045,52 @@
       <c r="S80" s="1"/>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A81" s="5">
+      <c r="A81" s="2">
         <v>81</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C81" s="6">
+      <c r="C81" s="3">
         <v>33.24</v>
       </c>
-      <c r="D81" s="5">
+      <c r="D81" s="2">
         <v>6.73</v>
       </c>
-      <c r="E81" s="5">
+      <c r="E81" s="2">
         <v>-449</v>
       </c>
-      <c r="F81" s="7">
+      <c r="F81" s="4">
         <v>4699.1568749999997</v>
       </c>
-      <c r="G81" s="5">
+      <c r="G81" s="2">
         <v>3.67</v>
       </c>
-      <c r="H81" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I81" s="6">
+      <c r="H81" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I81" s="3">
         <v>28.869895440000001</v>
       </c>
-      <c r="J81" s="6">
+      <c r="J81" s="3">
         <v>49.604517639999997</v>
       </c>
-      <c r="K81" s="6">
+      <c r="K81" s="3">
         <v>0</v>
       </c>
-      <c r="L81" s="7">
+      <c r="L81" s="4">
         <v>125</v>
       </c>
-      <c r="M81" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N81" s="7">
+      <c r="M81" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N81" s="4">
         <v>40604.683120000002</v>
       </c>
-      <c r="O81" s="7">
+      <c r="O81" s="4">
         <v>57289.972840000002</v>
       </c>
-      <c r="P81" s="6">
+      <c r="P81" s="3">
         <v>26.426214463779051</v>
       </c>
       <c r="Q81" s="1"/>
@@ -5090,52 +5098,52 @@
       <c r="S81" s="1"/>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A82" s="5">
+      <c r="A82" s="2">
         <v>82</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C82" s="6">
+      <c r="C82" s="3">
         <v>33.159999999999997</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D82" s="2">
         <v>6.72</v>
       </c>
-      <c r="E82" s="5">
+      <c r="E82" s="2">
         <v>-448</v>
       </c>
-      <c r="F82" s="7">
+      <c r="F82" s="4">
         <v>6000.5407349999996</v>
       </c>
-      <c r="G82" s="5">
+      <c r="G82" s="2">
         <v>3.68</v>
       </c>
-      <c r="H82" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I82" s="6">
+      <c r="H82" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I82" s="3">
         <v>37.205197239999997</v>
       </c>
-      <c r="J82" s="6">
+      <c r="J82" s="3">
         <v>62.228621820000001</v>
       </c>
-      <c r="K82" s="6">
+      <c r="K82" s="3">
         <v>0</v>
       </c>
-      <c r="L82" s="7">
+      <c r="L82" s="4">
         <v>149</v>
       </c>
-      <c r="M82" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N82" s="7">
+      <c r="M82" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N82" s="4">
         <v>41200.356749999999</v>
       </c>
-      <c r="O82" s="7">
+      <c r="O82" s="4">
         <v>56878.574950000002</v>
       </c>
-      <c r="P82" s="6">
+      <c r="P82" s="3">
         <v>26.742067200024955</v>
       </c>
       <c r="Q82" s="1"/>
@@ -5143,52 +5151,52 @@
       <c r="S82" s="1"/>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A83" s="5">
+      <c r="A83" s="2">
         <v>83</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C83" s="6">
+      <c r="C83" s="3">
         <v>33.35</v>
       </c>
-      <c r="D83" s="5">
+      <c r="D83" s="2">
         <v>6.73</v>
       </c>
-      <c r="E83" s="5">
+      <c r="E83" s="2">
         <v>-446</v>
       </c>
-      <c r="F83" s="7">
+      <c r="F83" s="4">
         <v>4398.8782190000002</v>
       </c>
-      <c r="G83" s="5">
+      <c r="G83" s="2">
         <v>3.63</v>
       </c>
-      <c r="H83" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I83" s="6">
+      <c r="H83" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I83" s="3">
         <v>42.209199300000002</v>
       </c>
-      <c r="J83" s="6">
+      <c r="J83" s="3">
         <v>63.935162089999999</v>
       </c>
-      <c r="K83" s="6">
+      <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="7">
+      <c r="L83" s="4">
         <v>155</v>
       </c>
-      <c r="M83" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N83" s="7">
+      <c r="M83" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N83" s="4">
         <v>41033.313909999997</v>
       </c>
-      <c r="O83" s="7">
+      <c r="O83" s="4">
         <v>56544.01571</v>
       </c>
-      <c r="P83" s="6">
+      <c r="P83" s="3">
         <v>26.975681415956771</v>
       </c>
       <c r="Q83" s="1"/>
@@ -5196,52 +5204,52 @@
       <c r="S83" s="1"/>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A84" s="5">
+      <c r="A84" s="2">
         <v>84</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C84" s="6">
+      <c r="C84" s="3">
         <v>33.35</v>
       </c>
-      <c r="D84" s="5">
+      <c r="D84" s="2">
         <v>6.71</v>
       </c>
-      <c r="E84" s="5">
+      <c r="E84" s="2">
         <v>-447</v>
       </c>
-      <c r="F84" s="7">
+      <c r="F84" s="4">
         <v>5100</v>
       </c>
-      <c r="G84" s="5">
+      <c r="G84" s="2">
         <v>3.61</v>
       </c>
-      <c r="H84" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I84" s="6">
+      <c r="H84" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I84" s="3">
         <v>52.842470499999997</v>
       </c>
-      <c r="J84" s="6">
+      <c r="J84" s="3">
         <v>80.457200409999999</v>
       </c>
-      <c r="K84" s="6">
+      <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="7">
+      <c r="L84" s="4">
         <v>198</v>
       </c>
-      <c r="M84" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N84" s="7">
+      <c r="M84" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N84" s="4">
         <v>41039.306550000001</v>
       </c>
-      <c r="O84" s="7">
+      <c r="O84" s="4">
         <v>56975.765310000003</v>
       </c>
-      <c r="P84" s="6">
+      <c r="P84" s="3">
         <v>26.051601895763167</v>
       </c>
       <c r="Q84" s="1"/>
@@ -5249,52 +5257,52 @@
       <c r="S84" s="1"/>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A85" s="5">
+      <c r="A85" s="2">
         <v>85</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C85" s="6">
+      <c r="C85" s="3">
         <v>33.26</v>
       </c>
-      <c r="D85" s="5">
+      <c r="D85" s="2">
         <v>6.75</v>
       </c>
-      <c r="E85" s="5">
+      <c r="E85" s="2">
         <v>-447</v>
       </c>
-      <c r="F85" s="7">
+      <c r="F85" s="4">
         <v>5399.0253590000002</v>
       </c>
-      <c r="G85" s="5">
+      <c r="G85" s="2">
         <v>3.63</v>
       </c>
-      <c r="H85" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I85" s="6">
+      <c r="H85" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I85" s="3">
         <v>32.46552509</v>
       </c>
-      <c r="J85" s="6">
+      <c r="J85" s="3">
         <v>45.897560579999997</v>
       </c>
-      <c r="K85" s="6">
+      <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="7">
+      <c r="L85" s="4">
         <v>113</v>
       </c>
-      <c r="M85" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N85" s="7">
+      <c r="M85" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N85" s="4">
         <v>41319.668460000001</v>
       </c>
-      <c r="O85" s="7">
+      <c r="O85" s="4">
         <v>56896.620669999997</v>
       </c>
-      <c r="P85" s="6">
+      <c r="P85" s="3">
         <v>28.020082758620667</v>
       </c>
       <c r="Q85" s="1"/>
@@ -5302,52 +5310,52 @@
       <c r="S85" s="1"/>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A86" s="5">
+      <c r="A86" s="2">
         <v>86</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C86" s="6">
+      <c r="C86" s="3">
         <v>33.21</v>
       </c>
-      <c r="D86" s="5">
+      <c r="D86" s="2">
         <v>6.76</v>
       </c>
-      <c r="E86" s="5">
+      <c r="E86" s="2">
         <v>-447</v>
       </c>
-      <c r="F86" s="7">
+      <c r="F86" s="4">
         <v>5400.4575109999996</v>
       </c>
-      <c r="G86" s="5">
+      <c r="G86" s="2">
         <v>3.68</v>
       </c>
-      <c r="H86" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I86" s="6">
+      <c r="H86" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I86" s="3">
         <v>47.730153520000002</v>
       </c>
-      <c r="J86" s="6">
+      <c r="J86" s="3">
         <v>64.055758979999993</v>
       </c>
-      <c r="K86" s="6">
+      <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="7">
+      <c r="L86" s="4">
         <v>168</v>
       </c>
-      <c r="M86" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N86" s="7">
+      <c r="M86" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N86" s="4">
         <v>41382.320200000002</v>
       </c>
-      <c r="O86" s="7">
+      <c r="O86" s="4">
         <v>56075.82417</v>
       </c>
-      <c r="P86" s="6">
+      <c r="P86" s="3">
         <v>28.223894350687342</v>
       </c>
       <c r="Q86" s="1"/>
@@ -5355,52 +5363,52 @@
       <c r="S86" s="1"/>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A87" s="5">
+      <c r="A87" s="2">
         <v>87</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C87" s="6">
+      <c r="C87" s="3">
         <v>33.18</v>
       </c>
-      <c r="D87" s="5">
+      <c r="D87" s="2">
         <v>6.75</v>
       </c>
-      <c r="E87" s="5">
+      <c r="E87" s="2">
         <v>-447</v>
       </c>
-      <c r="F87" s="7">
+      <c r="F87" s="4">
         <v>4800</v>
       </c>
-      <c r="G87" s="5">
+      <c r="G87" s="2">
         <v>3.7</v>
       </c>
-      <c r="H87" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I87" s="6">
+      <c r="H87" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I87" s="3">
         <v>61.670752020000002</v>
       </c>
-      <c r="J87" s="6">
+      <c r="J87" s="3">
         <v>83.133968370000005</v>
       </c>
-      <c r="K87" s="6">
+      <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="7">
+      <c r="L87" s="4">
         <v>226</v>
       </c>
-      <c r="M87" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N87" s="7">
+      <c r="M87" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N87" s="4">
         <v>41984.55128</v>
       </c>
-      <c r="O87" s="7">
+      <c r="O87" s="4">
         <v>56198.730929999998</v>
       </c>
-      <c r="P87" s="6">
+      <c r="P87" s="3">
         <v>27.465937806831864</v>
       </c>
       <c r="Q87" s="1"/>
@@ -5408,52 +5416,52 @@
       <c r="S87" s="1"/>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A88" s="5">
+      <c r="A88" s="2">
         <v>88</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C88" s="6">
+      <c r="C88" s="3">
         <v>33.18</v>
       </c>
-      <c r="D88" s="5">
+      <c r="D88" s="2">
         <v>6.76</v>
       </c>
-      <c r="E88" s="5">
+      <c r="E88" s="2">
         <v>-448</v>
       </c>
-      <c r="F88" s="7">
+      <c r="F88" s="4">
         <v>4699.5991809999996</v>
       </c>
-      <c r="G88" s="5">
+      <c r="G88" s="2">
         <v>3.75</v>
       </c>
-      <c r="H88" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I88" s="6">
+      <c r="H88" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I88" s="3">
         <v>59.605880829999997</v>
       </c>
-      <c r="J88" s="6">
+      <c r="J88" s="3">
         <v>76.400689</v>
       </c>
-      <c r="K88" s="6">
+      <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="7">
+      <c r="L88" s="4">
         <v>202</v>
       </c>
-      <c r="M88" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N88" s="7">
+      <c r="M88" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N88" s="4">
         <v>41425.553460000003</v>
       </c>
-      <c r="O88" s="7">
+      <c r="O88" s="4">
         <v>56768.387179999998</v>
       </c>
-      <c r="P88" s="6">
+      <c r="P88" s="3">
         <v>27.588073846055249</v>
       </c>
       <c r="Q88" s="1"/>
@@ -5461,52 +5469,52 @@
       <c r="S88" s="1"/>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A89" s="5">
+      <c r="A89" s="2">
         <v>89</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B89" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C89" s="6">
+      <c r="C89" s="3">
         <v>33.22</v>
       </c>
-      <c r="D89" s="5">
+      <c r="D89" s="2">
         <v>6.76</v>
       </c>
-      <c r="E89" s="5">
+      <c r="E89" s="2">
         <v>-448</v>
       </c>
-      <c r="F89" s="7">
+      <c r="F89" s="4">
         <v>7398.6874779999998</v>
       </c>
-      <c r="G89" s="5">
+      <c r="G89" s="2">
         <v>3.69</v>
       </c>
-      <c r="H89" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I89" s="6">
+      <c r="H89" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I89" s="3">
         <v>71.025135739999996</v>
       </c>
-      <c r="J89" s="6">
+      <c r="J89" s="3">
         <v>86.027312420000001</v>
       </c>
-      <c r="K89" s="6">
+      <c r="K89" s="3">
         <v>2.8788065380000001</v>
       </c>
-      <c r="L89" s="7">
+      <c r="L89" s="4">
         <v>213</v>
       </c>
-      <c r="M89" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N89" s="7">
+      <c r="M89" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N89" s="4">
         <v>41529.721530000003</v>
       </c>
-      <c r="O89" s="7">
+      <c r="O89" s="4">
         <v>56511.117010000002</v>
       </c>
-      <c r="P89" s="6">
+      <c r="P89" s="3">
         <v>28.989266041923642</v>
       </c>
       <c r="Q89" s="1"/>
@@ -5514,52 +5522,52 @@
       <c r="S89" s="1"/>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A90" s="5">
+      <c r="A90" s="2">
         <v>90</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C90" s="6">
+      <c r="C90" s="3">
         <v>33.18</v>
       </c>
-      <c r="D90" s="5">
+      <c r="D90" s="2">
         <v>6.76</v>
       </c>
-      <c r="E90" s="5">
+      <c r="E90" s="2">
         <v>-448</v>
       </c>
-      <c r="F90" s="7">
+      <c r="F90" s="4">
         <v>7701.2920549999999</v>
       </c>
-      <c r="G90" s="5">
+      <c r="G90" s="2">
         <v>3.66</v>
       </c>
-      <c r="H90" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I90" s="6">
+      <c r="H90" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I90" s="3">
         <v>38.558424590000001</v>
       </c>
-      <c r="J90" s="6">
+      <c r="J90" s="3">
         <v>46.847334680000003</v>
       </c>
-      <c r="K90" s="6">
+      <c r="K90" s="3">
         <v>0</v>
       </c>
-      <c r="L90" s="7">
+      <c r="L90" s="4">
         <v>156</v>
       </c>
-      <c r="M90" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N90" s="7">
+      <c r="M90" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N90" s="4">
         <v>41447.745329999998</v>
       </c>
-      <c r="O90" s="7">
+      <c r="O90" s="4">
         <v>56643.842149999997</v>
       </c>
-      <c r="P90" s="6">
+      <c r="P90" s="3">
         <v>27.660438202242478</v>
       </c>
       <c r="Q90" s="1"/>
@@ -5567,52 +5575,52 @@
       <c r="S90" s="1"/>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A91" s="5">
+      <c r="A91" s="2">
         <v>91</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B91" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C91" s="6">
+      <c r="C91" s="3">
         <v>33.33</v>
       </c>
-      <c r="D91" s="5">
+      <c r="D91" s="2">
         <v>6.76</v>
       </c>
-      <c r="E91" s="5">
+      <c r="E91" s="2">
         <v>-447</v>
       </c>
-      <c r="F91" s="7">
+      <c r="F91" s="4">
         <v>5599.5268269999997</v>
       </c>
-      <c r="G91" s="5">
+      <c r="G91" s="2">
         <v>3.74</v>
       </c>
-      <c r="H91" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I91" s="6">
+      <c r="H91" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I91" s="3">
         <v>73.535531349999999</v>
       </c>
-      <c r="J91" s="6">
+      <c r="J91" s="3">
         <v>88.880022310000001</v>
       </c>
-      <c r="K91" s="6">
+      <c r="K91" s="3">
         <v>3.0631428980000002</v>
       </c>
-      <c r="L91" s="7">
+      <c r="L91" s="4">
         <v>196</v>
       </c>
-      <c r="M91" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N91" s="7">
+      <c r="M91" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N91" s="4">
         <v>41580.446040000003</v>
       </c>
-      <c r="O91" s="7">
+      <c r="O91" s="4">
         <v>56580.147530000002</v>
       </c>
-      <c r="P91" s="6">
+      <c r="P91" s="3">
         <v>31.636247454897877</v>
       </c>
       <c r="Q91" s="1"/>
@@ -5620,52 +5628,52 @@
       <c r="S91" s="1"/>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A92" s="5">
+      <c r="A92" s="2">
         <v>92</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C92" s="6">
+      <c r="C92" s="3">
         <v>33.28</v>
       </c>
-      <c r="D92" s="5">
+      <c r="D92" s="2">
         <v>6.77</v>
       </c>
-      <c r="E92" s="5">
+      <c r="E92" s="2">
         <v>-448</v>
       </c>
-      <c r="F92" s="7">
+      <c r="F92" s="4">
         <v>4799.1526919999997</v>
       </c>
-      <c r="G92" s="5">
+      <c r="G92" s="2">
         <v>3.84</v>
       </c>
-      <c r="H92" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I92" s="6">
+      <c r="H92" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I92" s="3">
         <v>58.185792319999997</v>
       </c>
-      <c r="J92" s="6">
+      <c r="J92" s="3">
         <v>63.417806300000002</v>
       </c>
-      <c r="K92" s="6">
+      <c r="K92" s="3">
         <v>2.9201327340000001</v>
       </c>
-      <c r="L92" s="7">
+      <c r="L92" s="4">
         <v>226</v>
       </c>
-      <c r="M92" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N92" s="7">
+      <c r="M92" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N92" s="4">
         <v>41294.267449999999</v>
       </c>
-      <c r="O92" s="7">
+      <c r="O92" s="4">
         <v>56782.862399999998</v>
       </c>
-      <c r="P92" s="6">
+      <c r="P92" s="3">
         <v>30.530534047284689</v>
       </c>
       <c r="Q92" s="1"/>
@@ -5673,52 +5681,52 @@
       <c r="S92" s="1"/>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A93" s="5">
+      <c r="A93" s="2">
         <v>93</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C93" s="6">
+      <c r="C93" s="3">
         <v>33.369999999999997</v>
       </c>
-      <c r="D93" s="5">
+      <c r="D93" s="2">
         <v>6.76</v>
       </c>
-      <c r="E93" s="5">
+      <c r="E93" s="2">
         <v>-448</v>
       </c>
-      <c r="F93" s="7">
+      <c r="F93" s="4">
         <v>5399.0912150000004</v>
       </c>
-      <c r="G93" s="5">
+      <c r="G93" s="2">
         <v>3.71</v>
       </c>
-      <c r="H93" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I93" s="6">
+      <c r="H93" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I93" s="3">
         <v>72.950992099999993</v>
       </c>
-      <c r="J93" s="6">
+      <c r="J93" s="3">
         <v>96.798390319999996</v>
       </c>
-      <c r="K93" s="6">
+      <c r="K93" s="3">
         <v>2.6941541240000002</v>
       </c>
-      <c r="L93" s="7">
+      <c r="L93" s="4">
         <v>254</v>
       </c>
-      <c r="M93" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N93" s="7">
+      <c r="M93" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N93" s="4">
         <v>41534.510159999998</v>
       </c>
-      <c r="O93" s="7">
+      <c r="O93" s="4">
         <v>55972.477650000001</v>
       </c>
-      <c r="P93" s="6">
+      <c r="P93" s="3">
         <v>29.969956834482126</v>
       </c>
       <c r="Q93" s="1"/>
@@ -5726,52 +5734,52 @@
       <c r="S93" s="1"/>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A94" s="5">
+      <c r="A94" s="2">
         <v>94</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C94" s="6">
+      <c r="C94" s="3">
         <v>33.229999999999997</v>
       </c>
-      <c r="D94" s="5">
+      <c r="D94" s="2">
         <v>6.77</v>
       </c>
-      <c r="E94" s="5">
+      <c r="E94" s="2">
         <v>-449</v>
       </c>
-      <c r="F94" s="7">
+      <c r="F94" s="4">
         <v>5399.0259740000001</v>
       </c>
-      <c r="G94" s="5">
+      <c r="G94" s="2">
         <v>3.71</v>
       </c>
-      <c r="H94" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I94" s="6">
+      <c r="H94" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I94" s="3">
         <v>80.24238699</v>
       </c>
-      <c r="J94" s="6">
+      <c r="J94" s="3">
         <v>86.129751080000005</v>
       </c>
-      <c r="K94" s="6">
+      <c r="K94" s="3">
         <v>3.6591096959999998</v>
       </c>
-      <c r="L94" s="7">
+      <c r="L94" s="4">
         <v>270</v>
       </c>
-      <c r="M94" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N94" s="7">
+      <c r="M94" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N94" s="4">
         <v>40974.101649999997</v>
       </c>
-      <c r="O94" s="7">
+      <c r="O94" s="4">
         <v>56440.703399999999</v>
       </c>
-      <c r="P94" s="6">
+      <c r="P94" s="3">
         <v>28.147036112969115</v>
       </c>
       <c r="Q94" s="1"/>
@@ -5779,52 +5787,52 @@
       <c r="S94" s="1"/>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A95" s="5">
+      <c r="A95" s="2">
         <v>95</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C95" s="6">
+      <c r="C95" s="3">
         <v>33.19</v>
       </c>
-      <c r="D95" s="5">
+      <c r="D95" s="2">
         <v>6.77</v>
       </c>
-      <c r="E95" s="5">
+      <c r="E95" s="2">
         <v>-448</v>
       </c>
-      <c r="F95" s="7">
+      <c r="F95" s="4">
         <v>5400</v>
       </c>
-      <c r="G95" s="5">
+      <c r="G95" s="2">
         <v>3.67</v>
       </c>
-      <c r="H95" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I95" s="6">
+      <c r="H95" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I95" s="3">
         <v>55.428033210000002</v>
       </c>
-      <c r="J95" s="6">
+      <c r="J95" s="3">
         <v>54.51451677</v>
       </c>
-      <c r="K95" s="6">
+      <c r="K95" s="3">
         <v>2.5716703860000001</v>
       </c>
-      <c r="L95" s="7">
+      <c r="L95" s="4">
         <v>212</v>
       </c>
-      <c r="M95" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N95" s="7">
+      <c r="M95" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N95" s="4">
         <v>40335.95665</v>
       </c>
-      <c r="O95" s="7">
+      <c r="O95" s="4">
         <v>57376.715490000002</v>
       </c>
-      <c r="P95" s="6">
+      <c r="P95" s="3">
         <v>28.167025601236286</v>
       </c>
       <c r="Q95" s="1"/>
@@ -5832,52 +5840,52 @@
       <c r="S95" s="1"/>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A96" s="5">
+      <c r="A96" s="2">
         <v>96</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B96" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C96" s="6">
+      <c r="C96" s="3">
         <v>33.25</v>
       </c>
-      <c r="D96" s="5">
+      <c r="D96" s="2">
         <v>6.78</v>
       </c>
-      <c r="E96" s="5">
+      <c r="E96" s="2">
         <v>-448</v>
       </c>
-      <c r="F96" s="7">
+      <c r="F96" s="4">
         <v>4297.7001250000003</v>
       </c>
-      <c r="G96" s="5">
+      <c r="G96" s="2">
         <v>3.66</v>
       </c>
-      <c r="H96" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I96" s="6">
+      <c r="H96" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I96" s="3">
         <v>62.751284429999998</v>
       </c>
-      <c r="J96" s="6">
+      <c r="J96" s="3">
         <v>66.823036479999999</v>
       </c>
-      <c r="K96" s="6">
+      <c r="K96" s="3">
         <v>2.728920064</v>
       </c>
-      <c r="L96" s="7">
+      <c r="L96" s="4">
         <v>166</v>
       </c>
-      <c r="M96" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N96" s="7">
+      <c r="M96" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N96" s="4">
         <v>40803.102039999998</v>
       </c>
-      <c r="O96" s="7">
+      <c r="O96" s="4">
         <v>56462.961649999997</v>
       </c>
-      <c r="P96" s="6">
+      <c r="P96" s="3">
         <v>26.269548387146209</v>
       </c>
       <c r="Q96" s="1"/>
@@ -5885,52 +5893,52 @@
       <c r="S96" s="1"/>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A97" s="5">
+      <c r="A97" s="2">
         <v>97</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B97" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C97" s="6">
+      <c r="C97" s="3">
         <v>33.15</v>
       </c>
-      <c r="D97" s="5">
+      <c r="D97" s="2">
         <v>6.76</v>
       </c>
-      <c r="E97" s="5">
+      <c r="E97" s="2">
         <v>-448</v>
       </c>
-      <c r="F97" s="7">
+      <c r="F97" s="4">
         <v>4800.8060450000003</v>
       </c>
-      <c r="G97" s="5">
+      <c r="G97" s="2">
         <v>3.67</v>
       </c>
-      <c r="H97" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I97" s="6">
+      <c r="H97" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I97" s="3">
         <v>56.22244104</v>
       </c>
-      <c r="J97" s="6">
+      <c r="J97" s="3">
         <v>68.936839770000006</v>
       </c>
-      <c r="K97" s="6">
+      <c r="K97" s="3">
         <v>2.9010413640000001</v>
       </c>
-      <c r="L97" s="7">
+      <c r="L97" s="4">
         <v>252</v>
       </c>
-      <c r="M97" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N97" s="7">
+      <c r="M97" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N97" s="4">
         <v>39983.619319999998</v>
       </c>
-      <c r="O97" s="7">
+      <c r="O97" s="4">
         <v>57574.544399999999</v>
       </c>
-      <c r="P97" s="6">
+      <c r="P97" s="3">
         <v>27.170035945413066</v>
       </c>
       <c r="Q97" s="1"/>
@@ -5938,52 +5946,52 @@
       <c r="S97" s="1"/>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A98" s="5">
+      <c r="A98" s="2">
         <v>98</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C98" s="6">
+      <c r="C98" s="3">
         <v>33.36</v>
       </c>
-      <c r="D98" s="5">
+      <c r="D98" s="2">
         <v>6.76</v>
       </c>
-      <c r="E98" s="5">
+      <c r="E98" s="2">
         <v>-448</v>
       </c>
-      <c r="F98" s="7">
+      <c r="F98" s="4">
         <v>4600.4111549999998</v>
       </c>
-      <c r="G98" s="5">
+      <c r="G98" s="2">
         <v>3.64</v>
       </c>
-      <c r="H98" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I98" s="6">
+      <c r="H98" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I98" s="3">
         <v>42.566540590000002</v>
       </c>
-      <c r="J98" s="6">
+      <c r="J98" s="3">
         <v>42.879651799999998</v>
       </c>
-      <c r="K98" s="6">
+      <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="7">
+      <c r="L98" s="4">
         <v>162</v>
       </c>
-      <c r="M98" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N98" s="7">
+      <c r="M98" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N98" s="4">
         <v>41175.537409999997</v>
       </c>
-      <c r="O98" s="7">
+      <c r="O98" s="4">
         <v>55846.024870000001</v>
       </c>
-      <c r="P98" s="6">
+      <c r="P98" s="3">
         <v>27.99988811179681</v>
       </c>
       <c r="Q98" s="1"/>
@@ -5991,52 +5999,52 @@
       <c r="S98" s="1"/>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A99" s="5">
+      <c r="A99" s="2">
         <v>99</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B99" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C99" s="6">
+      <c r="C99" s="3">
         <v>33.11</v>
       </c>
-      <c r="D99" s="5">
+      <c r="D99" s="2">
         <v>6.78</v>
       </c>
-      <c r="E99" s="5">
+      <c r="E99" s="2">
         <v>-448</v>
       </c>
-      <c r="F99" s="7">
+      <c r="F99" s="4">
         <v>5994.3996610000004</v>
       </c>
-      <c r="G99" s="5">
+      <c r="G99" s="2">
         <v>3.66</v>
       </c>
-      <c r="H99" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I99" s="6">
+      <c r="H99" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I99" s="3">
         <v>65.337649029999994</v>
       </c>
-      <c r="J99" s="6">
+      <c r="J99" s="3">
         <v>67.045611249999993</v>
       </c>
-      <c r="K99" s="6">
+      <c r="K99" s="3">
         <v>2.9033477040000002</v>
       </c>
-      <c r="L99" s="7">
+      <c r="L99" s="4">
         <v>192</v>
       </c>
-      <c r="M99" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N99" s="7">
+      <c r="M99" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N99" s="4">
         <v>40998.825819999998</v>
       </c>
-      <c r="O99" s="7">
+      <c r="O99" s="4">
         <v>55143.188770000001</v>
       </c>
-      <c r="P99" s="6">
+      <c r="P99" s="3">
         <v>27.872507533631307</v>
       </c>
       <c r="Q99" s="1"/>
@@ -6044,52 +6052,52 @@
       <c r="S99" s="1"/>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A100" s="5">
+      <c r="A100" s="2">
         <v>100</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B100" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C100" s="6">
+      <c r="C100" s="3">
         <v>33.21</v>
       </c>
-      <c r="D100" s="5">
+      <c r="D100" s="2">
         <v>6.79</v>
       </c>
-      <c r="E100" s="5">
+      <c r="E100" s="2">
         <v>-448</v>
       </c>
-      <c r="F100" s="7">
+      <c r="F100" s="4">
         <v>5198.2523950000004</v>
       </c>
-      <c r="G100" s="5">
+      <c r="G100" s="2">
         <v>3.68</v>
       </c>
-      <c r="H100" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I100" s="6">
+      <c r="H100" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I100" s="3">
         <v>86.266171580000005</v>
       </c>
-      <c r="J100" s="6">
+      <c r="J100" s="3">
         <v>73.200728670000004</v>
       </c>
-      <c r="K100" s="6">
+      <c r="K100" s="3">
         <v>3.2344441659999998</v>
       </c>
-      <c r="L100" s="7">
+      <c r="L100" s="4">
         <v>239</v>
       </c>
-      <c r="M100" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N100" s="7">
+      <c r="M100" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N100" s="4">
         <v>41588.09706</v>
       </c>
-      <c r="O100" s="7">
+      <c r="O100" s="4">
         <v>56036.82675</v>
       </c>
-      <c r="P100" s="6">
+      <c r="P100" s="3">
         <v>28.04216856497947</v>
       </c>
       <c r="Q100" s="1"/>
@@ -6097,52 +6105,52 @@
       <c r="S100" s="1"/>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A101" s="5">
+      <c r="A101" s="2">
         <v>101</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B101" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C101" s="6">
+      <c r="C101" s="3">
         <v>33.200000000000003</v>
       </c>
-      <c r="D101" s="5">
+      <c r="D101" s="2">
         <v>6.79</v>
       </c>
-      <c r="E101" s="5">
+      <c r="E101" s="2">
         <v>-449</v>
       </c>
-      <c r="F101" s="7">
+      <c r="F101" s="4">
         <v>8495.6845489999996</v>
       </c>
-      <c r="G101" s="5">
+      <c r="G101" s="2">
         <v>3.7</v>
       </c>
-      <c r="H101" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I101" s="6">
+      <c r="H101" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I101" s="3">
         <v>67.723674939999995</v>
       </c>
-      <c r="J101" s="6">
+      <c r="J101" s="3">
         <v>63.5244176</v>
       </c>
-      <c r="K101" s="6">
+      <c r="K101" s="3">
         <v>2.645174296</v>
       </c>
-      <c r="L101" s="7">
+      <c r="L101" s="4">
         <v>205</v>
       </c>
-      <c r="M101" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N101" s="7">
+      <c r="M101" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N101" s="4">
         <v>38932.599840000003</v>
       </c>
-      <c r="O101" s="7">
+      <c r="O101" s="4">
         <v>57577.604290000003</v>
       </c>
-      <c r="P101" s="6">
+      <c r="P101" s="3">
         <v>29.753917050675444</v>
       </c>
       <c r="Q101" s="1"/>
@@ -6150,52 +6158,52 @@
       <c r="S101" s="1"/>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A102" s="5">
+      <c r="A102" s="2">
         <v>102</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="B102" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C102" s="6">
+      <c r="C102" s="3">
         <v>33.369999999999997</v>
       </c>
-      <c r="D102" s="5">
+      <c r="D102" s="2">
         <v>6.8</v>
       </c>
-      <c r="E102" s="5">
+      <c r="E102" s="2">
         <v>-449</v>
       </c>
-      <c r="F102" s="7">
+      <c r="F102" s="4">
         <v>5900</v>
       </c>
-      <c r="G102" s="5">
+      <c r="G102" s="2">
         <v>3.72</v>
       </c>
-      <c r="H102" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I102" s="6">
+      <c r="H102" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I102" s="3">
         <v>81.052849600000002</v>
       </c>
-      <c r="J102" s="6">
+      <c r="J102" s="3">
         <v>74.747258130000006</v>
       </c>
-      <c r="K102" s="6">
+      <c r="K102" s="3">
         <v>3.5330639439999998</v>
       </c>
-      <c r="L102" s="7">
+      <c r="L102" s="4">
         <v>202</v>
       </c>
-      <c r="M102" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N102" s="7">
+      <c r="M102" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N102" s="4">
         <v>41725.483209999999</v>
       </c>
-      <c r="O102" s="7">
+      <c r="O102" s="4">
         <v>55973.622130000003</v>
       </c>
-      <c r="P102" s="6">
+      <c r="P102" s="3">
         <v>27.750472330665975</v>
       </c>
       <c r="Q102" s="1"/>
@@ -6203,52 +6211,52 @@
       <c r="S102" s="1"/>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A103" s="5">
+      <c r="A103" s="2">
         <v>103</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B103" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C103" s="6">
+      <c r="C103" s="3">
         <v>33</v>
       </c>
-      <c r="D103" s="5">
+      <c r="D103" s="2">
         <v>6.79</v>
       </c>
-      <c r="E103" s="5">
+      <c r="E103" s="2">
         <v>-448</v>
       </c>
-      <c r="F103" s="7">
+      <c r="F103" s="4">
         <v>6002.0316599999996</v>
       </c>
-      <c r="G103" s="5">
+      <c r="G103" s="2">
         <v>3.7</v>
       </c>
-      <c r="H103" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I103" s="6">
+      <c r="H103" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I103" s="3">
         <v>76.70660402</v>
       </c>
-      <c r="J103" s="6">
+      <c r="J103" s="3">
         <v>63.649656440000001</v>
       </c>
-      <c r="K103" s="6">
+      <c r="K103" s="3">
         <v>3.203718592</v>
       </c>
-      <c r="L103" s="7">
+      <c r="L103" s="4">
         <v>196</v>
       </c>
-      <c r="M103" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N103" s="7">
+      <c r="M103" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N103" s="4">
         <v>41456.4571</v>
       </c>
-      <c r="O103" s="7">
+      <c r="O103" s="4">
         <v>56339.344129999998</v>
       </c>
-      <c r="P103" s="6">
+      <c r="P103" s="3">
         <v>26.081128292226719</v>
       </c>
       <c r="Q103" s="1"/>
@@ -6256,52 +6264,52 @@
       <c r="S103" s="1"/>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A104" s="5">
+      <c r="A104" s="2">
         <v>104</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B104" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C104" s="6">
+      <c r="C104" s="3">
         <v>33.22</v>
       </c>
-      <c r="D104" s="5">
+      <c r="D104" s="2">
         <v>6.81</v>
       </c>
-      <c r="E104" s="5">
+      <c r="E104" s="2">
         <v>-449</v>
       </c>
-      <c r="F104" s="7">
+      <c r="F104" s="4">
         <v>5799.5143189999999</v>
       </c>
-      <c r="G104" s="5">
+      <c r="G104" s="2">
         <v>3.67</v>
       </c>
-      <c r="H104" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I104" s="6">
+      <c r="H104" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I104" s="3">
         <v>84.491214979999995</v>
       </c>
-      <c r="J104" s="6">
+      <c r="J104" s="3">
         <v>73.211446120000005</v>
       </c>
-      <c r="K104" s="6">
+      <c r="K104" s="3">
         <v>3.44954881</v>
       </c>
-      <c r="L104" s="7">
+      <c r="L104" s="4">
         <v>156</v>
       </c>
-      <c r="M104" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N104" s="7">
+      <c r="M104" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N104" s="4">
         <v>41356.402869999998</v>
       </c>
-      <c r="O104" s="7">
+      <c r="O104" s="4">
         <v>56722.324990000001</v>
       </c>
-      <c r="P104" s="6">
+      <c r="P104" s="3">
         <v>28.070298701468371</v>
       </c>
       <c r="Q104" s="1"/>
@@ -6309,52 +6317,52 @@
       <c r="S104" s="1"/>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A105" s="5">
+      <c r="A105" s="2">
         <v>105</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="B105" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C105" s="6">
+      <c r="C105" s="3">
         <v>33.11</v>
       </c>
-      <c r="D105" s="5">
+      <c r="D105" s="2">
         <v>6.81</v>
       </c>
-      <c r="E105" s="5">
+      <c r="E105" s="2">
         <v>-449</v>
       </c>
-      <c r="F105" s="7">
+      <c r="F105" s="4">
         <v>5900.7729900000004</v>
       </c>
-      <c r="G105" s="5">
+      <c r="G105" s="2">
         <v>3.72</v>
       </c>
-      <c r="H105" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I105" s="6">
+      <c r="H105" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I105" s="3">
         <v>88.50987379</v>
       </c>
-      <c r="J105" s="6">
+      <c r="J105" s="3">
         <v>65.100326170000002</v>
       </c>
-      <c r="K105" s="6">
+      <c r="K105" s="3">
         <v>4.0244424939999996</v>
       </c>
-      <c r="L105" s="7">
+      <c r="L105" s="4">
         <v>220</v>
       </c>
-      <c r="M105" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N105" s="7">
+      <c r="M105" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N105" s="4">
         <v>41531.77594</v>
       </c>
-      <c r="O105" s="7">
+      <c r="O105" s="4">
         <v>56513.42613</v>
       </c>
-      <c r="P105" s="6">
+      <c r="P105" s="3">
         <v>27.151227586207195</v>
       </c>
       <c r="Q105" s="1"/>
@@ -6362,52 +6370,52 @@
       <c r="S105" s="1"/>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5">
+      <c r="A106" s="2">
         <v>106</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="B106" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C106" s="6">
+      <c r="C106" s="3">
         <v>33.33</v>
       </c>
-      <c r="D106" s="5">
+      <c r="D106" s="2">
         <v>6.81</v>
       </c>
-      <c r="E106" s="5">
+      <c r="E106" s="2">
         <v>-449</v>
       </c>
-      <c r="F106" s="7">
+      <c r="F106" s="4">
         <v>4598.8972000000003</v>
       </c>
-      <c r="G106" s="5">
+      <c r="G106" s="2">
         <v>3.75</v>
       </c>
-      <c r="H106" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I106" s="6">
+      <c r="H106" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I106" s="3">
         <v>110.0883618</v>
       </c>
-      <c r="J106" s="6">
+      <c r="J106" s="3">
         <v>94.786138260000001</v>
       </c>
-      <c r="K106" s="6">
+      <c r="K106" s="3">
         <v>4.5379619079999998</v>
       </c>
-      <c r="L106" s="7">
+      <c r="L106" s="4">
         <v>275</v>
       </c>
-      <c r="M106" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N106" s="7">
+      <c r="M106" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N106" s="4">
         <v>40055.040309999997</v>
       </c>
-      <c r="O106" s="7">
+      <c r="O106" s="4">
         <v>56928.21559</v>
       </c>
-      <c r="P106" s="6">
+      <c r="P106" s="3">
         <v>29.242472727239807</v>
       </c>
       <c r="Q106" s="1"/>
@@ -6415,52 +6423,52 @@
       <c r="S106" s="1"/>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5">
+      <c r="A107" s="2">
         <v>107</v>
       </c>
-      <c r="B107" s="5" t="s">
+      <c r="B107" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C107" s="6">
+      <c r="C107" s="3">
         <v>33.18</v>
       </c>
-      <c r="D107" s="5">
+      <c r="D107" s="2">
         <v>6.81</v>
       </c>
-      <c r="E107" s="5">
+      <c r="E107" s="2">
         <v>-449</v>
       </c>
-      <c r="F107" s="7">
+      <c r="F107" s="4">
         <v>3498.751338</v>
       </c>
-      <c r="G107" s="5">
+      <c r="G107" s="2">
         <v>3.77</v>
       </c>
-      <c r="H107" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I107" s="6">
+      <c r="H107" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I107" s="3">
         <v>70.915453389999996</v>
       </c>
-      <c r="J107" s="6">
+      <c r="J107" s="3">
         <v>59.746747569999997</v>
       </c>
-      <c r="K107" s="6">
+      <c r="K107" s="3">
         <v>3.4842464139999998</v>
       </c>
-      <c r="L107" s="7">
+      <c r="L107" s="4">
         <v>172</v>
       </c>
-      <c r="M107" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N107" s="7">
+      <c r="M107" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N107" s="4">
         <v>43219.153440000002</v>
       </c>
-      <c r="O107" s="7">
+      <c r="O107" s="4">
         <v>54832.186609999997</v>
       </c>
-      <c r="P107" s="6">
+      <c r="P107" s="3">
         <v>26.561491814924576</v>
       </c>
       <c r="Q107" s="1"/>
@@ -6468,52 +6476,52 @@
       <c r="S107" s="1"/>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A108" s="5">
+      <c r="A108" s="2">
         <v>108</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="B108" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C108" s="6">
+      <c r="C108" s="3">
         <v>33.01</v>
       </c>
-      <c r="D108" s="5">
+      <c r="D108" s="2">
         <v>6.79</v>
       </c>
-      <c r="E108" s="5">
+      <c r="E108" s="2">
         <v>-450</v>
       </c>
-      <c r="F108" s="7">
+      <c r="F108" s="4">
         <v>5699.0430619999997</v>
       </c>
-      <c r="G108" s="5">
+      <c r="G108" s="2">
         <v>3.79</v>
       </c>
-      <c r="H108" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I108" s="6">
+      <c r="H108" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I108" s="3">
         <v>66.017942989999995</v>
       </c>
-      <c r="J108" s="6">
+      <c r="J108" s="3">
         <v>54.156344089999997</v>
       </c>
-      <c r="K108" s="6">
+      <c r="K108" s="3">
         <v>3.2841586060000001</v>
       </c>
-      <c r="L108" s="7">
+      <c r="L108" s="4">
         <v>165</v>
       </c>
-      <c r="M108" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N108" s="7">
+      <c r="M108" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N108" s="4">
         <v>43058.46054</v>
       </c>
-      <c r="O108" s="7">
+      <c r="O108" s="4">
         <v>55110.149920000003</v>
       </c>
-      <c r="P108" s="6">
+      <c r="P108" s="3">
         <v>28.041908256896104</v>
       </c>
       <c r="Q108" s="1"/>
@@ -6521,52 +6529,52 @@
       <c r="S108" s="1"/>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A109" s="5">
+      <c r="A109" s="2">
         <v>109</v>
       </c>
-      <c r="B109" s="5" t="s">
+      <c r="B109" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C109" s="6">
+      <c r="C109" s="3">
         <v>32.99</v>
       </c>
-      <c r="D109" s="5">
+      <c r="D109" s="2">
         <v>6.82</v>
       </c>
-      <c r="E109" s="5">
+      <c r="E109" s="2">
         <v>-450</v>
       </c>
-      <c r="F109" s="7">
+      <c r="F109" s="4">
         <v>8300.7457319999994</v>
       </c>
-      <c r="G109" s="5">
+      <c r="G109" s="2">
         <v>3.79</v>
       </c>
-      <c r="H109" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I109" s="6">
+      <c r="H109" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I109" s="3">
         <v>47.196260270000003</v>
       </c>
-      <c r="J109" s="6">
+      <c r="J109" s="3">
         <v>44.322274919999998</v>
       </c>
-      <c r="K109" s="6">
+      <c r="K109" s="3">
         <v>2.7810518900000001</v>
       </c>
-      <c r="L109" s="7">
+      <c r="L109" s="4">
         <v>183</v>
       </c>
-      <c r="M109" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N109" s="7">
+      <c r="M109" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N109" s="4">
         <v>41952.612390000002</v>
       </c>
-      <c r="O109" s="7">
+      <c r="O109" s="4">
         <v>55465.775930000003</v>
       </c>
-      <c r="P109" s="6">
+      <c r="P109" s="3">
         <v>28.97367567558441</v>
       </c>
       <c r="Q109" s="1"/>
@@ -6574,52 +6582,52 @@
       <c r="S109" s="1"/>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A110" s="5">
+      <c r="A110" s="2">
         <v>110</v>
       </c>
-      <c r="B110" s="5" t="s">
+      <c r="B110" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C110" s="6">
+      <c r="C110" s="3">
         <v>33.29</v>
       </c>
-      <c r="D110" s="5">
+      <c r="D110" s="2">
         <v>6.83</v>
       </c>
-      <c r="E110" s="5">
+      <c r="E110" s="2">
         <v>-452</v>
       </c>
-      <c r="F110" s="7">
+      <c r="F110" s="4">
         <v>4898.75</v>
       </c>
-      <c r="G110" s="5">
+      <c r="G110" s="2">
         <v>3.81</v>
       </c>
-      <c r="H110" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I110" s="6">
+      <c r="H110" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I110" s="3">
         <v>114.9729997</v>
       </c>
-      <c r="J110" s="6">
+      <c r="J110" s="3">
         <v>99.398310089999995</v>
       </c>
-      <c r="K110" s="6">
+      <c r="K110" s="3">
         <v>4.3186546000000003</v>
       </c>
-      <c r="L110" s="7">
+      <c r="L110" s="4">
         <v>218</v>
       </c>
-      <c r="M110" s="7">
-        <v>1.01325</v>
-      </c>
-      <c r="N110" s="7">
+      <c r="M110" s="4">
+        <v>1.01325</v>
+      </c>
+      <c r="N110" s="4">
         <v>38508.605060000002</v>
       </c>
-      <c r="O110" s="7">
+      <c r="O110" s="4">
         <v>57695.65438</v>
       </c>
-      <c r="P110" s="6">
+      <c r="P110" s="3">
         <v>36.804644747407366</v>
       </c>
       <c r="Q110" s="1"/>
@@ -6627,11 +6635,6 @@
       <c r="S110" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="M1:P1"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Metadata.xlsx
+++ b/Metadata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0MFT~2020\計畫\謝志豪計畫\第一年期中報告\draft\Microbiome_transfer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D52F45-5134-41F0-BF8E-F2B35646A23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BC87F3-57EA-4F66-922D-3F9822DAEF24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t>Day</t>
   </si>
@@ -389,32 +389,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>In reactor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>In effluent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>In head space</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Electrical conductivity, EC (mS/cm)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sucrose (mg/L)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>In influent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Suspended solids, 
-SS (mg/L)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -430,6 +409,30 @@
   <si>
     <t>Chemical oxygen 
 demand, COD (mg/L)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effluent solution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Influent substrate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Within reactor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Biomass (Suspended solids, SS) (mg/L)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Head space gas composition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas production</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -440,7 +443,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -456,13 +459,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -488,32 +507,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -797,7 +826,7 @@
   <dimension ref="A1:S110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -813,101 +842,83 @@
     <col min="25" max="25" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="9" t="s">
+    <row r="1" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q1" s="6"/>
+    </row>
+    <row r="2" spans="1:19" ht="57" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q1" s="8"/>
-    </row>
-    <row r="2" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="I2" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="P2" s="11" t="s">
         <v>121</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -917,23 +928,23 @@
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D3" s="3">
         <v>33.26</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>6.61</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>-444</v>
       </c>
-      <c r="F3" s="4">
+      <c r="G3" s="4">
         <v>11600</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="2">
         <v>4.1500000000000004</v>
-      </c>
-      <c r="H3" s="2">
-        <v>2000</v>
       </c>
       <c r="I3" s="3">
         <v>13.22477205</v>
@@ -970,23 +981,23 @@
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D4" s="3">
         <v>33.94</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>6.59</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>-444</v>
       </c>
-      <c r="F4" s="4">
+      <c r="G4" s="4">
         <v>6700</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>3.92</v>
-      </c>
-      <c r="H4" s="2">
-        <v>2000</v>
       </c>
       <c r="I4" s="3">
         <v>11.12934445</v>
@@ -1023,23 +1034,23 @@
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D5" s="3">
         <v>33.229999999999997</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>6.58</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>-446</v>
       </c>
-      <c r="F5" s="4">
+      <c r="G5" s="4">
         <v>6498.9039709999997</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>3.83</v>
-      </c>
-      <c r="H5" s="2">
-        <v>2000</v>
       </c>
       <c r="I5" s="3">
         <v>13.651253580000001</v>
@@ -1076,23 +1087,23 @@
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D6" s="3">
         <v>33.229999999999997</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>6.58</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>-447</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="4">
         <v>4799.5972140000003</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <v>3.77</v>
-      </c>
-      <c r="H6" s="2">
-        <v>2000</v>
       </c>
       <c r="I6" s="3">
         <v>14.51793325</v>
@@ -1129,23 +1140,23 @@
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D7" s="3">
         <v>33.03</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <v>6.58</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>-447</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="4">
         <v>5099.5711039999997</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>3.75</v>
-      </c>
-      <c r="H7" s="2">
-        <v>2000</v>
       </c>
       <c r="I7" s="3">
         <v>14.83414999</v>
@@ -1182,23 +1193,23 @@
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D8" s="3">
         <v>33.229999999999997</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <v>6.53</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <v>-443</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="4">
         <v>4799.1843669999998</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <v>3.73</v>
-      </c>
-      <c r="H8" s="2">
-        <v>2000</v>
       </c>
       <c r="I8" s="3">
         <v>14.91161305</v>
@@ -1235,23 +1246,23 @@
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D9" s="3">
         <v>33.229999999999997</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E9" s="2">
         <v>6.6</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <v>-448</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="4">
         <v>3601.2299280000002</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H9" s="2">
         <v>3.78</v>
-      </c>
-      <c r="H9" s="2">
-        <v>2000</v>
       </c>
       <c r="I9" s="3">
         <v>13.52907854</v>
@@ -1288,23 +1299,23 @@
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D10" s="3">
         <v>32.4</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10" s="2">
         <v>6.71</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="2">
         <v>-443</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="4">
         <v>3999.6637810000002</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H10" s="2">
         <v>3.79</v>
-      </c>
-      <c r="H10" s="2">
-        <v>2000</v>
       </c>
       <c r="I10" s="3">
         <v>16.194830750000001</v>
@@ -1341,23 +1352,23 @@
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D11" s="3">
         <v>32</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E11" s="2">
         <v>6.7</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="2">
         <v>-445</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="4">
         <v>4001.3502109999999</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H11" s="2">
         <v>3.74</v>
-      </c>
-      <c r="H11" s="2">
-        <v>2000</v>
       </c>
       <c r="I11" s="3">
         <v>20.21473039</v>
@@ -1394,23 +1405,23 @@
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D12" s="3">
         <v>32.9</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E12" s="2">
         <v>6.71</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="2">
         <v>-451</v>
       </c>
-      <c r="F12" s="4">
+      <c r="G12" s="4">
         <v>3700.311526</v>
       </c>
-      <c r="G12" s="2">
+      <c r="H12" s="2">
         <v>3.7</v>
-      </c>
-      <c r="H12" s="2">
-        <v>2000</v>
       </c>
       <c r="I12" s="3">
         <v>19.602901379999999</v>
@@ -1447,23 +1458,23 @@
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D13" s="3">
         <v>32.6</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E13" s="2">
         <v>6.7</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13" s="2">
         <v>-451</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="4">
         <v>3500</v>
       </c>
-      <c r="G13" s="2">
+      <c r="H13" s="2">
         <v>3.64</v>
-      </c>
-      <c r="H13" s="2">
-        <v>2000</v>
       </c>
       <c r="I13" s="3">
         <v>15.62747738</v>
@@ -1500,23 +1511,23 @@
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D14" s="3">
         <v>32.39</v>
       </c>
-      <c r="D14" s="2">
+      <c r="E14" s="2">
         <v>6.68</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F14" s="2">
         <v>-450</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="4">
         <v>3100.5247570000001</v>
       </c>
-      <c r="G14" s="2">
+      <c r="H14" s="2">
         <v>3.61</v>
-      </c>
-      <c r="H14" s="2">
-        <v>2000</v>
       </c>
       <c r="I14" s="3">
         <v>49.64317956</v>
@@ -1553,23 +1564,23 @@
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D15" s="3">
         <v>32.840000000000003</v>
       </c>
-      <c r="D15" s="2">
+      <c r="E15" s="2">
         <v>6.53</v>
       </c>
-      <c r="E15" s="2">
+      <c r="F15" s="2">
         <v>-452</v>
       </c>
-      <c r="F15" s="4">
+      <c r="G15" s="4">
         <v>2399.5890060000002</v>
       </c>
-      <c r="G15" s="2">
+      <c r="H15" s="2">
         <v>3.51</v>
-      </c>
-      <c r="H15" s="2">
-        <v>2000</v>
       </c>
       <c r="I15" s="3">
         <v>65.037360460000002</v>
@@ -1606,23 +1617,23 @@
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D16" s="3">
         <v>33.22</v>
       </c>
-      <c r="D16" s="2">
+      <c r="E16" s="2">
         <v>6.53</v>
       </c>
-      <c r="E16" s="2">
+      <c r="F16" s="2">
         <v>-456</v>
       </c>
-      <c r="F16" s="4">
+      <c r="G16" s="4">
         <v>2600</v>
       </c>
-      <c r="G16" s="2">
+      <c r="H16" s="2">
         <v>3.6</v>
-      </c>
-      <c r="H16" s="2">
-        <v>2000</v>
       </c>
       <c r="I16" s="3">
         <v>31.946403589999999</v>
@@ -1659,23 +1670,23 @@
       <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D17" s="3">
         <v>33.46</v>
       </c>
-      <c r="D17" s="2">
+      <c r="E17" s="2">
         <v>6.54</v>
       </c>
-      <c r="E17" s="2">
+      <c r="F17" s="2">
         <v>-451</v>
       </c>
-      <c r="F17" s="4">
+      <c r="G17" s="4">
         <v>3300.8288680000001</v>
       </c>
-      <c r="G17" s="2">
+      <c r="H17" s="2">
         <v>3.61</v>
-      </c>
-      <c r="H17" s="2">
-        <v>2000</v>
       </c>
       <c r="I17" s="3">
         <v>118.6321732</v>
@@ -1712,23 +1723,23 @@
       <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D18" s="3">
         <v>33.31</v>
       </c>
-      <c r="D18" s="2">
+      <c r="E18" s="2">
         <v>6.52</v>
       </c>
-      <c r="E18" s="2">
+      <c r="F18" s="2">
         <v>-459</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
         <v>4399.6279379999996</v>
       </c>
-      <c r="G18" s="2">
+      <c r="H18" s="2">
         <v>3.61</v>
-      </c>
-      <c r="H18" s="2">
-        <v>2000</v>
       </c>
       <c r="I18" s="3">
         <v>93.333652060000006</v>
@@ -1765,23 +1776,23 @@
       <c r="B19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D19" s="3">
         <v>33.159999999999997</v>
       </c>
-      <c r="D19" s="2">
+      <c r="E19" s="2">
         <v>6.52</v>
       </c>
-      <c r="E19" s="2">
+      <c r="F19" s="2">
         <v>-463</v>
       </c>
-      <c r="F19" s="4">
+      <c r="G19" s="4">
         <v>3900</v>
       </c>
-      <c r="G19" s="2">
+      <c r="H19" s="2">
         <v>3.64</v>
-      </c>
-      <c r="H19" s="2">
-        <v>2000</v>
       </c>
       <c r="I19" s="3">
         <v>115.1608119</v>
@@ -1818,23 +1829,23 @@
       <c r="B20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D20" s="3">
         <v>33.590000000000003</v>
       </c>
-      <c r="D20" s="2">
+      <c r="E20" s="2">
         <v>6.61</v>
       </c>
-      <c r="E20" s="2">
+      <c r="F20" s="2">
         <v>-453</v>
       </c>
-      <c r="F20" s="4">
+      <c r="G20" s="4">
         <v>4501.5227139999997</v>
       </c>
-      <c r="G20" s="2">
+      <c r="H20" s="2">
         <v>3.69</v>
-      </c>
-      <c r="H20" s="2">
-        <v>2000</v>
       </c>
       <c r="I20" s="3">
         <v>31.946403589999999</v>
@@ -1871,23 +1882,23 @@
       <c r="B21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D21" s="3">
         <v>33.409999999999997</v>
       </c>
-      <c r="D21" s="2">
+      <c r="E21" s="2">
         <v>6.59</v>
       </c>
-      <c r="E21" s="2">
+      <c r="F21" s="2">
         <v>-451</v>
       </c>
-      <c r="F21" s="4">
+      <c r="G21" s="4">
         <v>5898.49413</v>
       </c>
-      <c r="G21" s="2">
+      <c r="H21" s="2">
         <v>3.71</v>
-      </c>
-      <c r="H21" s="2">
-        <v>2000</v>
       </c>
       <c r="I21" s="3">
         <v>23.051286229999999</v>
@@ -1924,23 +1935,23 @@
       <c r="B22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D22" s="3">
         <v>33.159999999999997</v>
       </c>
-      <c r="D22" s="2">
+      <c r="E22" s="2">
         <v>6.58</v>
       </c>
-      <c r="E22" s="2">
+      <c r="F22" s="2">
         <v>-450</v>
       </c>
-      <c r="F22" s="4">
+      <c r="G22" s="4">
         <v>3698.422309</v>
       </c>
-      <c r="G22" s="2">
+      <c r="H22" s="2">
         <v>3.58</v>
-      </c>
-      <c r="H22" s="2">
-        <v>2000</v>
       </c>
       <c r="I22" s="3">
         <v>31.599343439999998</v>
@@ -1977,23 +1988,23 @@
       <c r="B23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D23" s="3">
         <v>33.33</v>
       </c>
-      <c r="D23" s="2">
+      <c r="E23" s="2">
         <v>6.55</v>
       </c>
-      <c r="E23" s="2">
+      <c r="F23" s="2">
         <v>-451</v>
       </c>
-      <c r="F23" s="4">
+      <c r="G23" s="4">
         <v>2499.3718589999999</v>
       </c>
-      <c r="G23" s="2">
+      <c r="H23" s="2">
         <v>3.57</v>
-      </c>
-      <c r="H23" s="2">
-        <v>2000</v>
       </c>
       <c r="I23" s="3">
         <v>76.569631920000006</v>
@@ -2030,23 +2041,23 @@
       <c r="B24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D24" s="3">
         <v>33.24</v>
       </c>
-      <c r="D24" s="2">
+      <c r="E24" s="2">
         <v>6.53</v>
       </c>
-      <c r="E24" s="2">
+      <c r="F24" s="2">
         <v>-451</v>
       </c>
-      <c r="F24" s="4">
+      <c r="G24" s="4">
         <v>1300</v>
       </c>
-      <c r="G24" s="2">
+      <c r="H24" s="2">
         <v>3.62</v>
-      </c>
-      <c r="H24" s="2">
-        <v>2000</v>
       </c>
       <c r="I24" s="3">
         <v>127.8678089</v>
@@ -2083,23 +2094,23 @@
       <c r="B25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D25" s="3">
         <v>33.32</v>
       </c>
-      <c r="D25" s="2">
+      <c r="E25" s="2">
         <v>6.54</v>
       </c>
-      <c r="E25" s="2">
+      <c r="F25" s="2">
         <v>-453</v>
       </c>
-      <c r="F25" s="4">
+      <c r="G25" s="4">
         <v>1100</v>
       </c>
-      <c r="G25" s="2">
+      <c r="H25" s="2">
         <v>3.61</v>
-      </c>
-      <c r="H25" s="2">
-        <v>2000</v>
       </c>
       <c r="I25" s="3">
         <v>137.21284</v>
@@ -2136,23 +2147,23 @@
       <c r="B26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D26" s="3">
         <v>33.35</v>
       </c>
-      <c r="D26" s="2">
+      <c r="E26" s="2">
         <v>6.53</v>
       </c>
-      <c r="E26" s="2">
+      <c r="F26" s="2">
         <v>-451</v>
       </c>
-      <c r="F26" s="4">
+      <c r="G26" s="4">
         <v>799.86556880000001</v>
       </c>
-      <c r="G26" s="2">
+      <c r="H26" s="2">
         <v>3.66</v>
-      </c>
-      <c r="H26" s="2">
-        <v>2000</v>
       </c>
       <c r="I26" s="3">
         <v>138.03499339999999</v>
@@ -2189,23 +2200,23 @@
       <c r="B27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D27" s="3">
         <v>33.36</v>
       </c>
-      <c r="D27" s="2">
+      <c r="E27" s="2">
         <v>6.53</v>
       </c>
-      <c r="E27" s="2">
+      <c r="F27" s="2">
         <v>-454</v>
       </c>
-      <c r="F27" s="4">
+      <c r="G27" s="4">
         <v>1100</v>
       </c>
-      <c r="G27" s="2">
+      <c r="H27" s="2">
         <v>3.66</v>
-      </c>
-      <c r="H27" s="2">
-        <v>2000</v>
       </c>
       <c r="I27" s="3">
         <v>145.493461</v>
@@ -2242,23 +2253,23 @@
       <c r="B28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D28" s="3">
         <v>33.14</v>
       </c>
-      <c r="D28" s="2">
+      <c r="E28" s="2">
         <v>6.52</v>
       </c>
-      <c r="E28" s="2">
+      <c r="F28" s="2">
         <v>-454</v>
       </c>
-      <c r="F28" s="4">
+      <c r="G28" s="4">
         <v>599.89898989999995</v>
       </c>
-      <c r="G28" s="2">
+      <c r="H28" s="2">
         <v>3.72</v>
-      </c>
-      <c r="H28" s="2">
-        <v>2000</v>
       </c>
       <c r="I28" s="3">
         <v>146.92247169999999</v>
@@ -2295,23 +2306,23 @@
       <c r="B29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D29" s="3">
         <v>33.25</v>
       </c>
-      <c r="D29" s="2">
+      <c r="E29" s="2">
         <v>6.53</v>
       </c>
-      <c r="E29" s="2">
+      <c r="F29" s="2">
         <v>-456</v>
       </c>
-      <c r="F29" s="4">
+      <c r="G29" s="4">
         <v>799.86287279999999</v>
       </c>
-      <c r="G29" s="2">
+      <c r="H29" s="2">
         <v>3.74</v>
-      </c>
-      <c r="H29" s="2">
-        <v>2000</v>
       </c>
       <c r="I29" s="3">
         <v>152.92896909999999</v>
@@ -2348,23 +2359,23 @@
       <c r="B30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D30" s="3">
         <v>33.369999999999997</v>
       </c>
-      <c r="D30" s="2">
+      <c r="E30" s="2">
         <v>6.58</v>
       </c>
-      <c r="E30" s="2">
+      <c r="F30" s="2">
         <v>-453</v>
       </c>
-      <c r="F30" s="4">
+      <c r="G30" s="4">
         <v>2700.2267379999998</v>
       </c>
-      <c r="G30" s="2">
+      <c r="H30" s="2">
         <v>3.75</v>
-      </c>
-      <c r="H30" s="2">
-        <v>2000</v>
       </c>
       <c r="I30" s="3">
         <v>64.824216770000007</v>
@@ -2401,23 +2412,23 @@
       <c r="B31" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D31" s="3">
         <v>32.950000000000003</v>
       </c>
-      <c r="D31" s="2">
+      <c r="E31" s="2">
         <v>6.58</v>
       </c>
-      <c r="E31" s="2">
+      <c r="F31" s="2">
         <v>-450</v>
       </c>
-      <c r="F31" s="4">
+      <c r="G31" s="4">
         <v>1699.711693</v>
       </c>
-      <c r="G31" s="2">
+      <c r="H31" s="2">
         <v>3.76</v>
-      </c>
-      <c r="H31" s="2">
-        <v>2000</v>
       </c>
       <c r="I31" s="3">
         <v>79.571445659999995</v>
@@ -2454,23 +2465,23 @@
       <c r="B32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D32" s="3">
         <v>33.26</v>
       </c>
-      <c r="D32" s="2">
+      <c r="E32" s="2">
         <v>6.55</v>
       </c>
-      <c r="E32" s="2">
+      <c r="F32" s="2">
         <v>-452</v>
       </c>
-      <c r="F32" s="4">
+      <c r="G32" s="4">
         <v>1800.1520909999999</v>
       </c>
-      <c r="G32" s="2">
+      <c r="H32" s="2">
         <v>3.73</v>
-      </c>
-      <c r="H32" s="2">
-        <v>2000</v>
       </c>
       <c r="I32" s="3">
         <v>122.53638890000001</v>
@@ -2507,23 +2518,23 @@
       <c r="B33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D33" s="3">
         <v>33.58</v>
       </c>
-      <c r="D33" s="2">
+      <c r="E33" s="2">
         <v>6.54</v>
       </c>
-      <c r="E33" s="2">
+      <c r="F33" s="2">
         <v>-449</v>
       </c>
-      <c r="F33" s="4">
+      <c r="G33" s="4">
         <v>2700</v>
       </c>
-      <c r="G33" s="2">
+      <c r="H33" s="2">
         <v>3.6</v>
-      </c>
-      <c r="H33" s="2">
-        <v>2000</v>
       </c>
       <c r="I33" s="3">
         <v>71.046829110000004</v>
@@ -2560,23 +2571,23 @@
       <c r="B34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D34" s="3">
         <v>33.450000000000003</v>
       </c>
-      <c r="D34" s="2">
+      <c r="E34" s="2">
         <v>6.58</v>
       </c>
-      <c r="E34" s="2">
+      <c r="F34" s="2">
         <v>-446</v>
       </c>
-      <c r="F34" s="4">
+      <c r="G34" s="4">
         <v>1799.8473019999999</v>
       </c>
-      <c r="G34" s="2">
+      <c r="H34" s="2">
         <v>3.56</v>
-      </c>
-      <c r="H34" s="2">
-        <v>2000</v>
       </c>
       <c r="I34" s="3">
         <v>61.393878780000001</v>
@@ -2613,23 +2624,23 @@
       <c r="B35" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D35" s="3">
         <v>33.42</v>
       </c>
-      <c r="D35" s="2">
+      <c r="E35" s="2">
         <v>6.54</v>
       </c>
-      <c r="E35" s="2">
+      <c r="F35" s="2">
         <v>-449</v>
       </c>
-      <c r="F35" s="4">
+      <c r="G35" s="4">
         <v>1300</v>
       </c>
-      <c r="G35" s="2">
+      <c r="H35" s="2">
         <v>3.63</v>
-      </c>
-      <c r="H35" s="2">
-        <v>2000</v>
       </c>
       <c r="I35" s="3">
         <v>70.807163799999998</v>
@@ -2666,23 +2677,23 @@
       <c r="B36" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D36" s="3">
         <v>33.369999999999997</v>
       </c>
-      <c r="D36" s="2">
+      <c r="E36" s="2">
         <v>6.52</v>
       </c>
-      <c r="E36" s="2">
+      <c r="F36" s="2">
         <v>-449</v>
       </c>
-      <c r="F36" s="4">
+      <c r="G36" s="4">
         <v>1700</v>
       </c>
-      <c r="G36" s="2">
+      <c r="H36" s="2">
         <v>3.57</v>
-      </c>
-      <c r="H36" s="2">
-        <v>2000</v>
       </c>
       <c r="I36" s="3">
         <v>97.133199390000001</v>
@@ -2719,23 +2730,23 @@
       <c r="B37" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D37" s="3">
         <v>33.35</v>
       </c>
-      <c r="D37" s="2">
+      <c r="E37" s="2">
         <v>6.55</v>
       </c>
-      <c r="E37" s="2">
+      <c r="F37" s="2">
         <v>-449</v>
       </c>
-      <c r="F37" s="4">
+      <c r="G37" s="4">
         <v>1500</v>
       </c>
-      <c r="G37" s="2">
+      <c r="H37" s="2">
         <v>3.59</v>
-      </c>
-      <c r="H37" s="2">
-        <v>2000</v>
       </c>
       <c r="I37" s="3">
         <v>108.9445219</v>
@@ -2772,23 +2783,23 @@
       <c r="B38" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D38" s="3">
         <v>33.5</v>
       </c>
-      <c r="D38" s="2">
+      <c r="E38" s="2">
         <v>6.55</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>-449</v>
       </c>
-      <c r="F38" s="4">
+      <c r="G38" s="4">
         <v>1100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>3.62</v>
-      </c>
-      <c r="H38" s="2">
-        <v>2000</v>
       </c>
       <c r="I38" s="3">
         <v>144.70574690000001</v>
@@ -2825,23 +2836,23 @@
       <c r="B39" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D39" s="3">
         <v>33.43</v>
       </c>
-      <c r="D39" s="2">
+      <c r="E39" s="2">
         <v>6.57</v>
       </c>
-      <c r="E39" s="2">
+      <c r="F39" s="2">
         <v>-448</v>
       </c>
-      <c r="F39" s="4">
+      <c r="G39" s="4">
         <v>1000</v>
       </c>
-      <c r="G39" s="2">
+      <c r="H39" s="2">
         <v>3.68</v>
-      </c>
-      <c r="H39" s="2">
-        <v>2000</v>
       </c>
       <c r="I39" s="3">
         <v>132.74966130000001</v>
@@ -2878,23 +2889,23 @@
       <c r="B40" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D40" s="3">
         <v>33.4</v>
       </c>
-      <c r="D40" s="2">
+      <c r="E40" s="2">
         <v>6.58</v>
       </c>
-      <c r="E40" s="2">
+      <c r="F40" s="2">
         <v>-446</v>
       </c>
-      <c r="F40" s="4">
+      <c r="G40" s="4">
         <v>1100</v>
       </c>
-      <c r="G40" s="2">
+      <c r="H40" s="2">
         <v>3.66</v>
-      </c>
-      <c r="H40" s="2">
-        <v>2000</v>
       </c>
       <c r="I40" s="3">
         <v>119.0775203</v>
@@ -2931,23 +2942,23 @@
       <c r="B41" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D41" s="3">
         <v>33.35</v>
       </c>
-      <c r="D41" s="2">
+      <c r="E41" s="2">
         <v>6.58</v>
       </c>
-      <c r="E41" s="2">
+      <c r="F41" s="2">
         <v>-449</v>
       </c>
-      <c r="F41" s="4">
+      <c r="G41" s="4">
         <v>1599.8659070000001</v>
       </c>
-      <c r="G41" s="2">
+      <c r="H41" s="2">
         <v>3.7</v>
-      </c>
-      <c r="H41" s="2">
-        <v>2000</v>
       </c>
       <c r="I41" s="3">
         <v>120.52641800000001</v>
@@ -2984,23 +2995,23 @@
       <c r="B42" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D42" s="3">
         <v>33.29</v>
       </c>
-      <c r="D42" s="2">
+      <c r="E42" s="2">
         <v>6.56</v>
       </c>
-      <c r="E42" s="2">
+      <c r="F42" s="2">
         <v>-447</v>
       </c>
-      <c r="F42" s="4">
+      <c r="G42" s="4">
         <v>1599.729227</v>
       </c>
-      <c r="G42" s="2">
+      <c r="H42" s="2">
         <v>3.63</v>
-      </c>
-      <c r="H42" s="2">
-        <v>2000</v>
       </c>
       <c r="I42" s="3">
         <v>112.502319</v>
@@ -3037,23 +3048,23 @@
       <c r="B43" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D43" s="3">
         <v>32.979999999999997</v>
       </c>
-      <c r="D43" s="2">
+      <c r="E43" s="2">
         <v>6.56</v>
       </c>
-      <c r="E43" s="2">
+      <c r="F43" s="2">
         <v>-446</v>
       </c>
-      <c r="F43" s="4">
-        <v>2000</v>
-      </c>
-      <c r="G43" s="2">
+      <c r="G43" s="4">
+        <v>2000</v>
+      </c>
+      <c r="H43" s="2">
         <v>3.56</v>
-      </c>
-      <c r="H43" s="2">
-        <v>2000</v>
       </c>
       <c r="I43" s="3">
         <v>92.731471119999995</v>
@@ -3090,23 +3101,23 @@
       <c r="B44" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D44" s="3">
         <v>33.200000000000003</v>
       </c>
-      <c r="D44" s="2">
+      <c r="E44" s="2">
         <v>6.55</v>
       </c>
-      <c r="E44" s="2">
+      <c r="F44" s="2">
         <v>-445</v>
       </c>
-      <c r="F44" s="4">
+      <c r="G44" s="4">
         <v>1399.762571</v>
       </c>
-      <c r="G44" s="2">
+      <c r="H44" s="2">
         <v>3.53</v>
-      </c>
-      <c r="H44" s="2">
-        <v>2000</v>
       </c>
       <c r="I44" s="3">
         <v>100.1252807</v>
@@ -3143,23 +3154,23 @@
       <c r="B45" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D45" s="3">
         <v>33.380000000000003</v>
       </c>
-      <c r="D45" s="2">
+      <c r="E45" s="2">
         <v>6.57</v>
       </c>
-      <c r="E45" s="2">
+      <c r="F45" s="2">
         <v>-445</v>
       </c>
-      <c r="F45" s="4">
+      <c r="G45" s="4">
         <v>2000.5067570000001</v>
       </c>
-      <c r="G45" s="2">
+      <c r="H45" s="2">
         <v>3.54</v>
-      </c>
-      <c r="H45" s="2">
-        <v>2000</v>
       </c>
       <c r="I45" s="3">
         <v>82.722479399999997</v>
@@ -3196,23 +3207,23 @@
       <c r="B46" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D46" s="3">
         <v>33.43</v>
       </c>
-      <c r="D46" s="2">
+      <c r="E46" s="2">
         <v>6.58</v>
       </c>
-      <c r="E46" s="2">
+      <c r="F46" s="2">
         <v>-448</v>
       </c>
-      <c r="F46" s="4">
+      <c r="G46" s="4">
         <v>1900</v>
       </c>
-      <c r="G46" s="2">
+      <c r="H46" s="2">
         <v>3.54</v>
-      </c>
-      <c r="H46" s="2">
-        <v>2000</v>
       </c>
       <c r="I46" s="3">
         <v>72.585994819999996</v>
@@ -3249,23 +3260,23 @@
       <c r="B47" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D47" s="3">
         <v>33.39</v>
       </c>
-      <c r="D47" s="2">
+      <c r="E47" s="2">
         <v>6.59</v>
       </c>
-      <c r="E47" s="2">
+      <c r="F47" s="2">
         <v>-445</v>
       </c>
-      <c r="F47" s="4">
+      <c r="G47" s="4">
         <v>2800</v>
       </c>
-      <c r="G47" s="2">
+      <c r="H47" s="2">
         <v>3.57</v>
-      </c>
-      <c r="H47" s="2">
-        <v>2000</v>
       </c>
       <c r="I47" s="3">
         <v>59.706430019999999</v>
@@ -3302,23 +3313,23 @@
       <c r="B48" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D48" s="3">
         <v>33.5</v>
       </c>
-      <c r="D48" s="2">
+      <c r="E48" s="2">
         <v>6.59</v>
       </c>
-      <c r="E48" s="2">
+      <c r="F48" s="2">
         <v>-444</v>
       </c>
-      <c r="F48" s="4">
+      <c r="G48" s="4">
         <v>1899.680323</v>
       </c>
-      <c r="G48" s="2">
+      <c r="H48" s="2">
         <v>3.57</v>
-      </c>
-      <c r="H48" s="2">
-        <v>2000</v>
       </c>
       <c r="I48" s="3">
         <v>52.883367139999997</v>
@@ -3355,23 +3366,23 @@
       <c r="B49" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D49" s="3">
         <v>33.47</v>
       </c>
-      <c r="D49" s="2">
+      <c r="E49" s="2">
         <v>6.61</v>
       </c>
-      <c r="E49" s="2">
+      <c r="F49" s="2">
         <v>-449</v>
       </c>
-      <c r="F49" s="4">
+      <c r="G49" s="4">
         <v>2300.1940930000001</v>
       </c>
-      <c r="G49" s="2">
+      <c r="H49" s="2">
         <v>3.57</v>
-      </c>
-      <c r="H49" s="2">
-        <v>2000</v>
       </c>
       <c r="I49" s="3">
         <v>39.53980902</v>
@@ -3408,23 +3419,23 @@
       <c r="B50" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D50" s="3">
         <v>33.53</v>
       </c>
-      <c r="D50" s="2">
+      <c r="E50" s="2">
         <v>6.68</v>
       </c>
-      <c r="E50" s="2">
+      <c r="F50" s="2">
         <v>-448</v>
       </c>
-      <c r="F50" s="4">
+      <c r="G50" s="4">
         <v>1800</v>
       </c>
-      <c r="G50" s="2">
+      <c r="H50" s="2">
         <v>3.56</v>
-      </c>
-      <c r="H50" s="2">
-        <v>2000</v>
       </c>
       <c r="I50" s="3">
         <v>37.380162290000001</v>
@@ -3461,23 +3472,23 @@
       <c r="B51" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D51" s="3">
         <v>33.090000000000003</v>
       </c>
-      <c r="D51" s="2">
+      <c r="E51" s="2">
         <v>6.68</v>
       </c>
-      <c r="E51" s="2">
+      <c r="F51" s="2">
         <v>-448</v>
       </c>
-      <c r="F51" s="4">
+      <c r="G51" s="4">
         <v>3000.511814</v>
       </c>
-      <c r="G51" s="2">
+      <c r="H51" s="2">
         <v>3.56</v>
-      </c>
-      <c r="H51" s="2">
-        <v>2000</v>
       </c>
       <c r="I51" s="3">
         <v>15.29404944</v>
@@ -3514,23 +3525,23 @@
       <c r="B52" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D52" s="3">
         <v>33.19</v>
       </c>
-      <c r="D52" s="2">
+      <c r="E52" s="2">
         <v>6.63</v>
       </c>
-      <c r="E52" s="2">
+      <c r="F52" s="2">
         <v>-447</v>
       </c>
-      <c r="F52" s="4">
+      <c r="G52" s="4">
         <v>3300</v>
       </c>
-      <c r="G52" s="2">
+      <c r="H52" s="2">
         <v>3.53</v>
-      </c>
-      <c r="H52" s="2">
-        <v>2000</v>
       </c>
       <c r="I52" s="3">
         <v>18.33339187</v>
@@ -3567,23 +3578,23 @@
       <c r="B53" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D53" s="3">
         <v>33.26</v>
       </c>
-      <c r="D53" s="2">
+      <c r="E53" s="2">
         <v>6.61</v>
       </c>
-      <c r="E53" s="2">
+      <c r="F53" s="2">
         <v>-445</v>
       </c>
-      <c r="F53" s="4">
+      <c r="G53" s="4">
         <v>3100</v>
       </c>
-      <c r="G53" s="2">
+      <c r="H53" s="2">
         <v>3.54</v>
-      </c>
-      <c r="H53" s="2">
-        <v>2000</v>
       </c>
       <c r="I53" s="3">
         <v>23.058435759999998</v>
@@ -3620,23 +3631,23 @@
       <c r="B54" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D54" s="3">
         <v>33.06</v>
       </c>
-      <c r="D54" s="2">
+      <c r="E54" s="2">
         <v>6.59</v>
       </c>
-      <c r="E54" s="2">
+      <c r="F54" s="2">
         <v>-447</v>
       </c>
-      <c r="F54" s="4">
+      <c r="G54" s="4">
         <v>3299.4396809999998</v>
       </c>
-      <c r="G54" s="2">
+      <c r="H54" s="2">
         <v>3.52</v>
-      </c>
-      <c r="H54" s="2">
-        <v>2000</v>
       </c>
       <c r="I54" s="3">
         <v>26.878275250000002</v>
@@ -3673,23 +3684,23 @@
       <c r="B55" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D55" s="3">
         <v>33.340000000000003</v>
       </c>
-      <c r="D55" s="2">
+      <c r="E55" s="2">
         <v>6.61</v>
       </c>
-      <c r="E55" s="2">
+      <c r="F55" s="2">
         <v>-450</v>
       </c>
-      <c r="F55" s="4">
+      <c r="G55" s="4">
         <v>2900.2482450000002</v>
       </c>
-      <c r="G55" s="2">
+      <c r="H55" s="2">
         <v>3.42</v>
-      </c>
-      <c r="H55" s="2">
-        <v>2000</v>
       </c>
       <c r="I55" s="3">
         <v>31.62115498</v>
@@ -3726,23 +3737,23 @@
       <c r="B56" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D56" s="3">
         <v>33.19</v>
       </c>
-      <c r="D56" s="2">
+      <c r="E56" s="2">
         <v>6.7</v>
       </c>
-      <c r="E56" s="2">
+      <c r="F56" s="2">
         <v>-449</v>
       </c>
-      <c r="F56" s="4">
+      <c r="G56" s="4">
         <v>3499.4057720000001</v>
       </c>
-      <c r="G56" s="2">
+      <c r="H56" s="2">
         <v>3.35</v>
-      </c>
-      <c r="H56" s="2">
-        <v>2000</v>
       </c>
       <c r="I56" s="3">
         <v>34.32206395</v>
@@ -3779,23 +3790,23 @@
       <c r="B57" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D57" s="3">
         <v>33.5</v>
       </c>
-      <c r="D57" s="2">
+      <c r="E57" s="2">
         <v>6.67</v>
       </c>
-      <c r="E57" s="2">
+      <c r="F57" s="2">
         <v>-448</v>
       </c>
-      <c r="F57" s="4">
+      <c r="G57" s="4">
         <v>2500</v>
       </c>
-      <c r="G57" s="2">
+      <c r="H57" s="2">
         <v>3.35</v>
-      </c>
-      <c r="H57" s="2">
-        <v>2000</v>
       </c>
       <c r="I57" s="3">
         <v>49.61439575</v>
@@ -3832,23 +3843,23 @@
       <c r="B58" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D58" s="3">
         <v>33.68</v>
       </c>
-      <c r="D58" s="2">
+      <c r="E58" s="2">
         <v>6.59</v>
       </c>
-      <c r="E58" s="2">
+      <c r="F58" s="2">
         <v>-443</v>
       </c>
-      <c r="F58" s="4">
+      <c r="G58" s="4">
         <v>2799.0573979999999</v>
       </c>
-      <c r="G58" s="2">
+      <c r="H58" s="2">
         <v>3.33</v>
-      </c>
-      <c r="H58" s="2">
-        <v>2000</v>
       </c>
       <c r="I58" s="3">
         <v>29.777573050000001</v>
@@ -3885,23 +3896,23 @@
       <c r="B59" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D59" s="3">
         <v>33.4</v>
       </c>
-      <c r="D59" s="2">
+      <c r="E59" s="2">
         <v>6.6</v>
       </c>
-      <c r="E59" s="2">
+      <c r="F59" s="2">
         <v>-443</v>
       </c>
-      <c r="F59" s="4">
+      <c r="G59" s="4">
         <v>3699.6863880000001</v>
       </c>
-      <c r="G59" s="2">
+      <c r="H59" s="2">
         <v>3.36</v>
-      </c>
-      <c r="H59" s="2">
-        <v>2000</v>
       </c>
       <c r="I59" s="3">
         <v>38.326457470000001</v>
@@ -3938,23 +3949,23 @@
       <c r="B60" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D60" s="3">
         <v>33.14</v>
       </c>
-      <c r="D60" s="2">
+      <c r="E60" s="2">
         <v>6.63</v>
       </c>
-      <c r="E60" s="2">
+      <c r="F60" s="2">
         <v>-446</v>
       </c>
-      <c r="F60" s="4">
+      <c r="G60" s="4">
         <v>4100.3443349999998</v>
       </c>
-      <c r="G60" s="2">
+      <c r="H60" s="2">
         <v>3.43</v>
-      </c>
-      <c r="H60" s="2">
-        <v>2000</v>
       </c>
       <c r="I60" s="3">
         <v>38.47777928</v>
@@ -3991,23 +4002,23 @@
       <c r="B61" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D61" s="3">
         <v>33.06</v>
       </c>
-      <c r="D61" s="2">
+      <c r="E61" s="2">
         <v>6.65</v>
       </c>
-      <c r="E61" s="2">
+      <c r="F61" s="2">
         <v>-446</v>
       </c>
-      <c r="F61" s="4">
+      <c r="G61" s="4">
         <v>3899.6676889999999</v>
       </c>
-      <c r="G61" s="2">
+      <c r="H61" s="2">
         <v>3.49</v>
-      </c>
-      <c r="H61" s="2">
-        <v>2000</v>
       </c>
       <c r="I61" s="3">
         <v>33.465732950000003</v>
@@ -4044,23 +4055,23 @@
       <c r="B62" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D62" s="3">
         <v>32.94</v>
       </c>
-      <c r="D62" s="2">
+      <c r="E62" s="2">
         <v>6.65</v>
       </c>
-      <c r="E62" s="2">
+      <c r="F62" s="2">
         <v>-445</v>
       </c>
-      <c r="F62" s="4">
+      <c r="G62" s="4">
         <v>3800.6434680000002</v>
       </c>
-      <c r="G62" s="2">
+      <c r="H62" s="2">
         <v>3.51</v>
-      </c>
-      <c r="H62" s="2">
-        <v>2000</v>
       </c>
       <c r="I62" s="3">
         <v>35.697862540000003</v>
@@ -4097,23 +4108,23 @@
       <c r="B63" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D63" s="3">
         <v>33.25</v>
       </c>
-      <c r="D63" s="2">
+      <c r="E63" s="2">
         <v>6.64</v>
       </c>
-      <c r="E63" s="2">
+      <c r="F63" s="2">
         <v>-446</v>
       </c>
-      <c r="F63" s="4">
+      <c r="G63" s="4">
         <v>4298.9177849999996</v>
       </c>
-      <c r="G63" s="2">
+      <c r="H63" s="2">
         <v>3.54</v>
-      </c>
-      <c r="H63" s="2">
-        <v>2000</v>
       </c>
       <c r="I63" s="3">
         <v>35.492526779999999</v>
@@ -4150,23 +4161,23 @@
       <c r="B64" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D64" s="3">
         <v>33.31</v>
       </c>
-      <c r="D64" s="2">
+      <c r="E64" s="2">
         <v>6.64</v>
       </c>
-      <c r="E64" s="2">
+      <c r="F64" s="2">
         <v>-446</v>
       </c>
-      <c r="F64" s="4">
+      <c r="G64" s="4">
         <v>3799.3602689999998</v>
       </c>
-      <c r="G64" s="2">
+      <c r="H64" s="2">
         <v>3.55</v>
-      </c>
-      <c r="H64" s="2">
-        <v>2000</v>
       </c>
       <c r="I64" s="3">
         <v>42.575547139999998</v>
@@ -4203,23 +4214,23 @@
       <c r="B65" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D65" s="3">
         <v>33.270000000000003</v>
       </c>
-      <c r="D65" s="2">
+      <c r="E65" s="2">
         <v>6.64</v>
       </c>
-      <c r="E65" s="2">
+      <c r="F65" s="2">
         <v>-445</v>
       </c>
-      <c r="F65" s="4">
+      <c r="G65" s="4">
         <v>3900</v>
       </c>
-      <c r="G65" s="2">
+      <c r="H65" s="2">
         <v>3.53</v>
-      </c>
-      <c r="H65" s="2">
-        <v>2000</v>
       </c>
       <c r="I65" s="3">
         <v>41.987850960000003</v>
@@ -4256,23 +4267,23 @@
       <c r="B66" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D66" s="3">
         <v>33.14</v>
       </c>
-      <c r="D66" s="2">
+      <c r="E66" s="2">
         <v>6.64</v>
       </c>
-      <c r="E66" s="2">
+      <c r="F66" s="2">
         <v>-446</v>
       </c>
-      <c r="F66" s="4">
+      <c r="G66" s="4">
         <v>4000.6732310000002</v>
       </c>
-      <c r="G66" s="2">
+      <c r="H66" s="2">
         <v>3.57</v>
-      </c>
-      <c r="H66" s="2">
-        <v>2000</v>
       </c>
       <c r="I66" s="3">
         <v>54.471895809999999</v>
@@ -4309,23 +4320,23 @@
       <c r="B67" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C67" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D67" s="3">
         <v>33.01</v>
       </c>
-      <c r="D67" s="2">
+      <c r="E67" s="2">
         <v>6.66</v>
       </c>
-      <c r="E67" s="2">
+      <c r="F67" s="2">
         <v>-446</v>
       </c>
-      <c r="F67" s="4">
+      <c r="G67" s="4">
         <v>3499.4063769999998</v>
       </c>
-      <c r="G67" s="2">
+      <c r="H67" s="2">
         <v>3.6</v>
-      </c>
-      <c r="H67" s="2">
-        <v>2000</v>
       </c>
       <c r="I67" s="3">
         <v>51.706860560000003</v>
@@ -4362,23 +4373,23 @@
       <c r="B68" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C68" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D68" s="3">
         <v>32.94</v>
       </c>
-      <c r="D68" s="2">
+      <c r="E68" s="2">
         <v>6.66</v>
       </c>
-      <c r="E68" s="2">
+      <c r="F68" s="2">
         <v>-443</v>
       </c>
-      <c r="F68" s="4">
+      <c r="G68" s="4">
         <v>5101.7388339999998</v>
       </c>
-      <c r="G68" s="2">
+      <c r="H68" s="2">
         <v>3.62</v>
-      </c>
-      <c r="H68" s="2">
-        <v>2000</v>
       </c>
       <c r="I68" s="3">
         <v>48.04724813</v>
@@ -4415,23 +4426,23 @@
       <c r="B69" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C69" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D69" s="3">
         <v>33.520000000000003</v>
       </c>
-      <c r="D69" s="2">
+      <c r="E69" s="2">
         <v>6.68</v>
       </c>
-      <c r="E69" s="2">
+      <c r="F69" s="2">
         <v>-448</v>
       </c>
-      <c r="F69" s="4">
+      <c r="G69" s="4">
         <v>4700.7976239999998</v>
       </c>
-      <c r="G69" s="2">
+      <c r="H69" s="2">
         <v>3.64</v>
-      </c>
-      <c r="H69" s="2">
-        <v>2000</v>
       </c>
       <c r="I69" s="3">
         <v>48.766775850000002</v>
@@ -4468,23 +4479,23 @@
       <c r="B70" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C70" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D70" s="3">
         <v>33.11</v>
       </c>
-      <c r="D70" s="2">
+      <c r="E70" s="2">
         <v>6.68</v>
       </c>
-      <c r="E70" s="2">
+      <c r="F70" s="2">
         <v>-447</v>
       </c>
-      <c r="F70" s="4">
+      <c r="G70" s="4">
         <v>4201.1294369999996</v>
       </c>
-      <c r="G70" s="2">
+      <c r="H70" s="2">
         <v>3.65</v>
-      </c>
-      <c r="H70" s="2">
-        <v>2000</v>
       </c>
       <c r="I70" s="3">
         <v>49.962696729999998</v>
@@ -4521,23 +4532,23 @@
       <c r="B71" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C71" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D71" s="3">
         <v>33.4</v>
       </c>
-      <c r="D71" s="2">
+      <c r="E71" s="2">
         <v>6.7</v>
       </c>
-      <c r="E71" s="2">
+      <c r="F71" s="2">
         <v>-447</v>
       </c>
-      <c r="F71" s="4">
+      <c r="G71" s="4">
         <v>3998.5804280000002</v>
       </c>
-      <c r="G71" s="2">
+      <c r="H71" s="2">
         <v>3.7</v>
-      </c>
-      <c r="H71" s="2">
-        <v>2000</v>
       </c>
       <c r="I71" s="3">
         <v>52.478005000000003</v>
@@ -4574,23 +4585,23 @@
       <c r="B72" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C72" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D72" s="3">
         <v>33.36</v>
       </c>
-      <c r="D72" s="2">
+      <c r="E72" s="2">
         <v>6.72</v>
       </c>
-      <c r="E72" s="2">
+      <c r="F72" s="2">
         <v>-448</v>
       </c>
-      <c r="F72" s="4">
+      <c r="G72" s="4">
         <v>5200</v>
       </c>
-      <c r="G72" s="2">
+      <c r="H72" s="2">
         <v>3.67</v>
-      </c>
-      <c r="H72" s="2">
-        <v>2000</v>
       </c>
       <c r="I72" s="3">
         <v>27.615976450000002</v>
@@ -4627,23 +4638,23 @@
       <c r="B73" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D73" s="3">
         <v>33.21</v>
       </c>
-      <c r="D73" s="2">
+      <c r="E73" s="2">
         <v>6.74</v>
       </c>
-      <c r="E73" s="2">
+      <c r="F73" s="2">
         <v>-448</v>
       </c>
-      <c r="F73" s="4">
+      <c r="G73" s="4">
         <v>6297.7495980000003</v>
       </c>
-      <c r="G73" s="2">
+      <c r="H73" s="2">
         <v>3.71</v>
-      </c>
-      <c r="H73" s="2">
-        <v>2000</v>
       </c>
       <c r="I73" s="3">
         <v>21.42921303</v>
@@ -4680,23 +4691,23 @@
       <c r="B74" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C74" s="3">
+      <c r="C74" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D74" s="3">
         <v>32.85</v>
       </c>
-      <c r="D74" s="2">
+      <c r="E74" s="2">
         <v>6.73</v>
       </c>
-      <c r="E74" s="2">
+      <c r="F74" s="2">
         <v>-447</v>
       </c>
-      <c r="F74" s="4">
+      <c r="G74" s="4">
         <v>4798.7021180000002</v>
       </c>
-      <c r="G74" s="2">
+      <c r="H74" s="2">
         <v>3.71</v>
-      </c>
-      <c r="H74" s="2">
-        <v>2000</v>
       </c>
       <c r="I74" s="3">
         <v>28.78973126</v>
@@ -4733,23 +4744,23 @@
       <c r="B75" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C75" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D75" s="3">
         <v>33.35</v>
       </c>
-      <c r="D75" s="2">
+      <c r="E75" s="2">
         <v>6.72</v>
       </c>
-      <c r="E75" s="2">
+      <c r="F75" s="2">
         <v>-447</v>
       </c>
-      <c r="F75" s="4">
+      <c r="G75" s="4">
         <v>4600.780256</v>
       </c>
-      <c r="G75" s="2">
+      <c r="H75" s="2">
         <v>3.7</v>
-      </c>
-      <c r="H75" s="2">
-        <v>2000</v>
       </c>
       <c r="I75" s="3">
         <v>26.092325299999999</v>
@@ -4786,23 +4797,23 @@
       <c r="B76" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C76" s="3">
+      <c r="C76" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D76" s="3">
         <v>32.92</v>
       </c>
-      <c r="D76" s="2">
+      <c r="E76" s="2">
         <v>6.71</v>
       </c>
-      <c r="E76" s="2">
+      <c r="F76" s="2">
         <v>-447</v>
       </c>
-      <c r="F76" s="4">
+      <c r="G76" s="4">
         <v>5200.4331169999996</v>
       </c>
-      <c r="G76" s="2">
+      <c r="H76" s="2">
         <v>3.66</v>
-      </c>
-      <c r="H76" s="2">
-        <v>2000</v>
       </c>
       <c r="I76" s="3">
         <v>29.743910339999999</v>
@@ -4839,23 +4850,23 @@
       <c r="B77" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C77" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D77" s="3">
         <v>33.43</v>
       </c>
-      <c r="D77" s="2">
+      <c r="E77" s="2">
         <v>6.7</v>
       </c>
-      <c r="E77" s="2">
+      <c r="F77" s="2">
         <v>-448</v>
       </c>
-      <c r="F77" s="4">
+      <c r="G77" s="4">
         <v>6302.253823</v>
       </c>
-      <c r="G77" s="2">
+      <c r="H77" s="2">
         <v>3.62</v>
-      </c>
-      <c r="H77" s="2">
-        <v>2000</v>
       </c>
       <c r="I77" s="3">
         <v>34.589137190000002</v>
@@ -4892,23 +4903,23 @@
       <c r="B78" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C78" s="3">
+      <c r="C78" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D78" s="3">
         <v>33.26</v>
       </c>
-      <c r="D78" s="2">
+      <c r="E78" s="2">
         <v>6.71</v>
       </c>
-      <c r="E78" s="2">
+      <c r="F78" s="2">
         <v>-448</v>
       </c>
-      <c r="F78" s="4">
+      <c r="G78" s="4">
         <v>5200.4377469999999</v>
       </c>
-      <c r="G78" s="2">
+      <c r="H78" s="2">
         <v>3.65</v>
-      </c>
-      <c r="H78" s="2">
-        <v>2000</v>
       </c>
       <c r="I78" s="3">
         <v>34.503444160000001</v>
@@ -4945,23 +4956,23 @@
       <c r="B79" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C79" s="3">
+      <c r="C79" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D79" s="3">
         <v>33.21</v>
       </c>
-      <c r="D79" s="2">
+      <c r="E79" s="2">
         <v>6.73</v>
       </c>
-      <c r="E79" s="2">
+      <c r="F79" s="2">
         <v>-449</v>
       </c>
-      <c r="F79" s="4">
+      <c r="G79" s="4">
         <v>4900.831142</v>
       </c>
-      <c r="G79" s="2">
+      <c r="H79" s="2">
         <v>3.59</v>
-      </c>
-      <c r="H79" s="2">
-        <v>2000</v>
       </c>
       <c r="I79" s="3">
         <v>33.292017170000001</v>
@@ -4998,23 +5009,23 @@
       <c r="B80" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C80" s="3">
+      <c r="C80" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D80" s="3">
         <v>33.07</v>
       </c>
-      <c r="D80" s="2">
+      <c r="E80" s="2">
         <v>6.74</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>-449</v>
       </c>
-      <c r="F80" s="4">
+      <c r="G80" s="4">
         <v>5300.4780369999999</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>3.64</v>
-      </c>
-      <c r="H80" s="2">
-        <v>2000</v>
       </c>
       <c r="I80" s="3">
         <v>32.255099399999999</v>
@@ -5051,23 +5062,23 @@
       <c r="B81" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C81" s="3">
+      <c r="C81" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D81" s="3">
         <v>33.24</v>
       </c>
-      <c r="D81" s="2">
+      <c r="E81" s="2">
         <v>6.73</v>
       </c>
-      <c r="E81" s="2">
+      <c r="F81" s="2">
         <v>-449</v>
       </c>
-      <c r="F81" s="4">
+      <c r="G81" s="4">
         <v>4699.1568749999997</v>
       </c>
-      <c r="G81" s="2">
+      <c r="H81" s="2">
         <v>3.67</v>
-      </c>
-      <c r="H81" s="2">
-        <v>2000</v>
       </c>
       <c r="I81" s="3">
         <v>28.869895440000001</v>
@@ -5104,23 +5115,23 @@
       <c r="B82" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C82" s="3">
+      <c r="C82" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D82" s="3">
         <v>33.159999999999997</v>
       </c>
-      <c r="D82" s="2">
+      <c r="E82" s="2">
         <v>6.72</v>
       </c>
-      <c r="E82" s="2">
+      <c r="F82" s="2">
         <v>-448</v>
       </c>
-      <c r="F82" s="4">
+      <c r="G82" s="4">
         <v>6000.5407349999996</v>
       </c>
-      <c r="G82" s="2">
+      <c r="H82" s="2">
         <v>3.68</v>
-      </c>
-      <c r="H82" s="2">
-        <v>2000</v>
       </c>
       <c r="I82" s="3">
         <v>37.205197239999997</v>
@@ -5157,23 +5168,23 @@
       <c r="B83" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C83" s="3">
+      <c r="C83" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D83" s="3">
         <v>33.35</v>
       </c>
-      <c r="D83" s="2">
+      <c r="E83" s="2">
         <v>6.73</v>
       </c>
-      <c r="E83" s="2">
+      <c r="F83" s="2">
         <v>-446</v>
       </c>
-      <c r="F83" s="4">
+      <c r="G83" s="4">
         <v>4398.8782190000002</v>
       </c>
-      <c r="G83" s="2">
+      <c r="H83" s="2">
         <v>3.63</v>
-      </c>
-      <c r="H83" s="2">
-        <v>2000</v>
       </c>
       <c r="I83" s="3">
         <v>42.209199300000002</v>
@@ -5210,23 +5221,23 @@
       <c r="B84" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C84" s="3">
+      <c r="C84" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D84" s="3">
         <v>33.35</v>
       </c>
-      <c r="D84" s="2">
+      <c r="E84" s="2">
         <v>6.71</v>
       </c>
-      <c r="E84" s="2">
+      <c r="F84" s="2">
         <v>-447</v>
       </c>
-      <c r="F84" s="4">
+      <c r="G84" s="4">
         <v>5100</v>
       </c>
-      <c r="G84" s="2">
+      <c r="H84" s="2">
         <v>3.61</v>
-      </c>
-      <c r="H84" s="2">
-        <v>2000</v>
       </c>
       <c r="I84" s="3">
         <v>52.842470499999997</v>
@@ -5263,23 +5274,23 @@
       <c r="B85" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C85" s="3">
+      <c r="C85" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D85" s="3">
         <v>33.26</v>
       </c>
-      <c r="D85" s="2">
+      <c r="E85" s="2">
         <v>6.75</v>
       </c>
-      <c r="E85" s="2">
+      <c r="F85" s="2">
         <v>-447</v>
       </c>
-      <c r="F85" s="4">
+      <c r="G85" s="4">
         <v>5399.0253590000002</v>
       </c>
-      <c r="G85" s="2">
+      <c r="H85" s="2">
         <v>3.63</v>
-      </c>
-      <c r="H85" s="2">
-        <v>2000</v>
       </c>
       <c r="I85" s="3">
         <v>32.46552509</v>
@@ -5316,23 +5327,23 @@
       <c r="B86" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C86" s="3">
+      <c r="C86" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D86" s="3">
         <v>33.21</v>
       </c>
-      <c r="D86" s="2">
+      <c r="E86" s="2">
         <v>6.76</v>
       </c>
-      <c r="E86" s="2">
+      <c r="F86" s="2">
         <v>-447</v>
       </c>
-      <c r="F86" s="4">
+      <c r="G86" s="4">
         <v>5400.4575109999996</v>
       </c>
-      <c r="G86" s="2">
+      <c r="H86" s="2">
         <v>3.68</v>
-      </c>
-      <c r="H86" s="2">
-        <v>2000</v>
       </c>
       <c r="I86" s="3">
         <v>47.730153520000002</v>
@@ -5369,23 +5380,23 @@
       <c r="B87" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C87" s="3">
+      <c r="C87" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D87" s="3">
         <v>33.18</v>
       </c>
-      <c r="D87" s="2">
+      <c r="E87" s="2">
         <v>6.75</v>
       </c>
-      <c r="E87" s="2">
+      <c r="F87" s="2">
         <v>-447</v>
       </c>
-      <c r="F87" s="4">
+      <c r="G87" s="4">
         <v>4800</v>
       </c>
-      <c r="G87" s="2">
+      <c r="H87" s="2">
         <v>3.7</v>
-      </c>
-      <c r="H87" s="2">
-        <v>2000</v>
       </c>
       <c r="I87" s="3">
         <v>61.670752020000002</v>
@@ -5422,23 +5433,23 @@
       <c r="B88" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C88" s="3">
+      <c r="C88" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D88" s="3">
         <v>33.18</v>
       </c>
-      <c r="D88" s="2">
+      <c r="E88" s="2">
         <v>6.76</v>
       </c>
-      <c r="E88" s="2">
+      <c r="F88" s="2">
         <v>-448</v>
       </c>
-      <c r="F88" s="4">
+      <c r="G88" s="4">
         <v>4699.5991809999996</v>
       </c>
-      <c r="G88" s="2">
+      <c r="H88" s="2">
         <v>3.75</v>
-      </c>
-      <c r="H88" s="2">
-        <v>2000</v>
       </c>
       <c r="I88" s="3">
         <v>59.605880829999997</v>
@@ -5475,23 +5486,23 @@
       <c r="B89" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C89" s="3">
+      <c r="C89" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D89" s="3">
         <v>33.22</v>
       </c>
-      <c r="D89" s="2">
+      <c r="E89" s="2">
         <v>6.76</v>
       </c>
-      <c r="E89" s="2">
+      <c r="F89" s="2">
         <v>-448</v>
       </c>
-      <c r="F89" s="4">
+      <c r="G89" s="4">
         <v>7398.6874779999998</v>
       </c>
-      <c r="G89" s="2">
+      <c r="H89" s="2">
         <v>3.69</v>
-      </c>
-      <c r="H89" s="2">
-        <v>2000</v>
       </c>
       <c r="I89" s="3">
         <v>71.025135739999996</v>
@@ -5528,23 +5539,23 @@
       <c r="B90" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C90" s="3">
+      <c r="C90" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D90" s="3">
         <v>33.18</v>
       </c>
-      <c r="D90" s="2">
+      <c r="E90" s="2">
         <v>6.76</v>
       </c>
-      <c r="E90" s="2">
+      <c r="F90" s="2">
         <v>-448</v>
       </c>
-      <c r="F90" s="4">
+      <c r="G90" s="4">
         <v>7701.2920549999999</v>
       </c>
-      <c r="G90" s="2">
+      <c r="H90" s="2">
         <v>3.66</v>
-      </c>
-      <c r="H90" s="2">
-        <v>2000</v>
       </c>
       <c r="I90" s="3">
         <v>38.558424590000001</v>
@@ -5581,23 +5592,23 @@
       <c r="B91" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C91" s="3">
+      <c r="C91" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D91" s="3">
         <v>33.33</v>
       </c>
-      <c r="D91" s="2">
+      <c r="E91" s="2">
         <v>6.76</v>
       </c>
-      <c r="E91" s="2">
+      <c r="F91" s="2">
         <v>-447</v>
       </c>
-      <c r="F91" s="4">
+      <c r="G91" s="4">
         <v>5599.5268269999997</v>
       </c>
-      <c r="G91" s="2">
+      <c r="H91" s="2">
         <v>3.74</v>
-      </c>
-      <c r="H91" s="2">
-        <v>2000</v>
       </c>
       <c r="I91" s="3">
         <v>73.535531349999999</v>
@@ -5634,23 +5645,23 @@
       <c r="B92" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C92" s="3">
+      <c r="C92" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D92" s="3">
         <v>33.28</v>
       </c>
-      <c r="D92" s="2">
+      <c r="E92" s="2">
         <v>6.77</v>
       </c>
-      <c r="E92" s="2">
+      <c r="F92" s="2">
         <v>-448</v>
       </c>
-      <c r="F92" s="4">
+      <c r="G92" s="4">
         <v>4799.1526919999997</v>
       </c>
-      <c r="G92" s="2">
+      <c r="H92" s="2">
         <v>3.84</v>
-      </c>
-      <c r="H92" s="2">
-        <v>2000</v>
       </c>
       <c r="I92" s="3">
         <v>58.185792319999997</v>
@@ -5687,23 +5698,23 @@
       <c r="B93" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C93" s="3">
+      <c r="C93" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D93" s="3">
         <v>33.369999999999997</v>
       </c>
-      <c r="D93" s="2">
+      <c r="E93" s="2">
         <v>6.76</v>
       </c>
-      <c r="E93" s="2">
+      <c r="F93" s="2">
         <v>-448</v>
       </c>
-      <c r="F93" s="4">
+      <c r="G93" s="4">
         <v>5399.0912150000004</v>
       </c>
-      <c r="G93" s="2">
+      <c r="H93" s="2">
         <v>3.71</v>
-      </c>
-      <c r="H93" s="2">
-        <v>2000</v>
       </c>
       <c r="I93" s="3">
         <v>72.950992099999993</v>
@@ -5740,23 +5751,23 @@
       <c r="B94" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C94" s="3">
+      <c r="C94" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D94" s="3">
         <v>33.229999999999997</v>
       </c>
-      <c r="D94" s="2">
+      <c r="E94" s="2">
         <v>6.77</v>
       </c>
-      <c r="E94" s="2">
+      <c r="F94" s="2">
         <v>-449</v>
       </c>
-      <c r="F94" s="4">
+      <c r="G94" s="4">
         <v>5399.0259740000001</v>
       </c>
-      <c r="G94" s="2">
+      <c r="H94" s="2">
         <v>3.71</v>
-      </c>
-      <c r="H94" s="2">
-        <v>2000</v>
       </c>
       <c r="I94" s="3">
         <v>80.24238699</v>
@@ -5793,23 +5804,23 @@
       <c r="B95" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C95" s="3">
+      <c r="C95" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D95" s="3">
         <v>33.19</v>
       </c>
-      <c r="D95" s="2">
+      <c r="E95" s="2">
         <v>6.77</v>
       </c>
-      <c r="E95" s="2">
+      <c r="F95" s="2">
         <v>-448</v>
       </c>
-      <c r="F95" s="4">
+      <c r="G95" s="4">
         <v>5400</v>
       </c>
-      <c r="G95" s="2">
+      <c r="H95" s="2">
         <v>3.67</v>
-      </c>
-      <c r="H95" s="2">
-        <v>2000</v>
       </c>
       <c r="I95" s="3">
         <v>55.428033210000002</v>
@@ -5846,23 +5857,23 @@
       <c r="B96" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C96" s="3">
+      <c r="C96" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D96" s="3">
         <v>33.25</v>
       </c>
-      <c r="D96" s="2">
+      <c r="E96" s="2">
         <v>6.78</v>
       </c>
-      <c r="E96" s="2">
+      <c r="F96" s="2">
         <v>-448</v>
       </c>
-      <c r="F96" s="4">
+      <c r="G96" s="4">
         <v>4297.7001250000003</v>
       </c>
-      <c r="G96" s="2">
+      <c r="H96" s="2">
         <v>3.66</v>
-      </c>
-      <c r="H96" s="2">
-        <v>2000</v>
       </c>
       <c r="I96" s="3">
         <v>62.751284429999998</v>
@@ -5899,23 +5910,23 @@
       <c r="B97" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C97" s="3">
+      <c r="C97" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D97" s="3">
         <v>33.15</v>
       </c>
-      <c r="D97" s="2">
+      <c r="E97" s="2">
         <v>6.76</v>
       </c>
-      <c r="E97" s="2">
+      <c r="F97" s="2">
         <v>-448</v>
       </c>
-      <c r="F97" s="4">
+      <c r="G97" s="4">
         <v>4800.8060450000003</v>
       </c>
-      <c r="G97" s="2">
+      <c r="H97" s="2">
         <v>3.67</v>
-      </c>
-      <c r="H97" s="2">
-        <v>2000</v>
       </c>
       <c r="I97" s="3">
         <v>56.22244104</v>
@@ -5952,23 +5963,23 @@
       <c r="B98" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C98" s="3">
+      <c r="C98" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D98" s="3">
         <v>33.36</v>
       </c>
-      <c r="D98" s="2">
+      <c r="E98" s="2">
         <v>6.76</v>
       </c>
-      <c r="E98" s="2">
+      <c r="F98" s="2">
         <v>-448</v>
       </c>
-      <c r="F98" s="4">
+      <c r="G98" s="4">
         <v>4600.4111549999998</v>
       </c>
-      <c r="G98" s="2">
+      <c r="H98" s="2">
         <v>3.64</v>
-      </c>
-      <c r="H98" s="2">
-        <v>2000</v>
       </c>
       <c r="I98" s="3">
         <v>42.566540590000002</v>
@@ -6005,23 +6016,23 @@
       <c r="B99" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C99" s="3">
+      <c r="C99" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D99" s="3">
         <v>33.11</v>
       </c>
-      <c r="D99" s="2">
+      <c r="E99" s="2">
         <v>6.78</v>
       </c>
-      <c r="E99" s="2">
+      <c r="F99" s="2">
         <v>-448</v>
       </c>
-      <c r="F99" s="4">
+      <c r="G99" s="4">
         <v>5994.3996610000004</v>
       </c>
-      <c r="G99" s="2">
+      <c r="H99" s="2">
         <v>3.66</v>
-      </c>
-      <c r="H99" s="2">
-        <v>2000</v>
       </c>
       <c r="I99" s="3">
         <v>65.337649029999994</v>
@@ -6058,23 +6069,23 @@
       <c r="B100" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C100" s="3">
+      <c r="C100" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D100" s="3">
         <v>33.21</v>
       </c>
-      <c r="D100" s="2">
+      <c r="E100" s="2">
         <v>6.79</v>
       </c>
-      <c r="E100" s="2">
+      <c r="F100" s="2">
         <v>-448</v>
       </c>
-      <c r="F100" s="4">
+      <c r="G100" s="4">
         <v>5198.2523950000004</v>
       </c>
-      <c r="G100" s="2">
+      <c r="H100" s="2">
         <v>3.68</v>
-      </c>
-      <c r="H100" s="2">
-        <v>2000</v>
       </c>
       <c r="I100" s="3">
         <v>86.266171580000005</v>
@@ -6111,23 +6122,23 @@
       <c r="B101" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C101" s="3">
+      <c r="C101" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D101" s="3">
         <v>33.200000000000003</v>
       </c>
-      <c r="D101" s="2">
+      <c r="E101" s="2">
         <v>6.79</v>
       </c>
-      <c r="E101" s="2">
+      <c r="F101" s="2">
         <v>-449</v>
       </c>
-      <c r="F101" s="4">
+      <c r="G101" s="4">
         <v>8495.6845489999996</v>
       </c>
-      <c r="G101" s="2">
+      <c r="H101" s="2">
         <v>3.7</v>
-      </c>
-      <c r="H101" s="2">
-        <v>2000</v>
       </c>
       <c r="I101" s="3">
         <v>67.723674939999995</v>
@@ -6164,23 +6175,23 @@
       <c r="B102" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C102" s="3">
+      <c r="C102" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D102" s="3">
         <v>33.369999999999997</v>
       </c>
-      <c r="D102" s="2">
+      <c r="E102" s="2">
         <v>6.8</v>
       </c>
-      <c r="E102" s="2">
+      <c r="F102" s="2">
         <v>-449</v>
       </c>
-      <c r="F102" s="4">
+      <c r="G102" s="4">
         <v>5900</v>
       </c>
-      <c r="G102" s="2">
+      <c r="H102" s="2">
         <v>3.72</v>
-      </c>
-      <c r="H102" s="2">
-        <v>2000</v>
       </c>
       <c r="I102" s="3">
         <v>81.052849600000002</v>
@@ -6217,23 +6228,23 @@
       <c r="B103" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C103" s="3">
+      <c r="C103" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D103" s="3">
         <v>33</v>
       </c>
-      <c r="D103" s="2">
+      <c r="E103" s="2">
         <v>6.79</v>
       </c>
-      <c r="E103" s="2">
+      <c r="F103" s="2">
         <v>-448</v>
       </c>
-      <c r="F103" s="4">
+      <c r="G103" s="4">
         <v>6002.0316599999996</v>
       </c>
-      <c r="G103" s="2">
+      <c r="H103" s="2">
         <v>3.7</v>
-      </c>
-      <c r="H103" s="2">
-        <v>2000</v>
       </c>
       <c r="I103" s="3">
         <v>76.70660402</v>
@@ -6270,23 +6281,23 @@
       <c r="B104" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C104" s="3">
+      <c r="C104" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D104" s="3">
         <v>33.22</v>
       </c>
-      <c r="D104" s="2">
+      <c r="E104" s="2">
         <v>6.81</v>
       </c>
-      <c r="E104" s="2">
+      <c r="F104" s="2">
         <v>-449</v>
       </c>
-      <c r="F104" s="4">
+      <c r="G104" s="4">
         <v>5799.5143189999999</v>
       </c>
-      <c r="G104" s="2">
+      <c r="H104" s="2">
         <v>3.67</v>
-      </c>
-      <c r="H104" s="2">
-        <v>2000</v>
       </c>
       <c r="I104" s="3">
         <v>84.491214979999995</v>
@@ -6323,23 +6334,23 @@
       <c r="B105" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C105" s="3">
+      <c r="C105" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D105" s="3">
         <v>33.11</v>
       </c>
-      <c r="D105" s="2">
+      <c r="E105" s="2">
         <v>6.81</v>
       </c>
-      <c r="E105" s="2">
+      <c r="F105" s="2">
         <v>-449</v>
       </c>
-      <c r="F105" s="4">
+      <c r="G105" s="4">
         <v>5900.7729900000004</v>
       </c>
-      <c r="G105" s="2">
+      <c r="H105" s="2">
         <v>3.72</v>
-      </c>
-      <c r="H105" s="2">
-        <v>2000</v>
       </c>
       <c r="I105" s="3">
         <v>88.50987379</v>
@@ -6376,23 +6387,23 @@
       <c r="B106" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C106" s="3">
+      <c r="C106" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D106" s="3">
         <v>33.33</v>
       </c>
-      <c r="D106" s="2">
+      <c r="E106" s="2">
         <v>6.81</v>
       </c>
-      <c r="E106" s="2">
+      <c r="F106" s="2">
         <v>-449</v>
       </c>
-      <c r="F106" s="4">
+      <c r="G106" s="4">
         <v>4598.8972000000003</v>
       </c>
-      <c r="G106" s="2">
+      <c r="H106" s="2">
         <v>3.75</v>
-      </c>
-      <c r="H106" s="2">
-        <v>2000</v>
       </c>
       <c r="I106" s="3">
         <v>110.0883618</v>
@@ -6429,23 +6440,23 @@
       <c r="B107" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C107" s="3">
+      <c r="C107" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D107" s="3">
         <v>33.18</v>
       </c>
-      <c r="D107" s="2">
+      <c r="E107" s="2">
         <v>6.81</v>
       </c>
-      <c r="E107" s="2">
+      <c r="F107" s="2">
         <v>-449</v>
       </c>
-      <c r="F107" s="4">
+      <c r="G107" s="4">
         <v>3498.751338</v>
       </c>
-      <c r="G107" s="2">
+      <c r="H107" s="2">
         <v>3.77</v>
-      </c>
-      <c r="H107" s="2">
-        <v>2000</v>
       </c>
       <c r="I107" s="3">
         <v>70.915453389999996</v>
@@ -6482,23 +6493,23 @@
       <c r="B108" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C108" s="3">
+      <c r="C108" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D108" s="3">
         <v>33.01</v>
       </c>
-      <c r="D108" s="2">
+      <c r="E108" s="2">
         <v>6.79</v>
       </c>
-      <c r="E108" s="2">
+      <c r="F108" s="2">
         <v>-450</v>
       </c>
-      <c r="F108" s="4">
+      <c r="G108" s="4">
         <v>5699.0430619999997</v>
       </c>
-      <c r="G108" s="2">
+      <c r="H108" s="2">
         <v>3.79</v>
-      </c>
-      <c r="H108" s="2">
-        <v>2000</v>
       </c>
       <c r="I108" s="3">
         <v>66.017942989999995</v>
@@ -6535,23 +6546,23 @@
       <c r="B109" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C109" s="3">
+      <c r="C109" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D109" s="3">
         <v>32.99</v>
       </c>
-      <c r="D109" s="2">
+      <c r="E109" s="2">
         <v>6.82</v>
       </c>
-      <c r="E109" s="2">
+      <c r="F109" s="2">
         <v>-450</v>
       </c>
-      <c r="F109" s="4">
+      <c r="G109" s="4">
         <v>8300.7457319999994</v>
       </c>
-      <c r="G109" s="2">
+      <c r="H109" s="2">
         <v>3.79</v>
-      </c>
-      <c r="H109" s="2">
-        <v>2000</v>
       </c>
       <c r="I109" s="3">
         <v>47.196260270000003</v>
@@ -6588,23 +6599,23 @@
       <c r="B110" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C110" s="3">
+      <c r="C110" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D110" s="3">
         <v>33.29</v>
       </c>
-      <c r="D110" s="2">
+      <c r="E110" s="2">
         <v>6.83</v>
       </c>
-      <c r="E110" s="2">
+      <c r="F110" s="2">
         <v>-452</v>
       </c>
-      <c r="F110" s="4">
+      <c r="G110" s="4">
         <v>4898.75</v>
       </c>
-      <c r="G110" s="2">
+      <c r="H110" s="2">
         <v>3.81</v>
-      </c>
-      <c r="H110" s="2">
-        <v>2000</v>
       </c>
       <c r="I110" s="3">
         <v>114.9729997</v>
@@ -6635,6 +6646,11 @@
       <c r="S110" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="M1:O1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
